--- a/frontend/polls/templates/polls/Performance_Template.xlsx
+++ b/frontend/polls/templates/polls/Performance_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="941" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="941" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="algorithm" sheetId="1" state="visible" r:id="rId2"/>
@@ -492,7 +492,7 @@
     <t>random_write</t>
   </si>
   <si>
-    <t>bytes/second</t>
+    <t>Mbytes/second</t>
   </si>
   <si>
     <t>reread</t>
@@ -1140,8 +1140,8 @@
   </sheetPr>
   <dimension ref="1:29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41257,13 +41257,15 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="12" min="1" style="1" width="12.004048582996"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="12.004048582996"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.9028340080972"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="1" width="12.004048582996"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.5748987854251"/>

--- a/frontend/polls/templates/polls/Performance_Template.xlsx
+++ b/frontend/polls/templates/polls/Performance_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="941" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="941" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="algorithm" sheetId="1" state="visible" r:id="rId2"/>
@@ -492,7 +492,7 @@
     <t>random_write</t>
   </si>
   <si>
-    <t>bytes/second</t>
+    <t>Mbytes/second</t>
   </si>
   <si>
     <t>reread</t>
@@ -1136,11 +1136,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1912,6 +1913,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:53"/>
@@ -3313,6 +3315,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMI45"/>
@@ -37753,6 +37756,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMI28"/>
@@ -41253,17 +41257,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="12" min="1" style="1" width="12.004048582996"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="12.004048582996"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.4898785425101"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="1" width="12.004048582996"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.5748987854251"/>
@@ -42197,6 +42204,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M39"/>
@@ -43220,6 +43228,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:36"/>
@@ -44201,6 +44210,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Q16"/>

--- a/frontend/polls/templates/polls/Performance_Template.xlsx
+++ b/frontend/polls/templates/polls/Performance_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="941" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="970" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="algorithm" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="289">
   <si>
     <t>Caliper Performance Tests: Algorithm</t>
   </si>
@@ -183,31 +183,31 @@
     <t>compile</t>
   </si>
   <si>
-    <t>Kernel-dev_1</t>
+    <t>kernel-dev_01</t>
   </si>
   <si>
     <t>Kilo sec</t>
   </si>
   <si>
-    <t>Kernel-dev_2</t>
+    <t>kernel-dev_02</t>
   </si>
   <si>
-    <t>Kernel-dev_4</t>
+    <t>kernel-dev_04</t>
   </si>
   <si>
-    <t>Kernel-dev_8</t>
+    <t>kernel-dev_08</t>
   </si>
   <si>
-    <t>Kernel-dev_16</t>
+    <t>kernel-dev_16</t>
   </si>
   <si>
-    <t>Kernel-dev_32</t>
+    <t>kernel-dev_32</t>
   </si>
   <si>
-    <t>Kernel-dev_64</t>
+    <t>kernel-dev_64</t>
   </si>
   <si>
-    <t>Kernel-dev_72</t>
+    <t>kernel-dev_72</t>
   </si>
   <si>
     <t>ebizzy</t>
@@ -216,16 +216,16 @@
     <t>ebizzy_no_mmap_time</t>
   </si>
   <si>
-    <t>sys_1</t>
+    <t>sys_01</t>
   </si>
   <si>
-    <t>sys_2</t>
+    <t>sys_02</t>
   </si>
   <si>
-    <t>sys_4</t>
+    <t>sys_04</t>
   </si>
   <si>
-    <t>sys_8</t>
+    <t>sys_08</t>
   </si>
   <si>
     <t>sys_16</t>
@@ -243,16 +243,16 @@
     <t>ebizzy_no_mmap_records</t>
   </si>
   <si>
-    <t>records_1</t>
+    <t>records_01</t>
   </si>
   <si>
-    <t>records_2</t>
+    <t>records_02</t>
   </si>
   <si>
-    <t>records_4</t>
+    <t>records_04</t>
   </si>
   <si>
-    <t>records_8</t>
+    <t>records_08</t>
   </si>
   <si>
     <t>records_16</t>
@@ -639,19 +639,19 @@
     <t>ctx</t>
   </si>
   <si>
-    <t>2p/64K_ctxsw</t>
+    <t>02p/0K_ctxsw</t>
   </si>
   <si>
-    <t>2p/0K_ctxsw</t>
+    <t>02p/16K_ctxsw</t>
   </si>
   <si>
-    <t>8p/64K_ctxsw</t>
+    <t>02p/64K_ctxsw</t>
   </si>
   <si>
-    <t>8p/16K_ctxsw</t>
+    <t>08p/16K_ctxsw</t>
   </si>
   <si>
-    <t>2p/16K_ctxsw</t>
+    <t>08p/64K_ctxsw</t>
   </si>
   <si>
     <t>16p/16K_ctxsw</t>
@@ -834,19 +834,52 @@
     <t>iperf</t>
   </si>
   <si>
-    <t>TCP_s5</t>
+    <t>TCP_s01_RX</t>
   </si>
   <si>
     <t>Mbytesec</t>
   </si>
   <si>
-    <t>TCP_s3</t>
+    <t>TCP_s01_TX</t>
   </si>
   <si>
-    <t>TCP_s1</t>
+    <t>TCP_s03_RX</t>
   </si>
   <si>
-    <t>TCP_s10</t>
+    <t>TCP_s03_TX</t>
+  </si>
+  <si>
+    <t>TCP_s05_RX</t>
+  </si>
+  <si>
+    <t>TCP_s05_TX</t>
+  </si>
+  <si>
+    <t>TCP_s10_RX</t>
+  </si>
+  <si>
+    <t>TCP_s10_TX</t>
+  </si>
+  <si>
+    <t>UDP_s01_TX</t>
+  </si>
+  <si>
+    <t>UDP_s03_RX</t>
+  </si>
+  <si>
+    <t>UDP_s03_TX</t>
+  </si>
+  <si>
+    <t>UDP_s05_RX</t>
+  </si>
+  <si>
+    <t>UDP_s05_TX</t>
+  </si>
+  <si>
+    <t>UDP_s10_RX</t>
+  </si>
+  <si>
+    <t>UDP_s10_TX</t>
   </si>
   <si>
     <t>local_lat</t>
@@ -1136,7 +1169,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:29"/>
@@ -1147,14 +1179,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.17813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="2" style="1" width="9.81376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5748987854251"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.4696356275304"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.2388663967611"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="12.4534412955466"/>
-    <col collapsed="false" hidden="false" max="1022" min="14" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.24696356275304"/>
+    <col collapsed="false" hidden="false" max="7" min="2" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1022" min="14" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="36.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1913,30 +1945,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.50607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="10.6923076923077"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7165991902834"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="10.6923076923077"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.7975708502024"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="10.6923076923077"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="12.6761133603239"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.6923076923077"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1023" min="18" style="1" width="10.6923076923077"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.6923076923077"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.57085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1023" min="18" style="1" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="41.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3315,7 +3346,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMI45"/>
@@ -3326,17 +3356,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.61943319838057"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.9109311740891"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.5748987854251"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="1" width="10.9109311740891"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.9109311740891"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="10.9109311740891"/>
-    <col collapsed="false" hidden="false" max="1023" min="19" style="1" width="10.9109311740891"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.9109311740891"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.67611336032389"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1023" min="19" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37756,28 +37786,27 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMI28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.61943319838057"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.9109311740891"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.7935222672065"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.5748987854251"/>
-    <col collapsed="false" hidden="false" max="13" min="6" style="1" width="10.9109311740891"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="10.9109311740891"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.9109311740891"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="10.9109311740891"/>
-    <col collapsed="false" hidden="false" max="1023" min="19" style="1" width="10.9109311740891"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.9109311740891"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.67611336032389"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="13" min="6" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1023" min="19" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -41257,24 +41286,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="12.004048582996"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.4898785425101"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="1" width="12.004048582996"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="12.004048582996"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.080971659919"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="12.2105263157895"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -42204,32 +42232,31 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.8421052631579"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="8.70445344129555"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1336032388664"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.70445344129555"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.582995951417"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.582995951417"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.9028340080972"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="8.70445344129555"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.9028340080972"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.7975708502024"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="10.582995951417"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="8.70445344129555"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="38.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -43228,7 +43255,6 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:36"/>
@@ -43239,22 +43265,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.50607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.25506072874494"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.9676113360324"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.25506072874494"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="9.81376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5748987854251"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.25506072874494"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8056680161943"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.3603238866397"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.25506072874494"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="9.25506072874494"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.25506072874494"/>
-    <col collapsed="false" hidden="false" max="1023" min="20" style="1" width="9.25506072874494"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.25506072874494"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.57085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="1023" min="20" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
     <row r="1" s="19" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -44210,31 +44236,30 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.50607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.36842105263158"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.0121457489879"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.36842105263158"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.36842105263158"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.7975708502024"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.36842105263158"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.36842105263158"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.36842105263158"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="9.36842105263158"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.57085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -44312,7 +44337,7 @@
       <c r="B3" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -44337,7 +44362,7 @@
       <c r="B4" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -44362,7 +44387,7 @@
       <c r="B5" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -44387,7 +44412,7 @@
       <c r="B6" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -44412,7 +44437,7 @@
       <c r="B7" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -44437,7 +44462,7 @@
       <c r="B8" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -44462,7 +44487,7 @@
       <c r="B9" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -44487,7 +44512,7 @@
       <c r="B10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -44506,13 +44531,9 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>171</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -44530,21 +44551,17 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>114</v>
-      </c>
+    <row r="12" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="8"/>
@@ -44555,21 +44572,17 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>114</v>
-      </c>
+    <row r="13" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
@@ -44580,21 +44593,17 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>114</v>
-      </c>
+    <row r="14" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="8"/>
@@ -44605,21 +44614,17 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>114</v>
-      </c>
+    <row r="15" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="8"/>
@@ -44630,21 +44635,17 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>114</v>
-      </c>
+    <row r="16" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="8"/>
@@ -44655,17 +44656,272 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
     </row>
+    <row r="17" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C3:C22"/>
+    <mergeCell ref="A8:A22"/>
+    <mergeCell ref="B8:B22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/frontend/polls/templates/polls/Performance_Template.xlsx
+++ b/frontend/polls/templates/polls/Performance_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="970" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="372" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="algorithm" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="405">
   <si>
     <t>Caliper Performance Tests: Algorithm</t>
   </si>
@@ -933,9 +933,6 @@
     <t>nanoseconds</t>
   </si>
   <si>
-    <t>lb_lat_cross_01_core</t>
-  </si>
-  <si>
     <t>lb_lat_01_01KB</t>
   </si>
   <si>
@@ -1014,22 +1011,31 @@
     <t>lb_lat_26_8MB</t>
   </si>
   <si>
-    <t>lb_lat_26_16MB</t>
+    <t>lb_lat_27_12MB</t>
   </si>
   <si>
-    <t>lb_lat_26_32MB</t>
+    <t>lb_lat_28_16MB</t>
+  </si>
+  <si>
+    <t>lb_lat_29_24MB</t>
+  </si>
+  <si>
+    <t>lb_lat_30_32MB</t>
   </si>
   <si>
     <t>lb_lat_local_04_core</t>
-  </si>
-  <si>
-    <t>lb_lat_cross_04_core</t>
   </si>
   <si>
     <t>lb_lat_local_16_core</t>
   </si>
   <si>
     <t>lb_lat_local_32_core</t>
+  </si>
+  <si>
+    <t>lb_lat_cross_01_core</t>
+  </si>
+  <si>
+    <t>lb_lat_cross_04_core</t>
   </si>
   <si>
     <t>lb_lat_cross_16_core</t>
@@ -1240,7 +1246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1285,12 +1291,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1361,7 +1361,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1435,7 +1435,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1448,10 +1448,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1533,7 +1529,7 @@
   </sheetPr>
   <dimension ref="1:29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2309,7 +2305,7 @@
   </sheetPr>
   <dimension ref="1:53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3710,7 +3706,7 @@
   </sheetPr>
   <dimension ref="A1:AMI65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I69" activeCellId="0" sqref="I69"/>
     </sheetView>
   </sheetViews>
@@ -38472,7 +38468,7 @@
   </sheetPr>
   <dimension ref="A1:AMI51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -42875,7 +42871,7 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -43821,7 +43817,7 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -44772,10 +44768,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:319"/>
+  <dimension ref="1:333"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A269" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H300" activeCellId="0" sqref="H300"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A288" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E312" activeCellId="0" sqref="E312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -45307,7 +45303,7 @@
       <c r="B20" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -45327,12 +45323,12 @@
     </row>
     <row r="21" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -45352,12 +45348,12 @@
     </row>
     <row r="22" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -45377,12 +45373,12 @@
     </row>
     <row r="23" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -45402,12 +45398,12 @@
     </row>
     <row r="24" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -45427,12 +45423,12 @@
     </row>
     <row r="25" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -45452,12 +45448,12 @@
     </row>
     <row r="26" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -45477,12 +45473,12 @@
     </row>
     <row r="27" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -45502,12 +45498,12 @@
     </row>
     <row r="28" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -45527,12 +45523,12 @@
     </row>
     <row r="29" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -45552,12 +45548,12 @@
     </row>
     <row r="30" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -45577,12 +45573,12 @@
     </row>
     <row r="31" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -45602,12 +45598,12 @@
     </row>
     <row r="32" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -45627,12 +45623,12 @@
     </row>
     <row r="33" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -45652,12 +45648,12 @@
     </row>
     <row r="34" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -45677,12 +45673,12 @@
     </row>
     <row r="35" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -45702,12 +45698,12 @@
     </row>
     <row r="36" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D36" s="8" t="s">
@@ -45726,7 +45722,9 @@
       <c r="M36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17"/>
+      <c r="A37" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B37" s="6" t="s">
         <v>114</v>
       </c>
@@ -45749,7 +45747,9 @@
       <c r="M37" s="17"/>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17"/>
+      <c r="A38" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B38" s="6" t="s">
         <v>114</v>
       </c>
@@ -45772,7 +45772,9 @@
       <c r="M38" s="17"/>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17"/>
+      <c r="A39" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B39" s="6" t="s">
         <v>114</v>
       </c>
@@ -45795,7 +45797,9 @@
       <c r="M39" s="17"/>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17"/>
+      <c r="A40" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B40" s="6" t="s">
         <v>114</v>
       </c>
@@ -45818,7 +45822,9 @@
       <c r="M40" s="17"/>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17"/>
+      <c r="A41" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B41" s="6" t="s">
         <v>114</v>
       </c>
@@ -45841,7 +45847,9 @@
       <c r="M41" s="17"/>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17"/>
+      <c r="A42" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B42" s="6" t="s">
         <v>114</v>
       </c>
@@ -45864,7 +45872,9 @@
       <c r="M42" s="17"/>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17"/>
+      <c r="A43" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B43" s="6" t="s">
         <v>114</v>
       </c>
@@ -45887,7 +45897,9 @@
       <c r="M43" s="17"/>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17"/>
+      <c r="A44" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B44" s="6" t="s">
         <v>114</v>
       </c>
@@ -45910,7 +45922,9 @@
       <c r="M44" s="17"/>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17"/>
+      <c r="A45" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B45" s="6" t="s">
         <v>114</v>
       </c>
@@ -45933,11 +45947,13 @@
       <c r="M45" s="17"/>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17"/>
-      <c r="B46" s="22" t="s">
+      <c r="A46" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D46" s="17" t="s">
@@ -45956,11 +45972,13 @@
       <c r="M46" s="17"/>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17"/>
-      <c r="B47" s="22" t="s">
+      <c r="A47" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D47" s="17" t="s">
@@ -45979,11 +45997,13 @@
       <c r="M47" s="17"/>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17"/>
-      <c r="B48" s="22" t="s">
+      <c r="A48" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -46002,11 +46022,13 @@
       <c r="M48" s="17"/>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17"/>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D49" s="17" t="s">
@@ -46025,11 +46047,13 @@
       <c r="M49" s="17"/>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17"/>
-      <c r="B50" s="22" t="s">
+      <c r="A50" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D50" s="17" t="s">
@@ -46048,11 +46072,13 @@
       <c r="M50" s="17"/>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17"/>
-      <c r="B51" s="22" t="s">
+      <c r="A51" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -46071,11 +46097,13 @@
       <c r="M51" s="17"/>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17"/>
-      <c r="B52" s="22" t="s">
+      <c r="A52" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D52" s="17" t="s">
@@ -46094,11 +46122,13 @@
       <c r="M52" s="17"/>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17"/>
-      <c r="B53" s="22" t="s">
+      <c r="A53" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D53" s="17" t="s">
@@ -46117,11 +46147,13 @@
       <c r="M53" s="17"/>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17"/>
-      <c r="B54" s="22" t="s">
+      <c r="A54" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -46140,11 +46172,13 @@
       <c r="M54" s="17"/>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17"/>
-      <c r="B55" s="22" t="s">
+      <c r="A55" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D55" s="17" t="s">
@@ -46163,11 +46197,13 @@
       <c r="M55" s="17"/>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17"/>
-      <c r="B56" s="22" t="s">
+      <c r="A56" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -46186,11 +46222,13 @@
       <c r="M56" s="17"/>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17"/>
-      <c r="B57" s="22" t="s">
+      <c r="A57" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D57" s="17" t="s">
@@ -46209,11 +46247,13 @@
       <c r="M57" s="17"/>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17"/>
-      <c r="B58" s="22" t="s">
+      <c r="A58" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D58" s="17" t="s">
@@ -46232,11 +46272,13 @@
       <c r="M58" s="17"/>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17"/>
-      <c r="B59" s="22" t="s">
+      <c r="A59" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D59" s="17" t="s">
@@ -46255,11 +46297,13 @@
       <c r="M59" s="17"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17"/>
-      <c r="B60" s="22" t="s">
+      <c r="A60" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -46278,11 +46322,13 @@
       <c r="M60" s="17"/>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17"/>
-      <c r="B61" s="22" t="s">
+      <c r="A61" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D61" s="17" t="s">
@@ -46301,11 +46347,13 @@
       <c r="M61" s="17"/>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17"/>
-      <c r="B62" s="22" t="s">
+      <c r="A62" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D62" s="17" t="s">
@@ -46324,11 +46372,13 @@
       <c r="M62" s="17"/>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17"/>
-      <c r="B63" s="22" t="s">
+      <c r="A63" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -46347,11 +46397,13 @@
       <c r="M63" s="17"/>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17"/>
-      <c r="B64" s="22" t="s">
+      <c r="A64" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D64" s="17" t="s">
@@ -46370,11 +46422,13 @@
       <c r="M64" s="17"/>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17"/>
-      <c r="B65" s="22" t="s">
+      <c r="A65" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D65" s="17" t="s">
@@ -46393,11 +46447,13 @@
       <c r="M65" s="17"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17"/>
-      <c r="B66" s="22" t="s">
+      <c r="A66" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D66" s="17" t="s">
@@ -46416,11 +46472,13 @@
       <c r="M66" s="17"/>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17"/>
-      <c r="B67" s="22" t="s">
+      <c r="A67" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D67" s="17" t="s">
@@ -46439,11 +46497,13 @@
       <c r="M67" s="17"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17"/>
-      <c r="B68" s="22" t="s">
+      <c r="A68" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D68" s="17" t="s">
@@ -46462,11 +46522,13 @@
       <c r="M68" s="17"/>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17"/>
-      <c r="B69" s="22" t="s">
+      <c r="A69" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D69" s="17" t="s">
@@ -46485,11 +46547,13 @@
       <c r="M69" s="17"/>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17"/>
-      <c r="B70" s="22" t="s">
+      <c r="A70" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D70" s="17" t="s">
@@ -46508,11 +46572,13 @@
       <c r="M70" s="17"/>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17"/>
-      <c r="B71" s="22" t="s">
+      <c r="A71" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D71" s="17" t="s">
@@ -46531,11 +46597,13 @@
       <c r="M71" s="17"/>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17"/>
-      <c r="B72" s="22" t="s">
+      <c r="A72" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D72" s="17" t="s">
@@ -46554,11 +46622,13 @@
       <c r="M72" s="17"/>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17"/>
-      <c r="B73" s="22" t="s">
+      <c r="A73" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D73" s="17" t="s">
@@ -46577,11 +46647,13 @@
       <c r="M73" s="17"/>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="17"/>
-      <c r="B74" s="22" t="s">
+      <c r="A74" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D74" s="17" t="s">
@@ -46600,11 +46672,13 @@
       <c r="M74" s="17"/>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="17"/>
-      <c r="B75" s="22" t="s">
+      <c r="A75" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D75" s="17" t="s">
@@ -46623,11 +46697,13 @@
       <c r="M75" s="17"/>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="17"/>
-      <c r="B76" s="22" t="s">
+      <c r="A76" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D76" s="17" t="s">
@@ -46646,11 +46722,13 @@
       <c r="M76" s="17"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="17"/>
-      <c r="B77" s="22" t="s">
+      <c r="A77" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D77" s="17" t="s">
@@ -46669,11 +46747,13 @@
       <c r="M77" s="17"/>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="17"/>
-      <c r="B78" s="22" t="s">
+      <c r="A78" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D78" s="17" t="s">
@@ -46692,11 +46772,13 @@
       <c r="M78" s="17"/>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="17"/>
-      <c r="B79" s="22" t="s">
+      <c r="A79" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D79" s="17" t="s">
@@ -46715,11 +46797,13 @@
       <c r="M79" s="17"/>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="17"/>
-      <c r="B80" s="22" t="s">
+      <c r="A80" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D80" s="17" t="s">
@@ -46738,11 +46822,13 @@
       <c r="M80" s="17"/>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="17"/>
-      <c r="B81" s="22" t="s">
+      <c r="A81" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D81" s="17" t="s">
@@ -46761,8 +46847,10 @@
       <c r="M81" s="17"/>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="17"/>
-      <c r="B82" s="22" t="s">
+      <c r="A82" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C82" s="7" t="s">
@@ -46784,8 +46872,10 @@
       <c r="M82" s="17"/>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="17"/>
-      <c r="B83" s="22" t="s">
+      <c r="A83" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C83" s="7" t="s">
@@ -46807,8 +46897,10 @@
       <c r="M83" s="17"/>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="17"/>
-      <c r="B84" s="22" t="s">
+      <c r="A84" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C84" s="7" t="s">
@@ -46830,8 +46922,10 @@
       <c r="M84" s="17"/>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="17"/>
-      <c r="B85" s="22" t="s">
+      <c r="A85" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C85" s="7" t="s">
@@ -46853,8 +46947,10 @@
       <c r="M85" s="17"/>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="17"/>
-      <c r="B86" s="22" t="s">
+      <c r="A86" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C86" s="7" t="s">
@@ -46876,8 +46972,10 @@
       <c r="M86" s="17"/>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="17"/>
-      <c r="B87" s="22" t="s">
+      <c r="A87" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C87" s="7" t="s">
@@ -46899,8 +46997,10 @@
       <c r="M87" s="17"/>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="17"/>
-      <c r="B88" s="22" t="s">
+      <c r="A88" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C88" s="7" t="s">
@@ -46922,8 +47022,10 @@
       <c r="M88" s="17"/>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="17"/>
-      <c r="B89" s="22" t="s">
+      <c r="A89" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -46945,8 +47047,10 @@
       <c r="M89" s="17"/>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="17"/>
-      <c r="B90" s="22" t="s">
+      <c r="A90" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -46968,11 +47072,13 @@
       <c r="M90" s="17"/>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="17"/>
-      <c r="B91" s="22" t="s">
+      <c r="A91" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="7" t="s">
         <v>287</v>
       </c>
       <c r="D91" s="17" t="s">
@@ -46991,11 +47097,13 @@
       <c r="M91" s="17"/>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="17"/>
-      <c r="B92" s="22" t="s">
+      <c r="A92" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D92" s="17" t="s">
@@ -47014,11 +47122,13 @@
       <c r="M92" s="17"/>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="17"/>
-      <c r="B93" s="22" t="s">
+      <c r="A93" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D93" s="17" t="s">
@@ -47037,11 +47147,13 @@
       <c r="M93" s="17"/>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="17"/>
-      <c r="B94" s="22" t="s">
+      <c r="A94" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D94" s="17" t="s">
@@ -47060,11 +47172,13 @@
       <c r="M94" s="17"/>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="17"/>
-      <c r="B95" s="22" t="s">
+      <c r="A95" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D95" s="17" t="s">
@@ -47083,11 +47197,13 @@
       <c r="M95" s="17"/>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="17"/>
-      <c r="B96" s="22" t="s">
+      <c r="A96" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D96" s="17" t="s">
@@ -47106,11 +47222,13 @@
       <c r="M96" s="17"/>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="17"/>
-      <c r="B97" s="22" t="s">
+      <c r="A97" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D97" s="17" t="s">
@@ -47129,11 +47247,13 @@
       <c r="M97" s="17"/>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="17"/>
-      <c r="B98" s="22" t="s">
+      <c r="A98" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D98" s="17" t="s">
@@ -47152,11 +47272,13 @@
       <c r="M98" s="17"/>
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="17"/>
-      <c r="B99" s="22" t="s">
+      <c r="A99" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D99" s="17" t="s">
@@ -47175,11 +47297,13 @@
       <c r="M99" s="17"/>
     </row>
     <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="17"/>
-      <c r="B100" s="22" t="s">
+      <c r="A100" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="C100" s="7" t="s">
         <v>288</v>
       </c>
       <c r="D100" s="17" t="s">
@@ -47198,11 +47322,13 @@
       <c r="M100" s="17"/>
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="17"/>
-      <c r="B101" s="22" t="s">
+      <c r="A101" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C101" s="22" t="s">
+      <c r="C101" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D101" s="17" t="s">
@@ -47221,11 +47347,13 @@
       <c r="M101" s="17"/>
     </row>
     <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="17"/>
-      <c r="B102" s="22" t="s">
+      <c r="A102" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C102" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D102" s="17" t="s">
@@ -47244,11 +47372,13 @@
       <c r="M102" s="17"/>
     </row>
     <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="17"/>
-      <c r="B103" s="22" t="s">
+      <c r="A103" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="C103" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D103" s="17" t="s">
@@ -47267,11 +47397,13 @@
       <c r="M103" s="17"/>
     </row>
     <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="17"/>
-      <c r="B104" s="22" t="s">
+      <c r="A104" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C104" s="22" t="s">
+      <c r="C104" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D104" s="17" t="s">
@@ -47290,11 +47422,13 @@
       <c r="M104" s="17"/>
     </row>
     <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="17"/>
-      <c r="B105" s="22" t="s">
+      <c r="A105" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="C105" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D105" s="17" t="s">
@@ -47313,11 +47447,13 @@
       <c r="M105" s="17"/>
     </row>
     <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="17"/>
-      <c r="B106" s="22" t="s">
+      <c r="A106" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="C106" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D106" s="17" t="s">
@@ -47336,11 +47472,13 @@
       <c r="M106" s="17"/>
     </row>
     <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="17"/>
-      <c r="B107" s="22" t="s">
+      <c r="A107" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C107" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D107" s="17" t="s">
@@ -47359,11 +47497,13 @@
       <c r="M107" s="17"/>
     </row>
     <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="17"/>
-      <c r="B108" s="22" t="s">
+      <c r="A108" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="C108" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D108" s="17" t="s">
@@ -47382,8 +47522,10 @@
       <c r="M108" s="17"/>
     </row>
     <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="17"/>
-      <c r="B109" s="22" t="s">
+      <c r="A109" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -47405,8 +47547,10 @@
       <c r="M109" s="17"/>
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="17"/>
-      <c r="B110" s="22" t="s">
+      <c r="A110" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C110" s="7" t="s">
@@ -47428,8 +47572,10 @@
       <c r="M110" s="17"/>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="17"/>
-      <c r="B111" s="22" t="s">
+      <c r="A111" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C111" s="7" t="s">
@@ -47451,8 +47597,10 @@
       <c r="M111" s="17"/>
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="17"/>
-      <c r="B112" s="22" t="s">
+      <c r="A112" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C112" s="7" t="s">
@@ -47474,8 +47622,10 @@
       <c r="M112" s="17"/>
     </row>
     <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="17"/>
-      <c r="B113" s="22" t="s">
+      <c r="A113" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C113" s="7" t="s">
@@ -47497,8 +47647,10 @@
       <c r="M113" s="17"/>
     </row>
     <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="17"/>
-      <c r="B114" s="22" t="s">
+      <c r="A114" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C114" s="7" t="s">
@@ -47520,8 +47672,10 @@
       <c r="M114" s="17"/>
     </row>
     <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="17"/>
-      <c r="B115" s="22" t="s">
+      <c r="A115" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C115" s="7" t="s">
@@ -47543,8 +47697,10 @@
       <c r="M115" s="17"/>
     </row>
     <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="17"/>
-      <c r="B116" s="22" t="s">
+      <c r="A116" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -47566,8 +47722,10 @@
       <c r="M116" s="17"/>
     </row>
     <row r="117" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="17"/>
-      <c r="B117" s="22" t="s">
+      <c r="A117" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C117" s="7" t="s">
@@ -47589,15 +47747,17 @@
       <c r="M117" s="17"/>
     </row>
     <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="17"/>
-      <c r="B118" s="22" t="s">
+      <c r="A118" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C118" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D118" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="E118" s="17" t="s">
         <v>302</v>
@@ -47612,15 +47772,17 @@
       <c r="M118" s="17"/>
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="17"/>
-      <c r="B119" s="22" t="s">
+      <c r="A119" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>302</v>
@@ -47635,15 +47797,17 @@
       <c r="M119" s="17"/>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="17"/>
-      <c r="B120" s="22" t="s">
+      <c r="A120" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E120" s="17" t="s">
         <v>302</v>
@@ -47658,15 +47822,17 @@
       <c r="M120" s="17"/>
     </row>
     <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="17"/>
-      <c r="B121" s="22" t="s">
+      <c r="A121" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E121" s="17" t="s">
         <v>302</v>
@@ -47681,15 +47847,17 @@
       <c r="M121" s="17"/>
     </row>
     <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="17"/>
-      <c r="B122" s="22" t="s">
+      <c r="A122" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E122" s="17" t="s">
         <v>302</v>
@@ -47704,15 +47872,17 @@
       <c r="M122" s="17"/>
     </row>
     <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="17"/>
-      <c r="B123" s="22" t="s">
+      <c r="A123" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>302</v>
@@ -47727,15 +47897,17 @@
       <c r="M123" s="17"/>
     </row>
     <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="17"/>
-      <c r="B124" s="22" t="s">
+      <c r="A124" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>302</v>
@@ -47750,15 +47922,17 @@
       <c r="M124" s="17"/>
     </row>
     <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="17"/>
-      <c r="B125" s="22" t="s">
+      <c r="A125" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>302</v>
@@ -47773,15 +47947,17 @@
       <c r="M125" s="17"/>
     </row>
     <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="17"/>
-      <c r="B126" s="22" t="s">
+      <c r="A126" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E126" s="17" t="s">
         <v>302</v>
@@ -47796,15 +47972,17 @@
       <c r="M126" s="17"/>
     </row>
     <row r="127" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="17"/>
-      <c r="B127" s="22" t="s">
+      <c r="A127" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E127" s="17" t="s">
         <v>302</v>
@@ -47819,15 +47997,17 @@
       <c r="M127" s="17"/>
     </row>
     <row r="128" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="17"/>
-      <c r="B128" s="22" t="s">
+      <c r="A128" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E128" s="17" t="s">
         <v>302</v>
@@ -47842,15 +48022,17 @@
       <c r="M128" s="17"/>
     </row>
     <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="17"/>
-      <c r="B129" s="22" t="s">
+      <c r="A129" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E129" s="17" t="s">
         <v>302</v>
@@ -47865,15 +48047,17 @@
       <c r="M129" s="17"/>
     </row>
     <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="17"/>
-      <c r="B130" s="22" t="s">
+      <c r="A130" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E130" s="17" t="s">
         <v>302</v>
@@ -47888,15 +48072,17 @@
       <c r="M130" s="17"/>
     </row>
     <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="17"/>
-      <c r="B131" s="22" t="s">
+      <c r="A131" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E131" s="17" t="s">
         <v>302</v>
@@ -47911,15 +48097,17 @@
       <c r="M131" s="17"/>
     </row>
     <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="17"/>
-      <c r="B132" s="22" t="s">
+      <c r="A132" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E132" s="17" t="s">
         <v>302</v>
@@ -47934,15 +48122,17 @@
       <c r="M132" s="17"/>
     </row>
     <row r="133" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="17"/>
-      <c r="B133" s="22" t="s">
+      <c r="A133" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E133" s="17" t="s">
         <v>302</v>
@@ -47957,15 +48147,17 @@
       <c r="M133" s="17"/>
     </row>
     <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="17"/>
-      <c r="B134" s="22" t="s">
+      <c r="A134" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E134" s="17" t="s">
         <v>302</v>
@@ -47980,15 +48172,17 @@
       <c r="M134" s="17"/>
     </row>
     <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="17"/>
-      <c r="B135" s="22" t="s">
+      <c r="A135" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E135" s="17" t="s">
         <v>302</v>
@@ -48003,15 +48197,17 @@
       <c r="M135" s="17"/>
     </row>
     <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="17"/>
-      <c r="B136" s="22" t="s">
+      <c r="A136" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E136" s="17" t="s">
         <v>302</v>
@@ -48026,15 +48222,17 @@
       <c r="M136" s="17"/>
     </row>
     <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="17"/>
-      <c r="B137" s="22" t="s">
+      <c r="A137" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E137" s="17" t="s">
         <v>302</v>
@@ -48049,15 +48247,17 @@
       <c r="M137" s="17"/>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="17"/>
-      <c r="B138" s="22" t="s">
+      <c r="A138" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E138" s="17" t="s">
         <v>302</v>
@@ -48072,15 +48272,17 @@
       <c r="M138" s="17"/>
     </row>
     <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="17"/>
-      <c r="B139" s="22" t="s">
+      <c r="A139" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E139" s="17" t="s">
         <v>302</v>
@@ -48095,15 +48297,17 @@
       <c r="M139" s="17"/>
     </row>
     <row r="140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="17"/>
-      <c r="B140" s="22" t="s">
+      <c r="A140" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E140" s="17" t="s">
         <v>302</v>
@@ -48118,15 +48322,17 @@
       <c r="M140" s="17"/>
     </row>
     <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="17"/>
-      <c r="B141" s="22" t="s">
+      <c r="A141" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E141" s="17" t="s">
         <v>302</v>
@@ -48141,15 +48347,17 @@
       <c r="M141" s="17"/>
     </row>
     <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="17"/>
-      <c r="B142" s="22" t="s">
+      <c r="A142" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E142" s="17" t="s">
         <v>302</v>
@@ -48164,15 +48372,17 @@
       <c r="M142" s="17"/>
     </row>
     <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="17"/>
-      <c r="B143" s="22" t="s">
+      <c r="A143" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E143" s="17" t="s">
         <v>302</v>
@@ -48187,15 +48397,17 @@
       <c r="M143" s="17"/>
     </row>
     <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="17"/>
-      <c r="B144" s="22" t="s">
+      <c r="A144" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E144" s="17" t="s">
         <v>302</v>
@@ -48210,15 +48422,17 @@
       <c r="M144" s="17"/>
     </row>
     <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="17"/>
-      <c r="B145" s="22" t="s">
+      <c r="A145" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E145" s="17" t="s">
         <v>302</v>
@@ -48232,16 +48446,18 @@
       <c r="L145" s="17"/>
       <c r="M145" s="17"/>
     </row>
-    <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="17"/>
-      <c r="B146" s="22" t="s">
+    <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C146" s="22" t="s">
-        <v>332</v>
+      <c r="C146" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="E146" s="17" t="s">
         <v>302</v>
@@ -48256,15 +48472,17 @@
       <c r="M146" s="17"/>
     </row>
     <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="17"/>
-      <c r="B147" s="22" t="s">
+      <c r="A147" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C147" s="22" t="s">
-        <v>333</v>
+      <c r="C147" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="E147" s="17" t="s">
         <v>302</v>
@@ -48278,16 +48496,18 @@
       <c r="L147" s="17"/>
       <c r="M147" s="17"/>
     </row>
-    <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="17"/>
-      <c r="B148" s="22" t="s">
+    <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C148" s="22" t="s">
+      <c r="C148" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E148" s="17" t="s">
         <v>302</v>
@@ -48302,15 +48522,17 @@
       <c r="M148" s="17"/>
     </row>
     <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="17"/>
-      <c r="B149" s="22" t="s">
+      <c r="A149" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C149" s="22" t="s">
+      <c r="C149" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E149" s="17" t="s">
         <v>302</v>
@@ -48325,15 +48547,17 @@
       <c r="M149" s="17"/>
     </row>
     <row r="150" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="17"/>
-      <c r="B150" s="22" t="s">
+      <c r="A150" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C150" s="22" t="s">
+      <c r="C150" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E150" s="17" t="s">
         <v>302</v>
@@ -48348,15 +48572,17 @@
       <c r="M150" s="17"/>
     </row>
     <row r="151" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="17"/>
-      <c r="B151" s="22" t="s">
+      <c r="A151" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C151" s="22" t="s">
+      <c r="C151" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E151" s="17" t="s">
         <v>302</v>
@@ -48371,15 +48597,17 @@
       <c r="M151" s="17"/>
     </row>
     <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="17"/>
-      <c r="B152" s="22" t="s">
+      <c r="A152" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C152" s="22" t="s">
+      <c r="C152" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E152" s="17" t="s">
         <v>302</v>
@@ -48394,15 +48622,17 @@
       <c r="M152" s="17"/>
     </row>
     <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="17"/>
-      <c r="B153" s="22" t="s">
+      <c r="A153" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C153" s="22" t="s">
+      <c r="C153" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E153" s="17" t="s">
         <v>302</v>
@@ -48417,15 +48647,17 @@
       <c r="M153" s="17"/>
     </row>
     <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="17"/>
-      <c r="B154" s="22" t="s">
+      <c r="A154" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C154" s="22" t="s">
+      <c r="C154" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E154" s="17" t="s">
         <v>302</v>
@@ -48440,15 +48672,17 @@
       <c r="M154" s="17"/>
     </row>
     <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="17"/>
-      <c r="B155" s="22" t="s">
+      <c r="A155" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C155" s="22" t="s">
+      <c r="C155" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E155" s="17" t="s">
         <v>302</v>
@@ -48463,15 +48697,17 @@
       <c r="M155" s="17"/>
     </row>
     <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="17"/>
-      <c r="B156" s="22" t="s">
+      <c r="A156" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C156" s="22" t="s">
+      <c r="C156" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E156" s="17" t="s">
         <v>302</v>
@@ -48486,15 +48722,17 @@
       <c r="M156" s="17"/>
     </row>
     <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="17"/>
-      <c r="B157" s="22" t="s">
+      <c r="A157" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C157" s="22" t="s">
+      <c r="C157" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E157" s="17" t="s">
         <v>302</v>
@@ -48509,15 +48747,17 @@
       <c r="M157" s="17"/>
     </row>
     <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="17"/>
-      <c r="B158" s="22" t="s">
+      <c r="A158" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C158" s="22" t="s">
+      <c r="C158" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E158" s="17" t="s">
         <v>302</v>
@@ -48532,15 +48772,17 @@
       <c r="M158" s="17"/>
     </row>
     <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="17"/>
-      <c r="B159" s="22" t="s">
+      <c r="A159" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C159" s="22" t="s">
+      <c r="C159" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E159" s="17" t="s">
         <v>302</v>
@@ -48555,15 +48797,17 @@
       <c r="M159" s="17"/>
     </row>
     <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="17"/>
-      <c r="B160" s="22" t="s">
+      <c r="A160" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C160" s="22" t="s">
+      <c r="C160" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E160" s="17" t="s">
         <v>302</v>
@@ -48578,15 +48822,17 @@
       <c r="M160" s="17"/>
     </row>
     <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="17"/>
-      <c r="B161" s="22" t="s">
+      <c r="A161" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C161" s="22" t="s">
+      <c r="C161" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E161" s="17" t="s">
         <v>302</v>
@@ -48601,15 +48847,17 @@
       <c r="M161" s="17"/>
     </row>
     <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="17"/>
-      <c r="B162" s="22" t="s">
+      <c r="A162" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C162" s="22" t="s">
+      <c r="C162" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E162" s="17" t="s">
         <v>302</v>
@@ -48624,15 +48872,17 @@
       <c r="M162" s="17"/>
     </row>
     <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="17"/>
-      <c r="B163" s="22" t="s">
+      <c r="A163" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C163" s="22" t="s">
+      <c r="C163" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E163" s="17" t="s">
         <v>302</v>
@@ -48647,15 +48897,17 @@
       <c r="M163" s="17"/>
     </row>
     <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="17"/>
-      <c r="B164" s="22" t="s">
+      <c r="A164" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C164" s="22" t="s">
+      <c r="C164" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E164" s="17" t="s">
         <v>302</v>
@@ -48670,15 +48922,17 @@
       <c r="M164" s="17"/>
     </row>
     <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="17"/>
-      <c r="B165" s="22" t="s">
+      <c r="A165" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C165" s="22" t="s">
+      <c r="C165" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E165" s="17" t="s">
         <v>302</v>
@@ -48693,15 +48947,17 @@
       <c r="M165" s="17"/>
     </row>
     <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="17"/>
-      <c r="B166" s="22" t="s">
+      <c r="A166" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C166" s="22" t="s">
+      <c r="C166" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E166" s="17" t="s">
         <v>302</v>
@@ -48716,15 +48972,17 @@
       <c r="M166" s="17"/>
     </row>
     <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="17"/>
-      <c r="B167" s="22" t="s">
+      <c r="A167" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C167" s="22" t="s">
+      <c r="C167" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E167" s="17" t="s">
         <v>302</v>
@@ -48739,15 +48997,17 @@
       <c r="M167" s="17"/>
     </row>
     <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="17"/>
-      <c r="B168" s="22" t="s">
+      <c r="A168" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C168" s="22" t="s">
+      <c r="C168" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E168" s="17" t="s">
         <v>302</v>
@@ -48762,15 +49022,17 @@
       <c r="M168" s="17"/>
     </row>
     <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="17"/>
-      <c r="B169" s="22" t="s">
+      <c r="A169" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C169" s="22" t="s">
+      <c r="C169" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E169" s="17" t="s">
         <v>302</v>
@@ -48785,15 +49047,17 @@
       <c r="M169" s="17"/>
     </row>
     <row r="170" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="17"/>
-      <c r="B170" s="22" t="s">
+      <c r="A170" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C170" s="22" t="s">
+      <c r="C170" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E170" s="17" t="s">
         <v>302</v>
@@ -48808,15 +49072,17 @@
       <c r="M170" s="17"/>
     </row>
     <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="17"/>
-      <c r="B171" s="22" t="s">
+      <c r="A171" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C171" s="22" t="s">
+      <c r="C171" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E171" s="17" t="s">
         <v>302</v>
@@ -48831,15 +49097,17 @@
       <c r="M171" s="17"/>
     </row>
     <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="17"/>
-      <c r="B172" s="22" t="s">
+      <c r="A172" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C172" s="22" t="s">
+      <c r="C172" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E172" s="17" t="s">
         <v>302</v>
@@ -48854,15 +49122,17 @@
       <c r="M172" s="17"/>
     </row>
     <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="17"/>
-      <c r="B173" s="22" t="s">
+      <c r="A173" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C173" s="22" t="s">
+      <c r="C173" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E173" s="17" t="s">
         <v>302</v>
@@ -48877,15 +49147,17 @@
       <c r="M173" s="17"/>
     </row>
     <row r="174" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="17"/>
-      <c r="B174" s="22" t="s">
+      <c r="A174" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C174" s="22" t="s">
+      <c r="C174" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E174" s="17" t="s">
         <v>302</v>
@@ -48899,16 +49171,18 @@
       <c r="L174" s="17"/>
       <c r="M174" s="17"/>
     </row>
-    <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="17"/>
-      <c r="B175" s="22" t="s">
+    <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C175" s="22" t="s">
-        <v>334</v>
+      <c r="C175" s="7" t="s">
+        <v>333</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="E175" s="17" t="s">
         <v>302</v>
@@ -48923,15 +49197,17 @@
       <c r="M175" s="17"/>
     </row>
     <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="17"/>
-      <c r="B176" s="22" t="s">
+      <c r="A176" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C176" s="22" t="s">
+      <c r="C176" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="E176" s="17" t="s">
         <v>302</v>
@@ -48946,15 +49222,17 @@
       <c r="M176" s="17"/>
     </row>
     <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="17"/>
-      <c r="B177" s="22" t="s">
+      <c r="A177" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C177" s="22" t="s">
+      <c r="C177" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="E177" s="17" t="s">
         <v>302</v>
@@ -48969,15 +49247,17 @@
       <c r="M177" s="17"/>
     </row>
     <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="17"/>
-      <c r="B178" s="22" t="s">
+      <c r="A178" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C178" s="22" t="s">
+      <c r="C178" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="E178" s="17" t="s">
         <v>302</v>
@@ -48991,16 +49271,18 @@
       <c r="L178" s="17"/>
       <c r="M178" s="17"/>
     </row>
-    <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="17"/>
-      <c r="B179" s="22" t="s">
+    <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C179" s="22" t="s">
-        <v>333</v>
+      <c r="C179" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E179" s="17" t="s">
         <v>302</v>
@@ -49015,15 +49297,17 @@
       <c r="M179" s="17"/>
     </row>
     <row r="180" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="17"/>
-      <c r="B180" s="22" t="s">
+      <c r="A180" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C180" s="22" t="s">
-        <v>333</v>
+      <c r="C180" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E180" s="17" t="s">
         <v>302</v>
@@ -49038,15 +49322,17 @@
       <c r="M180" s="17"/>
     </row>
     <row r="181" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="17"/>
-      <c r="B181" s="22" t="s">
+      <c r="A181" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C181" s="22" t="s">
-        <v>333</v>
+      <c r="C181" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E181" s="17" t="s">
         <v>302</v>
@@ -49061,15 +49347,17 @@
       <c r="M181" s="17"/>
     </row>
     <row r="182" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="17"/>
-      <c r="B182" s="22" t="s">
+      <c r="A182" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C182" s="22" t="s">
-        <v>333</v>
+      <c r="C182" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E182" s="17" t="s">
         <v>302</v>
@@ -49084,15 +49372,17 @@
       <c r="M182" s="17"/>
     </row>
     <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="17"/>
-      <c r="B183" s="22" t="s">
+      <c r="A183" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C183" s="22" t="s">
-        <v>333</v>
+      <c r="C183" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E183" s="17" t="s">
         <v>302</v>
@@ -49107,15 +49397,17 @@
       <c r="M183" s="17"/>
     </row>
     <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="17"/>
-      <c r="B184" s="22" t="s">
+      <c r="A184" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C184" s="22" t="s">
-        <v>333</v>
+      <c r="C184" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E184" s="17" t="s">
         <v>302</v>
@@ -49130,15 +49422,17 @@
       <c r="M184" s="17"/>
     </row>
     <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="17"/>
-      <c r="B185" s="22" t="s">
+      <c r="A185" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B185" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="22" t="s">
-        <v>333</v>
+      <c r="C185" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E185" s="17" t="s">
         <v>302</v>
@@ -49153,15 +49447,17 @@
       <c r="M185" s="17"/>
     </row>
     <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="17"/>
-      <c r="B186" s="22" t="s">
+      <c r="A186" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C186" s="22" t="s">
-        <v>333</v>
+      <c r="C186" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E186" s="17" t="s">
         <v>302</v>
@@ -49176,15 +49472,17 @@
       <c r="M186" s="17"/>
     </row>
     <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="17"/>
-      <c r="B187" s="22" t="s">
+      <c r="A187" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C187" s="22" t="s">
-        <v>333</v>
+      <c r="C187" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E187" s="17" t="s">
         <v>302</v>
@@ -49199,15 +49497,17 @@
       <c r="M187" s="17"/>
     </row>
     <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="17"/>
-      <c r="B188" s="22" t="s">
+      <c r="A188" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C188" s="22" t="s">
-        <v>333</v>
+      <c r="C188" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E188" s="17" t="s">
         <v>302</v>
@@ -49222,15 +49522,17 @@
       <c r="M188" s="17"/>
     </row>
     <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="17"/>
-      <c r="B189" s="22" t="s">
+      <c r="A189" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C189" s="22" t="s">
-        <v>333</v>
+      <c r="C189" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E189" s="17" t="s">
         <v>302</v>
@@ -49245,15 +49547,17 @@
       <c r="M189" s="17"/>
     </row>
     <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="17"/>
-      <c r="B190" s="22" t="s">
+      <c r="A190" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C190" s="22" t="s">
-        <v>333</v>
+      <c r="C190" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E190" s="17" t="s">
         <v>302</v>
@@ -49268,15 +49572,17 @@
       <c r="M190" s="17"/>
     </row>
     <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="17"/>
-      <c r="B191" s="22" t="s">
+      <c r="A191" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C191" s="22" t="s">
-        <v>333</v>
+      <c r="C191" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E191" s="17" t="s">
         <v>302</v>
@@ -49291,15 +49597,17 @@
       <c r="M191" s="17"/>
     </row>
     <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="17"/>
-      <c r="B192" s="22" t="s">
+      <c r="A192" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C192" s="22" t="s">
-        <v>333</v>
+      <c r="C192" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E192" s="17" t="s">
         <v>302</v>
@@ -49314,15 +49622,17 @@
       <c r="M192" s="17"/>
     </row>
     <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="17"/>
-      <c r="B193" s="22" t="s">
+      <c r="A193" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C193" s="22" t="s">
-        <v>333</v>
+      <c r="C193" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E193" s="17" t="s">
         <v>302</v>
@@ -49337,15 +49647,17 @@
       <c r="M193" s="17"/>
     </row>
     <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="17"/>
-      <c r="B194" s="22" t="s">
+      <c r="A194" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C194" s="22" t="s">
-        <v>333</v>
+      <c r="C194" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E194" s="17" t="s">
         <v>302</v>
@@ -49360,15 +49672,17 @@
       <c r="M194" s="17"/>
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="17"/>
-      <c r="B195" s="22" t="s">
+      <c r="A195" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C195" s="22" t="s">
-        <v>333</v>
+      <c r="C195" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E195" s="17" t="s">
         <v>302</v>
@@ -49383,15 +49697,17 @@
       <c r="M195" s="17"/>
     </row>
     <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="17"/>
-      <c r="B196" s="22" t="s">
+      <c r="A196" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C196" s="22" t="s">
-        <v>333</v>
+      <c r="C196" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E196" s="17" t="s">
         <v>302</v>
@@ -49406,15 +49722,17 @@
       <c r="M196" s="17"/>
     </row>
     <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="17"/>
-      <c r="B197" s="22" t="s">
+      <c r="A197" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B197" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C197" s="22" t="s">
-        <v>333</v>
+      <c r="C197" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E197" s="17" t="s">
         <v>302</v>
@@ -49429,15 +49747,17 @@
       <c r="M197" s="17"/>
     </row>
     <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="17"/>
-      <c r="B198" s="22" t="s">
+      <c r="A198" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C198" s="22" t="s">
-        <v>333</v>
+      <c r="C198" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E198" s="17" t="s">
         <v>302</v>
@@ -49452,15 +49772,17 @@
       <c r="M198" s="17"/>
     </row>
     <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="17"/>
-      <c r="B199" s="22" t="s">
+      <c r="A199" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C199" s="22" t="s">
-        <v>333</v>
+      <c r="C199" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E199" s="17" t="s">
         <v>302</v>
@@ -49475,15 +49797,17 @@
       <c r="M199" s="17"/>
     </row>
     <row r="200" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="17"/>
-      <c r="B200" s="22" t="s">
+      <c r="A200" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C200" s="22" t="s">
-        <v>333</v>
+      <c r="C200" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E200" s="17" t="s">
         <v>302</v>
@@ -49498,15 +49822,17 @@
       <c r="M200" s="17"/>
     </row>
     <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="17"/>
-      <c r="B201" s="22" t="s">
+      <c r="A201" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C201" s="22" t="s">
-        <v>333</v>
+      <c r="C201" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E201" s="17" t="s">
         <v>302</v>
@@ -49521,15 +49847,17 @@
       <c r="M201" s="17"/>
     </row>
     <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="17"/>
-      <c r="B202" s="22" t="s">
+      <c r="A202" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B202" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C202" s="22" t="s">
-        <v>333</v>
+      <c r="C202" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E202" s="17" t="s">
         <v>302</v>
@@ -49544,15 +49872,17 @@
       <c r="M202" s="17"/>
     </row>
     <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="17"/>
-      <c r="B203" s="22" t="s">
+      <c r="A203" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C203" s="22" t="s">
-        <v>333</v>
+      <c r="C203" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E203" s="17" t="s">
         <v>302</v>
@@ -49566,16 +49896,18 @@
       <c r="L203" s="17"/>
       <c r="M203" s="17"/>
     </row>
-    <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="17"/>
-      <c r="B204" s="22" t="s">
+    <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C204" s="22" t="s">
-        <v>335</v>
+      <c r="C204" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="E204" s="17" t="s">
         <v>302</v>
@@ -49590,15 +49922,17 @@
       <c r="M204" s="17"/>
     </row>
     <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="17"/>
-      <c r="B205" s="22" t="s">
+      <c r="A205" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C205" s="22" t="s">
-        <v>333</v>
+      <c r="C205" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="E205" s="17" t="s">
         <v>302</v>
@@ -49613,15 +49947,17 @@
       <c r="M205" s="17"/>
     </row>
     <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="17"/>
-      <c r="B206" s="22" t="s">
+      <c r="A206" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C206" s="22" t="s">
-        <v>333</v>
+      <c r="C206" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="E206" s="17" t="s">
         <v>302</v>
@@ -49636,15 +49972,17 @@
       <c r="M206" s="17"/>
     </row>
     <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="17"/>
-      <c r="B207" s="22" t="s">
+      <c r="A207" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C207" s="22" t="s">
-        <v>333</v>
+      <c r="C207" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="E207" s="17" t="s">
         <v>302</v>
@@ -49659,15 +49997,17 @@
       <c r="M207" s="17"/>
     </row>
     <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="17"/>
-      <c r="B208" s="22" t="s">
+      <c r="A208" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C208" s="22" t="s">
-        <v>333</v>
+      <c r="C208" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="E208" s="17" t="s">
         <v>302</v>
@@ -49682,15 +50022,17 @@
       <c r="M208" s="17"/>
     </row>
     <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="17"/>
-      <c r="B209" s="22" t="s">
+      <c r="A209" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C209" s="22" t="s">
-        <v>333</v>
+      <c r="C209" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="E209" s="17" t="s">
         <v>302</v>
@@ -49704,16 +50046,18 @@
       <c r="L209" s="17"/>
       <c r="M209" s="17"/>
     </row>
-    <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="17"/>
-      <c r="B210" s="22" t="s">
+    <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A210" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B210" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C210" s="22" t="s">
-        <v>333</v>
+      <c r="C210" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E210" s="17" t="s">
         <v>302</v>
@@ -49728,15 +50072,17 @@
       <c r="M210" s="17"/>
     </row>
     <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="17"/>
-      <c r="B211" s="22" t="s">
+      <c r="A211" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C211" s="22" t="s">
-        <v>333</v>
+      <c r="C211" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E211" s="17" t="s">
         <v>302</v>
@@ -49751,15 +50097,17 @@
       <c r="M211" s="17"/>
     </row>
     <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="17"/>
-      <c r="B212" s="22" t="s">
+      <c r="A212" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C212" s="22" t="s">
-        <v>333</v>
+      <c r="C212" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E212" s="17" t="s">
         <v>302</v>
@@ -49774,15 +50122,17 @@
       <c r="M212" s="17"/>
     </row>
     <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="17"/>
-      <c r="B213" s="22" t="s">
+      <c r="A213" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C213" s="22" t="s">
-        <v>333</v>
+      <c r="C213" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E213" s="17" t="s">
         <v>302</v>
@@ -49797,15 +50147,17 @@
       <c r="M213" s="17"/>
     </row>
     <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="17"/>
-      <c r="B214" s="22" t="s">
+      <c r="A214" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C214" s="22" t="s">
-        <v>333</v>
+      <c r="C214" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E214" s="17" t="s">
         <v>302</v>
@@ -49820,15 +50172,17 @@
       <c r="M214" s="17"/>
     </row>
     <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="17"/>
-      <c r="B215" s="22" t="s">
+      <c r="A215" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C215" s="22" t="s">
-        <v>333</v>
+      <c r="C215" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E215" s="17" t="s">
         <v>302</v>
@@ -49843,15 +50197,17 @@
       <c r="M215" s="17"/>
     </row>
     <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="17"/>
-      <c r="B216" s="22" t="s">
+      <c r="A216" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B216" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C216" s="22" t="s">
-        <v>333</v>
+      <c r="C216" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E216" s="17" t="s">
         <v>302</v>
@@ -49866,15 +50222,17 @@
       <c r="M216" s="17"/>
     </row>
     <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="17"/>
-      <c r="B217" s="22" t="s">
+      <c r="A217" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C217" s="22" t="s">
-        <v>333</v>
+      <c r="C217" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E217" s="17" t="s">
         <v>302</v>
@@ -49889,15 +50247,17 @@
       <c r="M217" s="17"/>
     </row>
     <row r="218" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="17"/>
-      <c r="B218" s="22" t="s">
+      <c r="A218" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B218" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C218" s="22" t="s">
-        <v>333</v>
+      <c r="C218" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E218" s="17" t="s">
         <v>302</v>
@@ -49912,15 +50272,17 @@
       <c r="M218" s="17"/>
     </row>
     <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="17"/>
-      <c r="B219" s="22" t="s">
+      <c r="A219" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B219" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C219" s="22" t="s">
-        <v>333</v>
+      <c r="C219" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E219" s="17" t="s">
         <v>302</v>
@@ -49935,15 +50297,17 @@
       <c r="M219" s="17"/>
     </row>
     <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="17"/>
-      <c r="B220" s="22" t="s">
+      <c r="A220" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B220" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C220" s="22" t="s">
-        <v>333</v>
+      <c r="C220" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E220" s="17" t="s">
         <v>302</v>
@@ -49958,15 +50322,17 @@
       <c r="M220" s="17"/>
     </row>
     <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="17"/>
-      <c r="B221" s="22" t="s">
+      <c r="A221" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B221" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C221" s="22" t="s">
-        <v>333</v>
+      <c r="C221" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E221" s="17" t="s">
         <v>302</v>
@@ -49981,15 +50347,17 @@
       <c r="M221" s="17"/>
     </row>
     <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="17"/>
-      <c r="B222" s="22" t="s">
+      <c r="A222" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B222" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C222" s="22" t="s">
-        <v>333</v>
+      <c r="C222" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E222" s="17" t="s">
         <v>302</v>
@@ -50004,15 +50372,17 @@
       <c r="M222" s="17"/>
     </row>
     <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="17"/>
-      <c r="B223" s="22" t="s">
+      <c r="A223" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C223" s="22" t="s">
-        <v>333</v>
+      <c r="C223" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E223" s="17" t="s">
         <v>302</v>
@@ -50027,15 +50397,17 @@
       <c r="M223" s="17"/>
     </row>
     <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="17"/>
-      <c r="B224" s="22" t="s">
+      <c r="A224" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B224" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C224" s="22" t="s">
-        <v>333</v>
+      <c r="C224" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E224" s="17" t="s">
         <v>302</v>
@@ -50050,15 +50422,17 @@
       <c r="M224" s="17"/>
     </row>
     <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="17"/>
-      <c r="B225" s="22" t="s">
+      <c r="A225" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B225" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C225" s="22" t="s">
-        <v>333</v>
+      <c r="C225" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E225" s="17" t="s">
         <v>302</v>
@@ -50073,15 +50447,17 @@
       <c r="M225" s="17"/>
     </row>
     <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="17"/>
-      <c r="B226" s="22" t="s">
+      <c r="A226" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B226" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C226" s="22" t="s">
-        <v>333</v>
+      <c r="C226" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E226" s="17" t="s">
         <v>302</v>
@@ -50096,15 +50472,17 @@
       <c r="M226" s="17"/>
     </row>
     <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="17"/>
-      <c r="B227" s="22" t="s">
+      <c r="A227" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B227" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C227" s="22" t="s">
-        <v>333</v>
+      <c r="C227" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E227" s="17" t="s">
         <v>302</v>
@@ -50119,15 +50497,17 @@
       <c r="M227" s="17"/>
     </row>
     <row r="228" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="17"/>
-      <c r="B228" s="22" t="s">
+      <c r="A228" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B228" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C228" s="22" t="s">
-        <v>333</v>
+      <c r="C228" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E228" s="17" t="s">
         <v>302</v>
@@ -50142,15 +50522,17 @@
       <c r="M228" s="17"/>
     </row>
     <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="17"/>
-      <c r="B229" s="22" t="s">
+      <c r="A229" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B229" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C229" s="22" t="s">
-        <v>333</v>
+      <c r="C229" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E229" s="17" t="s">
         <v>302</v>
@@ -50165,15 +50547,17 @@
       <c r="M229" s="17"/>
     </row>
     <row r="230" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="17"/>
-      <c r="B230" s="22" t="s">
+      <c r="A230" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B230" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C230" s="22" t="s">
-        <v>333</v>
+      <c r="C230" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E230" s="17" t="s">
         <v>302</v>
@@ -50188,15 +50572,17 @@
       <c r="M230" s="17"/>
     </row>
     <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="17"/>
-      <c r="B231" s="22" t="s">
+      <c r="A231" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B231" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C231" s="22" t="s">
-        <v>333</v>
+      <c r="C231" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E231" s="17" t="s">
         <v>302</v>
@@ -50211,15 +50597,17 @@
       <c r="M231" s="17"/>
     </row>
     <row r="232" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="17"/>
-      <c r="B232" s="22" t="s">
+      <c r="A232" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B232" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C232" s="22" t="s">
-        <v>333</v>
+      <c r="C232" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E232" s="17" t="s">
         <v>302</v>
@@ -50233,16 +50621,18 @@
       <c r="L232" s="17"/>
       <c r="M232" s="17"/>
     </row>
-    <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="17"/>
-      <c r="B233" s="22" t="s">
+    <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B233" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C233" s="22" t="s">
-        <v>303</v>
+      <c r="C233" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="E233" s="17" t="s">
         <v>302</v>
@@ -50257,15 +50647,17 @@
       <c r="M233" s="17"/>
     </row>
     <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="17"/>
-      <c r="B234" s="22" t="s">
+      <c r="A234" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C234" s="22" t="s">
-        <v>333</v>
+      <c r="C234" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="E234" s="17" t="s">
         <v>302</v>
@@ -50280,15 +50672,17 @@
       <c r="M234" s="17"/>
     </row>
     <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="17"/>
-      <c r="B235" s="22" t="s">
+      <c r="A235" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C235" s="22" t="s">
-        <v>333</v>
+      <c r="C235" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="E235" s="17" t="s">
         <v>302</v>
@@ -50303,15 +50697,17 @@
       <c r="M235" s="17"/>
     </row>
     <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="17"/>
-      <c r="B236" s="22" t="s">
+      <c r="A236" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B236" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C236" s="22" t="s">
-        <v>333</v>
+      <c r="C236" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="E236" s="17" t="s">
         <v>302</v>
@@ -50326,15 +50722,17 @@
       <c r="M236" s="17"/>
     </row>
     <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="17"/>
-      <c r="B237" s="22" t="s">
+      <c r="A237" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C237" s="22" t="s">
-        <v>333</v>
+      <c r="C237" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="E237" s="17" t="s">
         <v>302</v>
@@ -50349,15 +50747,17 @@
       <c r="M237" s="17"/>
     </row>
     <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="17"/>
-      <c r="B238" s="22" t="s">
+      <c r="A238" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C238" s="22" t="s">
-        <v>333</v>
+      <c r="C238" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="E238" s="17" t="s">
         <v>302</v>
@@ -50372,15 +50772,17 @@
       <c r="M238" s="17"/>
     </row>
     <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="17"/>
-      <c r="B239" s="22" t="s">
+      <c r="A239" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C239" s="22" t="s">
-        <v>333</v>
+      <c r="C239" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="E239" s="17" t="s">
         <v>302</v>
@@ -50395,15 +50797,17 @@
       <c r="M239" s="17"/>
     </row>
     <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="17"/>
-      <c r="B240" s="22" t="s">
+      <c r="A240" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C240" s="22" t="s">
-        <v>333</v>
+      <c r="C240" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="E240" s="17" t="s">
         <v>302</v>
@@ -50417,16 +50821,18 @@
       <c r="L240" s="17"/>
       <c r="M240" s="17"/>
     </row>
-    <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="17"/>
-      <c r="B241" s="22" t="s">
+    <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A241" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B241" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C241" s="22" t="s">
-        <v>333</v>
+      <c r="C241" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E241" s="17" t="s">
         <v>302</v>
@@ -50441,15 +50847,17 @@
       <c r="M241" s="17"/>
     </row>
     <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="17"/>
-      <c r="B242" s="22" t="s">
+      <c r="A242" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B242" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C242" s="22" t="s">
-        <v>333</v>
+      <c r="C242" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E242" s="17" t="s">
         <v>302</v>
@@ -50464,15 +50872,17 @@
       <c r="M242" s="17"/>
     </row>
     <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="17"/>
-      <c r="B243" s="22" t="s">
+      <c r="A243" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B243" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C243" s="22" t="s">
-        <v>333</v>
+      <c r="C243" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E243" s="17" t="s">
         <v>302</v>
@@ -50487,15 +50897,17 @@
       <c r="M243" s="17"/>
     </row>
     <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="17"/>
-      <c r="B244" s="22" t="s">
+      <c r="A244" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C244" s="22" t="s">
-        <v>333</v>
+      <c r="C244" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E244" s="17" t="s">
         <v>302</v>
@@ -50510,15 +50922,17 @@
       <c r="M244" s="17"/>
     </row>
     <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="17"/>
-      <c r="B245" s="22" t="s">
+      <c r="A245" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B245" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C245" s="22" t="s">
-        <v>333</v>
+      <c r="C245" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E245" s="17" t="s">
         <v>302</v>
@@ -50533,15 +50947,17 @@
       <c r="M245" s="17"/>
     </row>
     <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="17"/>
-      <c r="B246" s="22" t="s">
+      <c r="A246" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B246" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C246" s="22" t="s">
-        <v>333</v>
+      <c r="C246" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E246" s="17" t="s">
         <v>302</v>
@@ -50556,15 +50972,17 @@
       <c r="M246" s="17"/>
     </row>
     <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="17"/>
-      <c r="B247" s="22" t="s">
+      <c r="A247" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B247" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C247" s="22" t="s">
-        <v>333</v>
+      <c r="C247" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E247" s="17" t="s">
         <v>302</v>
@@ -50579,15 +50997,17 @@
       <c r="M247" s="17"/>
     </row>
     <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="17"/>
-      <c r="B248" s="22" t="s">
+      <c r="A248" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B248" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C248" s="22" t="s">
-        <v>333</v>
+      <c r="C248" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E248" s="17" t="s">
         <v>302</v>
@@ -50602,15 +51022,17 @@
       <c r="M248" s="17"/>
     </row>
     <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="17"/>
-      <c r="B249" s="22" t="s">
+      <c r="A249" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B249" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C249" s="22" t="s">
-        <v>333</v>
+      <c r="C249" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E249" s="17" t="s">
         <v>302</v>
@@ -50625,15 +51047,17 @@
       <c r="M249" s="17"/>
     </row>
     <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="17"/>
-      <c r="B250" s="22" t="s">
+      <c r="A250" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B250" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C250" s="22" t="s">
-        <v>333</v>
+      <c r="C250" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E250" s="17" t="s">
         <v>302</v>
@@ -50648,15 +51072,17 @@
       <c r="M250" s="17"/>
     </row>
     <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="17"/>
-      <c r="B251" s="22" t="s">
+      <c r="A251" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B251" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C251" s="22" t="s">
-        <v>333</v>
+      <c r="C251" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E251" s="17" t="s">
         <v>302</v>
@@ -50671,15 +51097,17 @@
       <c r="M251" s="17"/>
     </row>
     <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="17"/>
-      <c r="B252" s="22" t="s">
+      <c r="A252" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B252" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C252" s="22" t="s">
-        <v>333</v>
+      <c r="C252" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E252" s="17" t="s">
         <v>302</v>
@@ -50694,15 +51122,17 @@
       <c r="M252" s="17"/>
     </row>
     <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="17"/>
-      <c r="B253" s="22" t="s">
+      <c r="A253" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B253" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C253" s="22" t="s">
-        <v>333</v>
+      <c r="C253" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E253" s="17" t="s">
         <v>302</v>
@@ -50717,15 +51147,17 @@
       <c r="M253" s="17"/>
     </row>
     <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="17"/>
-      <c r="B254" s="22" t="s">
+      <c r="A254" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B254" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C254" s="22" t="s">
-        <v>333</v>
+      <c r="C254" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E254" s="17" t="s">
         <v>302</v>
@@ -50740,15 +51172,17 @@
       <c r="M254" s="17"/>
     </row>
     <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="17"/>
-      <c r="B255" s="22" t="s">
+      <c r="A255" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B255" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C255" s="22" t="s">
-        <v>333</v>
+      <c r="C255" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E255" s="17" t="s">
         <v>302</v>
@@ -50763,15 +51197,17 @@
       <c r="M255" s="17"/>
     </row>
     <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="17"/>
-      <c r="B256" s="22" t="s">
+      <c r="A256" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B256" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C256" s="22" t="s">
-        <v>333</v>
+      <c r="C256" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E256" s="17" t="s">
         <v>302</v>
@@ -50786,15 +51222,17 @@
       <c r="M256" s="17"/>
     </row>
     <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="17"/>
-      <c r="B257" s="22" t="s">
+      <c r="A257" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C257" s="22" t="s">
-        <v>333</v>
+      <c r="C257" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E257" s="17" t="s">
         <v>302</v>
@@ -50809,15 +51247,17 @@
       <c r="M257" s="17"/>
     </row>
     <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="17"/>
-      <c r="B258" s="22" t="s">
+      <c r="A258" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C258" s="22" t="s">
-        <v>333</v>
+      <c r="C258" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E258" s="17" t="s">
         <v>302</v>
@@ -50832,15 +51272,17 @@
       <c r="M258" s="17"/>
     </row>
     <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="17"/>
-      <c r="B259" s="22" t="s">
+      <c r="A259" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C259" s="22" t="s">
-        <v>333</v>
+      <c r="C259" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E259" s="17" t="s">
         <v>302</v>
@@ -50855,15 +51297,17 @@
       <c r="M259" s="17"/>
     </row>
     <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="17"/>
-      <c r="B260" s="22" t="s">
+      <c r="A260" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B260" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C260" s="22" t="s">
-        <v>333</v>
+      <c r="C260" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E260" s="17" t="s">
         <v>302</v>
@@ -50878,15 +51322,17 @@
       <c r="M260" s="17"/>
     </row>
     <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="17"/>
-      <c r="B261" s="22" t="s">
+      <c r="A261" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B261" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C261" s="22" t="s">
-        <v>333</v>
+      <c r="C261" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E261" s="17" t="s">
         <v>302</v>
@@ -50900,16 +51346,18 @@
       <c r="L261" s="17"/>
       <c r="M261" s="17"/>
     </row>
-    <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="17"/>
-      <c r="B262" s="22" t="s">
+    <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B262" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C262" s="22" t="s">
-        <v>333</v>
+      <c r="C262" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="E262" s="17" t="s">
         <v>302</v>
@@ -50924,15 +51372,17 @@
       <c r="M262" s="17"/>
     </row>
     <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="17"/>
-      <c r="B263" s="22" t="s">
+      <c r="A263" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B263" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C263" s="22" t="s">
-        <v>333</v>
+      <c r="C263" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="E263" s="17" t="s">
         <v>302</v>
@@ -50947,15 +51397,17 @@
       <c r="M263" s="17"/>
     </row>
     <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="17"/>
-      <c r="B264" s="22" t="s">
+      <c r="A264" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B264" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C264" s="22" t="s">
-        <v>333</v>
+      <c r="C264" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="E264" s="17" t="s">
         <v>302</v>
@@ -50970,15 +51422,17 @@
       <c r="M264" s="17"/>
     </row>
     <row r="265" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="17"/>
-      <c r="B265" s="22" t="s">
+      <c r="A265" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B265" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C265" s="22" t="s">
-        <v>333</v>
+      <c r="C265" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="E265" s="17" t="s">
         <v>302</v>
@@ -50993,15 +51447,17 @@
       <c r="M265" s="17"/>
     </row>
     <row r="266" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="17"/>
-      <c r="B266" s="22" t="s">
+      <c r="A266" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B266" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C266" s="22" t="s">
-        <v>333</v>
+      <c r="C266" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="E266" s="17" t="s">
         <v>302</v>
@@ -51016,15 +51472,17 @@
       <c r="M266" s="17"/>
     </row>
     <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="17"/>
-      <c r="B267" s="22" t="s">
+      <c r="A267" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B267" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C267" s="22" t="s">
-        <v>333</v>
+      <c r="C267" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E267" s="17" t="s">
         <v>302</v>
@@ -51039,15 +51497,17 @@
       <c r="M267" s="17"/>
     </row>
     <row r="268" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="17"/>
-      <c r="B268" s="22" t="s">
+      <c r="A268" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B268" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C268" s="22" t="s">
-        <v>333</v>
+      <c r="C268" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E268" s="17" t="s">
         <v>302</v>
@@ -51062,15 +51522,17 @@
       <c r="M268" s="17"/>
     </row>
     <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="17"/>
-      <c r="B269" s="22" t="s">
+      <c r="A269" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B269" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C269" s="22" t="s">
-        <v>333</v>
+      <c r="C269" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="E269" s="17" t="s">
         <v>302</v>
@@ -51085,15 +51547,17 @@
       <c r="M269" s="17"/>
     </row>
     <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="17"/>
-      <c r="B270" s="22" t="s">
+      <c r="A270" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B270" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C270" s="22" t="s">
-        <v>333</v>
+      <c r="C270" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="E270" s="17" t="s">
         <v>302</v>
@@ -51108,15 +51572,17 @@
       <c r="M270" s="17"/>
     </row>
     <row r="271" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="17"/>
-      <c r="B271" s="22" t="s">
+      <c r="A271" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B271" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C271" s="22" t="s">
-        <v>333</v>
+      <c r="C271" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="E271" s="17" t="s">
         <v>302</v>
@@ -51130,16 +51596,18 @@
       <c r="L271" s="17"/>
       <c r="M271" s="17"/>
     </row>
-    <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="17"/>
-      <c r="B272" s="22" t="s">
+    <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A272" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B272" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C272" s="22" t="s">
-        <v>333</v>
+      <c r="C272" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E272" s="17" t="s">
         <v>302</v>
@@ -51154,15 +51622,17 @@
       <c r="M272" s="17"/>
     </row>
     <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="17"/>
-      <c r="B273" s="22" t="s">
+      <c r="A273" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B273" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C273" s="22" t="s">
-        <v>333</v>
+      <c r="C273" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E273" s="17" t="s">
         <v>302</v>
@@ -51177,15 +51647,17 @@
       <c r="M273" s="17"/>
     </row>
     <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="17"/>
-      <c r="B274" s="22" t="s">
+      <c r="A274" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B274" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C274" s="22" t="s">
-        <v>333</v>
+      <c r="C274" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E274" s="17" t="s">
         <v>302</v>
@@ -51200,15 +51672,17 @@
       <c r="M274" s="17"/>
     </row>
     <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="17"/>
-      <c r="B275" s="22" t="s">
+      <c r="A275" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C275" s="22" t="s">
-        <v>333</v>
+      <c r="C275" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E275" s="17" t="s">
         <v>302</v>
@@ -51223,15 +51697,17 @@
       <c r="M275" s="17"/>
     </row>
     <row r="276" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="17"/>
-      <c r="B276" s="22" t="s">
+      <c r="A276" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C276" s="22" t="s">
-        <v>333</v>
+      <c r="C276" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E276" s="17" t="s">
         <v>302</v>
@@ -51246,15 +51722,17 @@
       <c r="M276" s="17"/>
     </row>
     <row r="277" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="17"/>
-      <c r="B277" s="22" t="s">
+      <c r="A277" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C277" s="22" t="s">
-        <v>333</v>
+      <c r="C277" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E277" s="17" t="s">
         <v>302</v>
@@ -51269,15 +51747,17 @@
       <c r="M277" s="17"/>
     </row>
     <row r="278" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="17"/>
-      <c r="B278" s="22" t="s">
+      <c r="A278" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B278" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C278" s="22" t="s">
-        <v>333</v>
+      <c r="C278" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E278" s="17" t="s">
         <v>302</v>
@@ -51292,15 +51772,17 @@
       <c r="M278" s="17"/>
     </row>
     <row r="279" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="17"/>
-      <c r="B279" s="22" t="s">
+      <c r="A279" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B279" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C279" s="22" t="s">
-        <v>333</v>
+      <c r="C279" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="E279" s="17" t="s">
         <v>302</v>
@@ -51315,15 +51797,17 @@
       <c r="M279" s="17"/>
     </row>
     <row r="280" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="17"/>
-      <c r="B280" s="22" t="s">
+      <c r="A280" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B280" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C280" s="22" t="s">
-        <v>333</v>
+      <c r="C280" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E280" s="17" t="s">
         <v>302</v>
@@ -51338,15 +51822,17 @@
       <c r="M280" s="17"/>
     </row>
     <row r="281" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="17"/>
-      <c r="B281" s="22" t="s">
+      <c r="A281" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B281" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C281" s="22" t="s">
-        <v>333</v>
+      <c r="C281" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E281" s="17" t="s">
         <v>302</v>
@@ -51361,15 +51847,17 @@
       <c r="M281" s="17"/>
     </row>
     <row r="282" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="17"/>
-      <c r="B282" s="22" t="s">
+      <c r="A282" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B282" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C282" s="22" t="s">
-        <v>333</v>
+      <c r="C282" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E282" s="17" t="s">
         <v>302</v>
@@ -51384,15 +51872,17 @@
       <c r="M282" s="17"/>
     </row>
     <row r="283" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="17"/>
-      <c r="B283" s="22" t="s">
+      <c r="A283" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B283" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C283" s="22" t="s">
-        <v>333</v>
+      <c r="C283" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E283" s="17" t="s">
         <v>302</v>
@@ -51407,15 +51897,17 @@
       <c r="M283" s="17"/>
     </row>
     <row r="284" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="17"/>
-      <c r="B284" s="22" t="s">
+      <c r="A284" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B284" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C284" s="22" t="s">
-        <v>333</v>
+      <c r="C284" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E284" s="17" t="s">
         <v>302</v>
@@ -51430,15 +51922,17 @@
       <c r="M284" s="17"/>
     </row>
     <row r="285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="17"/>
-      <c r="B285" s="22" t="s">
+      <c r="A285" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B285" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C285" s="22" t="s">
-        <v>333</v>
+      <c r="C285" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E285" s="17" t="s">
         <v>302</v>
@@ -51453,15 +51947,17 @@
       <c r="M285" s="17"/>
     </row>
     <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="17"/>
-      <c r="B286" s="22" t="s">
+      <c r="A286" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B286" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C286" s="22" t="s">
-        <v>333</v>
+      <c r="C286" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E286" s="17" t="s">
         <v>302</v>
@@ -51476,15 +51972,17 @@
       <c r="M286" s="17"/>
     </row>
     <row r="287" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="17"/>
-      <c r="B287" s="22" t="s">
+      <c r="A287" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C287" s="22" t="s">
-        <v>333</v>
+      <c r="C287" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E287" s="17" t="s">
         <v>302</v>
@@ -51499,15 +51997,17 @@
       <c r="M287" s="17"/>
     </row>
     <row r="288" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="17"/>
-      <c r="B288" s="22" t="s">
+      <c r="A288" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B288" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C288" s="22" t="s">
-        <v>333</v>
+      <c r="C288" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E288" s="17" t="s">
         <v>302</v>
@@ -51522,15 +52022,17 @@
       <c r="M288" s="17"/>
     </row>
     <row r="289" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="17"/>
-      <c r="B289" s="22" t="s">
+      <c r="A289" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B289" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C289" s="22" t="s">
-        <v>333</v>
+      <c r="C289" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E289" s="17" t="s">
         <v>302</v>
@@ -51545,15 +52047,17 @@
       <c r="M289" s="17"/>
     </row>
     <row r="290" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="17"/>
-      <c r="B290" s="22" t="s">
+      <c r="A290" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B290" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C290" s="22" t="s">
-        <v>333</v>
+      <c r="C290" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E290" s="17" t="s">
         <v>302</v>
@@ -51567,16 +52071,18 @@
       <c r="L290" s="17"/>
       <c r="M290" s="17"/>
     </row>
-    <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A291" s="17"/>
-      <c r="B291" s="22" t="s">
+    <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B291" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C291" s="22" t="s">
-        <v>336</v>
+      <c r="C291" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="E291" s="17" t="s">
         <v>302</v>
@@ -51591,15 +52097,17 @@
       <c r="M291" s="17"/>
     </row>
     <row r="292" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="17"/>
-      <c r="B292" s="22" t="s">
+      <c r="A292" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B292" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C292" s="22" t="s">
-        <v>333</v>
+      <c r="C292" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="E292" s="17" t="s">
         <v>302</v>
@@ -51614,15 +52122,17 @@
       <c r="M292" s="17"/>
     </row>
     <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="17"/>
-      <c r="B293" s="22" t="s">
+      <c r="A293" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B293" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C293" s="22" t="s">
-        <v>333</v>
+      <c r="C293" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="E293" s="17" t="s">
         <v>302</v>
@@ -51637,15 +52147,17 @@
       <c r="M293" s="17"/>
     </row>
     <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="17"/>
-      <c r="B294" s="22" t="s">
+      <c r="A294" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B294" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C294" s="22" t="s">
-        <v>333</v>
+      <c r="C294" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="E294" s="17" t="s">
         <v>302</v>
@@ -51660,15 +52172,17 @@
       <c r="M294" s="17"/>
     </row>
     <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="17"/>
-      <c r="B295" s="22" t="s">
+      <c r="A295" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B295" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C295" s="22" t="s">
-        <v>333</v>
+      <c r="C295" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="E295" s="17" t="s">
         <v>302</v>
@@ -51683,15 +52197,17 @@
       <c r="M295" s="17"/>
     </row>
     <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="17"/>
-      <c r="B296" s="22" t="s">
+      <c r="A296" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C296" s="22" t="s">
-        <v>333</v>
+      <c r="C296" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="E296" s="17" t="s">
         <v>302</v>
@@ -51706,15 +52222,17 @@
       <c r="M296" s="17"/>
     </row>
     <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="17"/>
-      <c r="B297" s="22" t="s">
+      <c r="A297" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B297" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C297" s="22" t="s">
-        <v>333</v>
+      <c r="C297" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="E297" s="17" t="s">
         <v>302</v>
@@ -51729,15 +52247,17 @@
       <c r="M297" s="17"/>
     </row>
     <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="17"/>
-      <c r="B298" s="22" t="s">
+      <c r="A298" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B298" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C298" s="22" t="s">
-        <v>333</v>
+      <c r="C298" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E298" s="17" t="s">
         <v>302</v>
@@ -51752,15 +52272,17 @@
       <c r="M298" s="17"/>
     </row>
     <row r="299" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="17"/>
-      <c r="B299" s="22" t="s">
+      <c r="A299" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B299" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C299" s="22" t="s">
-        <v>333</v>
+      <c r="C299" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="E299" s="17" t="s">
         <v>302</v>
@@ -51775,15 +52297,17 @@
       <c r="M299" s="17"/>
     </row>
     <row r="300" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="17"/>
-      <c r="B300" s="22" t="s">
+      <c r="A300" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B300" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C300" s="22" t="s">
-        <v>333</v>
+      <c r="C300" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="E300" s="17" t="s">
         <v>302</v>
@@ -51798,15 +52322,17 @@
       <c r="M300" s="17"/>
     </row>
     <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="17"/>
-      <c r="B301" s="22" t="s">
+      <c r="A301" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B301" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C301" s="22" t="s">
-        <v>333</v>
+      <c r="C301" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="E301" s="17" t="s">
         <v>302</v>
@@ -51821,15 +52347,17 @@
       <c r="M301" s="17"/>
     </row>
     <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="17"/>
-      <c r="B302" s="22" t="s">
+      <c r="A302" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B302" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C302" s="22" t="s">
-        <v>333</v>
+      <c r="C302" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="E302" s="17" t="s">
         <v>302</v>
@@ -51843,16 +52371,18 @@
       <c r="L302" s="17"/>
       <c r="M302" s="17"/>
     </row>
-    <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="17"/>
-      <c r="B303" s="22" t="s">
+    <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A303" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B303" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C303" s="22" t="s">
-        <v>333</v>
+      <c r="C303" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="E303" s="17" t="s">
         <v>302</v>
@@ -51867,15 +52397,17 @@
       <c r="M303" s="17"/>
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="17"/>
-      <c r="B304" s="22" t="s">
+      <c r="A304" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B304" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C304" s="22" t="s">
-        <v>333</v>
+      <c r="C304" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E304" s="17" t="s">
         <v>302</v>
@@ -51890,15 +52422,17 @@
       <c r="M304" s="17"/>
     </row>
     <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="17"/>
-      <c r="B305" s="22" t="s">
+      <c r="A305" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B305" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C305" s="22" t="s">
-        <v>333</v>
+      <c r="C305" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E305" s="17" t="s">
         <v>302</v>
@@ -51913,15 +52447,17 @@
       <c r="M305" s="17"/>
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="17"/>
-      <c r="B306" s="22" t="s">
+      <c r="A306" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B306" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C306" s="22" t="s">
-        <v>333</v>
+      <c r="C306" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="E306" s="17" t="s">
         <v>302</v>
@@ -51936,15 +52472,17 @@
       <c r="M306" s="17"/>
     </row>
     <row r="307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="17"/>
-      <c r="B307" s="22" t="s">
+      <c r="A307" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B307" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C307" s="22" t="s">
-        <v>333</v>
+      <c r="C307" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E307" s="17" t="s">
         <v>302</v>
@@ -51959,15 +52497,17 @@
       <c r="M307" s="17"/>
     </row>
     <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="17"/>
-      <c r="B308" s="22" t="s">
+      <c r="A308" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B308" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C308" s="22" t="s">
-        <v>333</v>
+      <c r="C308" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="E308" s="17" t="s">
         <v>302</v>
@@ -51982,15 +52522,17 @@
       <c r="M308" s="17"/>
     </row>
     <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="17"/>
-      <c r="B309" s="22" t="s">
+      <c r="A309" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B309" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C309" s="22" t="s">
-        <v>333</v>
+      <c r="C309" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E309" s="17" t="s">
         <v>302</v>
@@ -52005,15 +52547,17 @@
       <c r="M309" s="17"/>
     </row>
     <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="17"/>
-      <c r="B310" s="22" t="s">
+      <c r="A310" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B310" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C310" s="22" t="s">
-        <v>333</v>
+      <c r="C310" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E310" s="17" t="s">
         <v>302</v>
@@ -52028,15 +52572,17 @@
       <c r="M310" s="17"/>
     </row>
     <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="17"/>
-      <c r="B311" s="22" t="s">
+      <c r="A311" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B311" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C311" s="22" t="s">
-        <v>333</v>
+      <c r="C311" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E311" s="17" t="s">
         <v>302</v>
@@ -52051,15 +52597,17 @@
       <c r="M311" s="17"/>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="17"/>
-      <c r="B312" s="22" t="s">
+      <c r="A312" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B312" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C312" s="22" t="s">
-        <v>333</v>
+      <c r="C312" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="E312" s="17" t="s">
         <v>302</v>
@@ -52074,15 +52622,17 @@
       <c r="M312" s="17"/>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="17"/>
-      <c r="B313" s="22" t="s">
+      <c r="A313" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B313" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C313" s="22" t="s">
-        <v>333</v>
+      <c r="C313" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E313" s="17" t="s">
         <v>302</v>
@@ -52097,15 +52647,17 @@
       <c r="M313" s="17"/>
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="17"/>
-      <c r="B314" s="22" t="s">
+      <c r="A314" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B314" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C314" s="22" t="s">
-        <v>333</v>
+      <c r="C314" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="E314" s="17" t="s">
         <v>302</v>
@@ -52120,15 +52672,17 @@
       <c r="M314" s="17"/>
     </row>
     <row r="315" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="17"/>
-      <c r="B315" s="22" t="s">
+      <c r="A315" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B315" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C315" s="22" t="s">
-        <v>333</v>
+      <c r="C315" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="E315" s="17" t="s">
         <v>302</v>
@@ -52143,15 +52697,17 @@
       <c r="M315" s="17"/>
     </row>
     <row r="316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="17"/>
-      <c r="B316" s="22" t="s">
+      <c r="A316" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B316" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C316" s="22" t="s">
-        <v>333</v>
+      <c r="C316" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="E316" s="17" t="s">
         <v>302</v>
@@ -52166,15 +52722,17 @@
       <c r="M316" s="17"/>
     </row>
     <row r="317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="17"/>
-      <c r="B317" s="22" t="s">
+      <c r="A317" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B317" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C317" s="22" t="s">
-        <v>333</v>
+      <c r="C317" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E317" s="17" t="s">
         <v>302</v>
@@ -52189,15 +52747,17 @@
       <c r="M317" s="17"/>
     </row>
     <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="17"/>
-      <c r="B318" s="22" t="s">
+      <c r="A318" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B318" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C318" s="22" t="s">
-        <v>333</v>
+      <c r="C318" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="E318" s="17" t="s">
         <v>302</v>
@@ -52212,15 +52772,17 @@
       <c r="M318" s="17"/>
     </row>
     <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="17"/>
-      <c r="B319" s="22" t="s">
+      <c r="A319" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B319" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C319" s="22" t="s">
-        <v>333</v>
+      <c r="C319" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="E319" s="17" t="s">
         <v>302</v>
@@ -52234,8 +52796,358 @@
       <c r="L319" s="17"/>
       <c r="M319" s="17"/>
     </row>
+    <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D320" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="E320" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F320" s="17"/>
+      <c r="G320" s="17"/>
+      <c r="H320" s="17"/>
+      <c r="I320" s="17"/>
+      <c r="J320" s="17"/>
+      <c r="K320" s="17"/>
+      <c r="L320" s="17"/>
+      <c r="M320" s="17"/>
+    </row>
+    <row r="321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D321" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="E321" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F321" s="17"/>
+      <c r="G321" s="17"/>
+      <c r="H321" s="17"/>
+      <c r="I321" s="17"/>
+      <c r="J321" s="17"/>
+      <c r="K321" s="17"/>
+      <c r="L321" s="17"/>
+      <c r="M321" s="17"/>
+    </row>
+    <row r="322" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D322" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E322" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F322" s="17"/>
+      <c r="G322" s="17"/>
+      <c r="H322" s="17"/>
+      <c r="I322" s="17"/>
+      <c r="J322" s="17"/>
+      <c r="K322" s="17"/>
+      <c r="L322" s="17"/>
+      <c r="M322" s="17"/>
+    </row>
+    <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D323" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="E323" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F323" s="17"/>
+      <c r="G323" s="17"/>
+      <c r="H323" s="17"/>
+      <c r="I323" s="17"/>
+      <c r="J323" s="17"/>
+      <c r="K323" s="17"/>
+      <c r="L323" s="17"/>
+      <c r="M323" s="17"/>
+    </row>
+    <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D324" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E324" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F324" s="17"/>
+      <c r="G324" s="17"/>
+      <c r="H324" s="17"/>
+      <c r="I324" s="17"/>
+      <c r="J324" s="17"/>
+      <c r="K324" s="17"/>
+      <c r="L324" s="17"/>
+      <c r="M324" s="17"/>
+    </row>
+    <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D325" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E325" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F325" s="17"/>
+      <c r="G325" s="17"/>
+      <c r="H325" s="17"/>
+      <c r="I325" s="17"/>
+      <c r="J325" s="17"/>
+      <c r="K325" s="17"/>
+      <c r="L325" s="17"/>
+      <c r="M325" s="17"/>
+    </row>
+    <row r="326" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D326" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E326" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F326" s="17"/>
+      <c r="G326" s="17"/>
+      <c r="H326" s="17"/>
+      <c r="I326" s="17"/>
+      <c r="J326" s="17"/>
+      <c r="K326" s="17"/>
+      <c r="L326" s="17"/>
+      <c r="M326" s="17"/>
+    </row>
+    <row r="327" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D327" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E327" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F327" s="17"/>
+      <c r="G327" s="17"/>
+      <c r="H327" s="17"/>
+      <c r="I327" s="17"/>
+      <c r="J327" s="17"/>
+      <c r="K327" s="17"/>
+      <c r="L327" s="17"/>
+      <c r="M327" s="17"/>
+    </row>
+    <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D328" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="E328" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F328" s="17"/>
+      <c r="G328" s="17"/>
+      <c r="H328" s="17"/>
+      <c r="I328" s="17"/>
+      <c r="J328" s="17"/>
+      <c r="K328" s="17"/>
+      <c r="L328" s="17"/>
+      <c r="M328" s="17"/>
+    </row>
+    <row r="329" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D329" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E329" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F329" s="17"/>
+      <c r="G329" s="17"/>
+      <c r="H329" s="17"/>
+      <c r="I329" s="17"/>
+      <c r="J329" s="17"/>
+      <c r="K329" s="17"/>
+      <c r="L329" s="17"/>
+      <c r="M329" s="17"/>
+    </row>
+    <row r="330" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D330" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E330" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F330" s="17"/>
+      <c r="G330" s="17"/>
+      <c r="H330" s="17"/>
+      <c r="I330" s="17"/>
+      <c r="J330" s="17"/>
+      <c r="K330" s="17"/>
+      <c r="L330" s="17"/>
+      <c r="M330" s="17"/>
+    </row>
+    <row r="331" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D331" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="E331" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F331" s="17"/>
+      <c r="G331" s="17"/>
+      <c r="H331" s="17"/>
+      <c r="I331" s="17"/>
+      <c r="J331" s="17"/>
+      <c r="K331" s="17"/>
+      <c r="L331" s="17"/>
+      <c r="M331" s="17"/>
+    </row>
+    <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D332" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="E332" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F332" s="17"/>
+      <c r="G332" s="17"/>
+      <c r="H332" s="17"/>
+      <c r="I332" s="17"/>
+      <c r="J332" s="17"/>
+      <c r="K332" s="17"/>
+      <c r="L332" s="17"/>
+      <c r="M332" s="17"/>
+    </row>
+    <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D333" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E333" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F333" s="17"/>
+      <c r="G333" s="17"/>
+      <c r="H333" s="17"/>
+      <c r="I333" s="17"/>
+      <c r="J333" s="17"/>
+      <c r="K333" s="17"/>
+      <c r="L333" s="17"/>
+      <c r="M333" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="28">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A16"/>
     <mergeCell ref="B3:B16"/>
@@ -52244,11 +53156,10 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:A36"/>
-    <mergeCell ref="B20:B45"/>
+    <mergeCell ref="A20:A333"/>
+    <mergeCell ref="B20:B333"/>
     <mergeCell ref="C20:C36"/>
     <mergeCell ref="C37:C45"/>
-    <mergeCell ref="B46:B319"/>
     <mergeCell ref="C46:C54"/>
     <mergeCell ref="C55:C63"/>
     <mergeCell ref="C64:C72"/>
@@ -52258,13 +53169,13 @@
     <mergeCell ref="C100:C108"/>
     <mergeCell ref="C109:C112"/>
     <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C117:C145"/>
-    <mergeCell ref="C146:C174"/>
-    <mergeCell ref="C175:C203"/>
-    <mergeCell ref="C204:C232"/>
-    <mergeCell ref="C233:C261"/>
-    <mergeCell ref="C262:C290"/>
-    <mergeCell ref="C291:C319"/>
+    <mergeCell ref="C117:C147"/>
+    <mergeCell ref="C148:C178"/>
+    <mergeCell ref="C179:C209"/>
+    <mergeCell ref="C210:C240"/>
+    <mergeCell ref="C241:C271"/>
+    <mergeCell ref="C272:C302"/>
+    <mergeCell ref="C303:C333"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -52283,7 +53194,7 @@
   </sheetPr>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I47" activeCellId="0" sqref="I47"/>
     </sheetView>
   </sheetViews>
@@ -52307,43 +53218,43 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O1" s="4"/>
       <c r="Q1" s="4"/>
@@ -52378,13 +53289,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>242</v>
@@ -52403,13 +53314,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>242</v>
@@ -52428,13 +53339,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>242</v>
@@ -52453,13 +53364,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>242</v>
@@ -52478,13 +53389,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>242</v>
@@ -52503,16 +53414,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="8"/>
@@ -52528,16 +53439,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
@@ -52553,16 +53464,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="8"/>
@@ -52578,16 +53489,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="8"/>
@@ -52603,16 +53514,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="8"/>
@@ -52628,16 +53539,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
@@ -52653,16 +53564,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="8"/>
@@ -52678,16 +53589,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="8"/>
@@ -52703,16 +53614,16 @@
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="8"/>
@@ -52728,16 +53639,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="8"/>
@@ -52753,16 +53664,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="8"/>
@@ -52778,16 +53689,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="8"/>
@@ -52803,16 +53714,16 @@
         <v>2</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="8"/>
@@ -52828,16 +53739,16 @@
         <v>2</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="8"/>
@@ -52853,16 +53764,16 @@
         <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="8"/>
@@ -52878,16 +53789,16 @@
         <v>2</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="8"/>
@@ -52903,16 +53814,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="8"/>
@@ -52928,16 +53839,16 @@
         <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="8"/>
@@ -52953,16 +53864,16 @@
         <v>3</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="8"/>
@@ -52978,16 +53889,16 @@
         <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="8"/>
@@ -53003,16 +53914,16 @@
         <v>3</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>366</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="8"/>
@@ -53028,16 +53939,16 @@
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="8"/>
@@ -53053,16 +53964,16 @@
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="8"/>
@@ -53078,16 +53989,16 @@
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="8"/>
@@ -53103,16 +54014,16 @@
         <v>3</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="8"/>
@@ -53128,16 +54039,16 @@
         <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="8"/>
@@ -53153,16 +54064,16 @@
         <v>3</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="8"/>
@@ -53178,16 +54089,16 @@
         <v>3</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="8"/>
@@ -53203,16 +54114,16 @@
         <v>3</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="8"/>
@@ -53228,16 +54139,16 @@
         <v>3</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="8"/>
@@ -53253,16 +54164,16 @@
         <v>3</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="8"/>
@@ -53278,16 +54189,16 @@
         <v>3</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8"/>
@@ -53303,16 +54214,16 @@
         <v>3</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="8"/>
@@ -53328,16 +54239,16 @@
         <v>3</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="8"/>
@@ -53353,16 +54264,16 @@
         <v>3</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="8"/>
@@ -53378,13 +54289,13 @@
         <v>3</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>198</v>
@@ -53403,13 +54314,13 @@
         <v>3</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>198</v>
@@ -53428,13 +54339,13 @@
         <v>3</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>198</v>
@@ -53453,13 +54364,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>198</v>
@@ -53478,13 +54389,13 @@
         <v>3</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>198</v>
@@ -53503,13 +54414,13 @@
         <v>3</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>198</v>
@@ -53528,13 +54439,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>198</v>
@@ -53553,13 +54464,13 @@
         <v>3</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>198</v>
@@ -53578,13 +54489,13 @@
         <v>3</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>198</v>
@@ -53603,13 +54514,13 @@
         <v>3</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>198</v>
@@ -53628,13 +54539,13 @@
         <v>3</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>198</v>
@@ -53653,13 +54564,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>198</v>
@@ -53678,13 +54589,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>198</v>
@@ -53703,13 +54614,13 @@
         <v>3</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>198</v>
@@ -53728,13 +54639,13 @@
         <v>3</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>198</v>
@@ -53753,13 +54664,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>198</v>
@@ -53778,13 +54689,13 @@
         <v>3</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>198</v>
@@ -53806,7 +54717,7 @@
         <v>114</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>262</v>
@@ -53831,7 +54742,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>258</v>
@@ -53856,10 +54767,10 @@
         <v>114</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>198</v>
@@ -53881,10 +54792,10 @@
         <v>114</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>198</v>
@@ -53906,7 +54817,7 @@
         <v>114</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>271</v>

--- a/frontend/polls/templates/polls/Performance_Template.xlsx
+++ b/frontend/polls/templates/polls/Performance_Template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="402">
   <si>
     <t>Caliper Performance Tests: Algorithm</t>
   </si>
@@ -897,28 +897,19 @@
     <t>add</t>
   </si>
   <si>
-    <t>lb_bw_stream_v2</t>
-  </si>
-  <si>
-    <t>lb_bw_stream_v3</t>
-  </si>
-  <si>
     <t>scale</t>
   </si>
   <si>
-    <t>lb_bw_stream_v4</t>
+    <t>triad</t>
   </si>
   <si>
-    <t>triad</t>
+    <t>lb_bw_stream_v2</t>
   </si>
   <si>
     <t>daxpy</t>
   </si>
   <si>
     <t>fill</t>
-  </si>
-  <si>
-    <t>lb_bw_stream_v5</t>
   </si>
   <si>
     <t>sum</t>
@@ -1435,7 +1426,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -44770,8 +44761,8 @@
   </sheetPr>
   <dimension ref="1:333"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A288" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E312" activeCellId="0" sqref="E312"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D115" activeCellId="0" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -46879,7 +46870,7 @@
         <v>114</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>278</v>
@@ -46904,7 +46895,7 @@
         <v>114</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>279</v>
@@ -46929,7 +46920,7 @@
         <v>114</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>280</v>
@@ -46954,7 +46945,7 @@
         <v>114</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>179</v>
@@ -46979,7 +46970,7 @@
         <v>114</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>178</v>
@@ -47004,7 +46995,7 @@
         <v>114</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>177</v>
@@ -47029,7 +47020,7 @@
         <v>114</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>281</v>
@@ -47054,7 +47045,7 @@
         <v>114</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D90" s="17" t="s">
         <v>182</v>
@@ -47104,7 +47095,7 @@
         <v>114</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>278</v>
@@ -47129,7 +47120,7 @@
         <v>114</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>279</v>
@@ -47154,7 +47145,7 @@
         <v>114</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>280</v>
@@ -47179,7 +47170,7 @@
         <v>114</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>179</v>
@@ -47204,7 +47195,7 @@
         <v>114</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>178</v>
@@ -47229,7 +47220,7 @@
         <v>114</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>177</v>
@@ -47254,7 +47245,7 @@
         <v>114</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D98" s="17" t="s">
         <v>281</v>
@@ -47279,7 +47270,7 @@
         <v>114</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>182</v>
@@ -47329,7 +47320,7 @@
         <v>114</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D101" s="17" t="s">
         <v>278</v>
@@ -47354,7 +47345,7 @@
         <v>114</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D102" s="17" t="s">
         <v>279</v>
@@ -47379,7 +47370,7 @@
         <v>114</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>280</v>
@@ -47404,7 +47395,7 @@
         <v>114</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D104" s="17" t="s">
         <v>179</v>
@@ -47429,7 +47420,7 @@
         <v>114</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>178</v>
@@ -47454,7 +47445,7 @@
         <v>114</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D106" s="17" t="s">
         <v>177</v>
@@ -47479,7 +47470,7 @@
         <v>114</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>281</v>
@@ -47504,7 +47495,7 @@
         <v>114</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D108" s="17" t="s">
         <v>182</v>
@@ -47554,7 +47545,7 @@
         <v>114</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D110" s="17" t="s">
         <v>279</v>
@@ -47579,10 +47570,10 @@
         <v>114</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E111" s="17" t="s">
         <v>277</v>
@@ -47604,10 +47595,10 @@
         <v>114</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>277</v>
@@ -47629,7 +47620,7 @@
         <v>114</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>279</v>
@@ -47654,10 +47645,10 @@
         <v>114</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>277</v>
@@ -47679,10 +47670,10 @@
         <v>114</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E115" s="17" t="s">
         <v>277</v>
@@ -47704,10 +47695,10 @@
         <v>114</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E116" s="17" t="s">
         <v>277</v>
@@ -47729,13 +47720,13 @@
         <v>114</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
@@ -47754,13 +47745,13 @@
         <v>114</v>
       </c>
       <c r="C118" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D118" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D118" s="17" t="s">
-        <v>303</v>
-      </c>
       <c r="E118" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="17"/>
@@ -47779,13 +47770,13 @@
         <v>114</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F119" s="17"/>
       <c r="G119" s="17"/>
@@ -47804,13 +47795,13 @@
         <v>114</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F120" s="17"/>
       <c r="G120" s="17"/>
@@ -47829,13 +47820,13 @@
         <v>114</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
@@ -47854,13 +47845,13 @@
         <v>114</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F122" s="17"/>
       <c r="G122" s="17"/>
@@ -47879,13 +47870,13 @@
         <v>114</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
@@ -47904,13 +47895,13 @@
         <v>114</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
@@ -47929,13 +47920,13 @@
         <v>114</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
@@ -47954,13 +47945,13 @@
         <v>114</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F126" s="17"/>
       <c r="G126" s="17"/>
@@ -47979,13 +47970,13 @@
         <v>114</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F127" s="17"/>
       <c r="G127" s="17"/>
@@ -48004,13 +47995,13 @@
         <v>114</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F128" s="17"/>
       <c r="G128" s="17"/>
@@ -48029,13 +48020,13 @@
         <v>114</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F129" s="17"/>
       <c r="G129" s="17"/>
@@ -48054,13 +48045,13 @@
         <v>114</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F130" s="17"/>
       <c r="G130" s="17"/>
@@ -48079,13 +48070,13 @@
         <v>114</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F131" s="17"/>
       <c r="G131" s="17"/>
@@ -48104,13 +48095,13 @@
         <v>114</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F132" s="17"/>
       <c r="G132" s="17"/>
@@ -48129,13 +48120,13 @@
         <v>114</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F133" s="17"/>
       <c r="G133" s="17"/>
@@ -48154,13 +48145,13 @@
         <v>114</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F134" s="17"/>
       <c r="G134" s="17"/>
@@ -48179,13 +48170,13 @@
         <v>114</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F135" s="17"/>
       <c r="G135" s="17"/>
@@ -48204,13 +48195,13 @@
         <v>114</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F136" s="17"/>
       <c r="G136" s="17"/>
@@ -48229,13 +48220,13 @@
         <v>114</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F137" s="17"/>
       <c r="G137" s="17"/>
@@ -48254,13 +48245,13 @@
         <v>114</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F138" s="17"/>
       <c r="G138" s="17"/>
@@ -48279,13 +48270,13 @@
         <v>114</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F139" s="17"/>
       <c r="G139" s="17"/>
@@ -48304,13 +48295,13 @@
         <v>114</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F140" s="17"/>
       <c r="G140" s="17"/>
@@ -48329,13 +48320,13 @@
         <v>114</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F141" s="17"/>
       <c r="G141" s="17"/>
@@ -48354,13 +48345,13 @@
         <v>114</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F142" s="17"/>
       <c r="G142" s="17"/>
@@ -48379,13 +48370,13 @@
         <v>114</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F143" s="17"/>
       <c r="G143" s="17"/>
@@ -48404,13 +48395,13 @@
         <v>114</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="17"/>
@@ -48429,13 +48420,13 @@
         <v>114</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F145" s="17"/>
       <c r="G145" s="17"/>
@@ -48454,13 +48445,13 @@
         <v>114</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F146" s="17"/>
       <c r="G146" s="17"/>
@@ -48479,13 +48470,13 @@
         <v>114</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F147" s="17"/>
       <c r="G147" s="17"/>
@@ -48504,13 +48495,13 @@
         <v>114</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F148" s="17"/>
       <c r="G148" s="17"/>
@@ -48529,13 +48520,13 @@
         <v>114</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F149" s="17"/>
       <c r="G149" s="17"/>
@@ -48554,13 +48545,13 @@
         <v>114</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F150" s="17"/>
       <c r="G150" s="17"/>
@@ -48579,13 +48570,13 @@
         <v>114</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F151" s="17"/>
       <c r="G151" s="17"/>
@@ -48604,13 +48595,13 @@
         <v>114</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F152" s="17"/>
       <c r="G152" s="17"/>
@@ -48629,13 +48620,13 @@
         <v>114</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F153" s="17"/>
       <c r="G153" s="17"/>
@@ -48654,13 +48645,13 @@
         <v>114</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F154" s="17"/>
       <c r="G154" s="17"/>
@@ -48679,13 +48670,13 @@
         <v>114</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F155" s="17"/>
       <c r="G155" s="17"/>
@@ -48704,13 +48695,13 @@
         <v>114</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F156" s="17"/>
       <c r="G156" s="17"/>
@@ -48729,13 +48720,13 @@
         <v>114</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F157" s="17"/>
       <c r="G157" s="17"/>
@@ -48754,13 +48745,13 @@
         <v>114</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F158" s="17"/>
       <c r="G158" s="17"/>
@@ -48779,13 +48770,13 @@
         <v>114</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F159" s="17"/>
       <c r="G159" s="17"/>
@@ -48804,13 +48795,13 @@
         <v>114</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F160" s="17"/>
       <c r="G160" s="17"/>
@@ -48829,13 +48820,13 @@
         <v>114</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F161" s="17"/>
       <c r="G161" s="17"/>
@@ -48854,13 +48845,13 @@
         <v>114</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F162" s="17"/>
       <c r="G162" s="17"/>
@@ -48879,13 +48870,13 @@
         <v>114</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F163" s="17"/>
       <c r="G163" s="17"/>
@@ -48904,13 +48895,13 @@
         <v>114</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F164" s="17"/>
       <c r="G164" s="17"/>
@@ -48929,13 +48920,13 @@
         <v>114</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F165" s="17"/>
       <c r="G165" s="17"/>
@@ -48954,13 +48945,13 @@
         <v>114</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F166" s="17"/>
       <c r="G166" s="17"/>
@@ -48979,13 +48970,13 @@
         <v>114</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E167" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F167" s="17"/>
       <c r="G167" s="17"/>
@@ -49004,13 +48995,13 @@
         <v>114</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F168" s="17"/>
       <c r="G168" s="17"/>
@@ -49029,13 +49020,13 @@
         <v>114</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E169" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F169" s="17"/>
       <c r="G169" s="17"/>
@@ -49054,13 +49045,13 @@
         <v>114</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F170" s="17"/>
       <c r="G170" s="17"/>
@@ -49079,13 +49070,13 @@
         <v>114</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F171" s="17"/>
       <c r="G171" s="17"/>
@@ -49104,13 +49095,13 @@
         <v>114</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F172" s="17"/>
       <c r="G172" s="17"/>
@@ -49129,13 +49120,13 @@
         <v>114</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F173" s="17"/>
       <c r="G173" s="17"/>
@@ -49154,13 +49145,13 @@
         <v>114</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E174" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F174" s="17"/>
       <c r="G174" s="17"/>
@@ -49179,13 +49170,13 @@
         <v>114</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F175" s="17"/>
       <c r="G175" s="17"/>
@@ -49204,13 +49195,13 @@
         <v>114</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E176" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F176" s="17"/>
       <c r="G176" s="17"/>
@@ -49229,13 +49220,13 @@
         <v>114</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F177" s="17"/>
       <c r="G177" s="17"/>
@@ -49254,13 +49245,13 @@
         <v>114</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F178" s="17"/>
       <c r="G178" s="17"/>
@@ -49279,13 +49270,13 @@
         <v>114</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F179" s="17"/>
       <c r="G179" s="17"/>
@@ -49304,13 +49295,13 @@
         <v>114</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E180" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F180" s="17"/>
       <c r="G180" s="17"/>
@@ -49329,13 +49320,13 @@
         <v>114</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F181" s="17"/>
       <c r="G181" s="17"/>
@@ -49354,13 +49345,13 @@
         <v>114</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F182" s="17"/>
       <c r="G182" s="17"/>
@@ -49379,13 +49370,13 @@
         <v>114</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F183" s="17"/>
       <c r="G183" s="17"/>
@@ -49404,13 +49395,13 @@
         <v>114</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E184" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F184" s="17"/>
       <c r="G184" s="17"/>
@@ -49429,13 +49420,13 @@
         <v>114</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F185" s="17"/>
       <c r="G185" s="17"/>
@@ -49454,13 +49445,13 @@
         <v>114</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E186" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F186" s="17"/>
       <c r="G186" s="17"/>
@@ -49479,13 +49470,13 @@
         <v>114</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E187" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F187" s="17"/>
       <c r="G187" s="17"/>
@@ -49504,13 +49495,13 @@
         <v>114</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F188" s="17"/>
       <c r="G188" s="17"/>
@@ -49529,13 +49520,13 @@
         <v>114</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F189" s="17"/>
       <c r="G189" s="17"/>
@@ -49554,13 +49545,13 @@
         <v>114</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E190" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F190" s="17"/>
       <c r="G190" s="17"/>
@@ -49579,13 +49570,13 @@
         <v>114</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F191" s="17"/>
       <c r="G191" s="17"/>
@@ -49604,13 +49595,13 @@
         <v>114</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E192" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F192" s="17"/>
       <c r="G192" s="17"/>
@@ -49629,13 +49620,13 @@
         <v>114</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E193" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F193" s="17"/>
       <c r="G193" s="17"/>
@@ -49654,13 +49645,13 @@
         <v>114</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E194" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F194" s="17"/>
       <c r="G194" s="17"/>
@@ -49679,13 +49670,13 @@
         <v>114</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F195" s="17"/>
       <c r="G195" s="17"/>
@@ -49704,13 +49695,13 @@
         <v>114</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E196" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F196" s="17"/>
       <c r="G196" s="17"/>
@@ -49729,13 +49720,13 @@
         <v>114</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E197" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F197" s="17"/>
       <c r="G197" s="17"/>
@@ -49754,13 +49745,13 @@
         <v>114</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F198" s="17"/>
       <c r="G198" s="17"/>
@@ -49779,13 +49770,13 @@
         <v>114</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F199" s="17"/>
       <c r="G199" s="17"/>
@@ -49804,13 +49795,13 @@
         <v>114</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E200" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F200" s="17"/>
       <c r="G200" s="17"/>
@@ -49829,13 +49820,13 @@
         <v>114</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E201" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F201" s="17"/>
       <c r="G201" s="17"/>
@@ -49854,13 +49845,13 @@
         <v>114</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E202" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F202" s="17"/>
       <c r="G202" s="17"/>
@@ -49879,13 +49870,13 @@
         <v>114</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F203" s="17"/>
       <c r="G203" s="17"/>
@@ -49904,13 +49895,13 @@
         <v>114</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F204" s="17"/>
       <c r="G204" s="17"/>
@@ -49929,13 +49920,13 @@
         <v>114</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F205" s="17"/>
       <c r="G205" s="17"/>
@@ -49954,13 +49945,13 @@
         <v>114</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E206" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F206" s="17"/>
       <c r="G206" s="17"/>
@@ -49979,13 +49970,13 @@
         <v>114</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E207" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F207" s="17"/>
       <c r="G207" s="17"/>
@@ -50004,13 +49995,13 @@
         <v>114</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F208" s="17"/>
       <c r="G208" s="17"/>
@@ -50029,13 +50020,13 @@
         <v>114</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E209" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F209" s="17"/>
       <c r="G209" s="17"/>
@@ -50054,13 +50045,13 @@
         <v>114</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E210" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F210" s="17"/>
       <c r="G210" s="17"/>
@@ -50079,13 +50070,13 @@
         <v>114</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E211" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F211" s="17"/>
       <c r="G211" s="17"/>
@@ -50104,13 +50095,13 @@
         <v>114</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E212" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F212" s="17"/>
       <c r="G212" s="17"/>
@@ -50129,13 +50120,13 @@
         <v>114</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E213" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F213" s="17"/>
       <c r="G213" s="17"/>
@@ -50154,13 +50145,13 @@
         <v>114</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E214" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F214" s="17"/>
       <c r="G214" s="17"/>
@@ -50179,13 +50170,13 @@
         <v>114</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F215" s="17"/>
       <c r="G215" s="17"/>
@@ -50204,13 +50195,13 @@
         <v>114</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E216" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F216" s="17"/>
       <c r="G216" s="17"/>
@@ -50229,13 +50220,13 @@
         <v>114</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E217" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F217" s="17"/>
       <c r="G217" s="17"/>
@@ -50254,13 +50245,13 @@
         <v>114</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E218" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F218" s="17"/>
       <c r="G218" s="17"/>
@@ -50279,13 +50270,13 @@
         <v>114</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E219" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F219" s="17"/>
       <c r="G219" s="17"/>
@@ -50304,13 +50295,13 @@
         <v>114</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F220" s="17"/>
       <c r="G220" s="17"/>
@@ -50329,13 +50320,13 @@
         <v>114</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F221" s="17"/>
       <c r="G221" s="17"/>
@@ -50354,13 +50345,13 @@
         <v>114</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F222" s="17"/>
       <c r="G222" s="17"/>
@@ -50379,13 +50370,13 @@
         <v>114</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E223" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F223" s="17"/>
       <c r="G223" s="17"/>
@@ -50404,13 +50395,13 @@
         <v>114</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E224" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F224" s="17"/>
       <c r="G224" s="17"/>
@@ -50429,13 +50420,13 @@
         <v>114</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F225" s="17"/>
       <c r="G225" s="17"/>
@@ -50454,13 +50445,13 @@
         <v>114</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E226" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F226" s="17"/>
       <c r="G226" s="17"/>
@@ -50479,13 +50470,13 @@
         <v>114</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E227" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F227" s="17"/>
       <c r="G227" s="17"/>
@@ -50504,13 +50495,13 @@
         <v>114</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E228" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F228" s="17"/>
       <c r="G228" s="17"/>
@@ -50529,13 +50520,13 @@
         <v>114</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E229" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F229" s="17"/>
       <c r="G229" s="17"/>
@@ -50554,13 +50545,13 @@
         <v>114</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F230" s="17"/>
       <c r="G230" s="17"/>
@@ -50579,13 +50570,13 @@
         <v>114</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F231" s="17"/>
       <c r="G231" s="17"/>
@@ -50604,13 +50595,13 @@
         <v>114</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F232" s="17"/>
       <c r="G232" s="17"/>
@@ -50629,13 +50620,13 @@
         <v>114</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F233" s="17"/>
       <c r="G233" s="17"/>
@@ -50654,13 +50645,13 @@
         <v>114</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F234" s="17"/>
       <c r="G234" s="17"/>
@@ -50679,13 +50670,13 @@
         <v>114</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F235" s="17"/>
       <c r="G235" s="17"/>
@@ -50704,13 +50695,13 @@
         <v>114</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F236" s="17"/>
       <c r="G236" s="17"/>
@@ -50729,13 +50720,13 @@
         <v>114</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F237" s="17"/>
       <c r="G237" s="17"/>
@@ -50754,13 +50745,13 @@
         <v>114</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E238" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F238" s="17"/>
       <c r="G238" s="17"/>
@@ -50779,13 +50770,13 @@
         <v>114</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E239" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F239" s="17"/>
       <c r="G239" s="17"/>
@@ -50804,13 +50795,13 @@
         <v>114</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E240" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F240" s="17"/>
       <c r="G240" s="17"/>
@@ -50829,13 +50820,13 @@
         <v>114</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E241" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F241" s="17"/>
       <c r="G241" s="17"/>
@@ -50854,13 +50845,13 @@
         <v>114</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E242" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F242" s="17"/>
       <c r="G242" s="17"/>
@@ -50879,13 +50870,13 @@
         <v>114</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E243" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F243" s="17"/>
       <c r="G243" s="17"/>
@@ -50904,13 +50895,13 @@
         <v>114</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E244" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F244" s="17"/>
       <c r="G244" s="17"/>
@@ -50929,13 +50920,13 @@
         <v>114</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E245" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F245" s="17"/>
       <c r="G245" s="17"/>
@@ -50954,13 +50945,13 @@
         <v>114</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E246" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F246" s="17"/>
       <c r="G246" s="17"/>
@@ -50979,13 +50970,13 @@
         <v>114</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E247" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F247" s="17"/>
       <c r="G247" s="17"/>
@@ -51004,13 +50995,13 @@
         <v>114</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E248" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F248" s="17"/>
       <c r="G248" s="17"/>
@@ -51029,13 +51020,13 @@
         <v>114</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E249" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F249" s="17"/>
       <c r="G249" s="17"/>
@@ -51054,13 +51045,13 @@
         <v>114</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E250" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F250" s="17"/>
       <c r="G250" s="17"/>
@@ -51079,13 +51070,13 @@
         <v>114</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E251" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F251" s="17"/>
       <c r="G251" s="17"/>
@@ -51104,13 +51095,13 @@
         <v>114</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E252" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F252" s="17"/>
       <c r="G252" s="17"/>
@@ -51129,13 +51120,13 @@
         <v>114</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E253" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F253" s="17"/>
       <c r="G253" s="17"/>
@@ -51154,13 +51145,13 @@
         <v>114</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E254" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F254" s="17"/>
       <c r="G254" s="17"/>
@@ -51179,13 +51170,13 @@
         <v>114</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E255" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F255" s="17"/>
       <c r="G255" s="17"/>
@@ -51204,13 +51195,13 @@
         <v>114</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E256" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F256" s="17"/>
       <c r="G256" s="17"/>
@@ -51229,13 +51220,13 @@
         <v>114</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E257" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F257" s="17"/>
       <c r="G257" s="17"/>
@@ -51254,13 +51245,13 @@
         <v>114</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E258" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F258" s="17"/>
       <c r="G258" s="17"/>
@@ -51279,13 +51270,13 @@
         <v>114</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E259" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F259" s="17"/>
       <c r="G259" s="17"/>
@@ -51304,13 +51295,13 @@
         <v>114</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E260" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F260" s="17"/>
       <c r="G260" s="17"/>
@@ -51329,13 +51320,13 @@
         <v>114</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F261" s="17"/>
       <c r="G261" s="17"/>
@@ -51354,13 +51345,13 @@
         <v>114</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E262" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F262" s="17"/>
       <c r="G262" s="17"/>
@@ -51379,13 +51370,13 @@
         <v>114</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E263" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F263" s="17"/>
       <c r="G263" s="17"/>
@@ -51404,13 +51395,13 @@
         <v>114</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E264" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F264" s="17"/>
       <c r="G264" s="17"/>
@@ -51429,13 +51420,13 @@
         <v>114</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E265" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F265" s="17"/>
       <c r="G265" s="17"/>
@@ -51454,13 +51445,13 @@
         <v>114</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F266" s="17"/>
       <c r="G266" s="17"/>
@@ -51479,13 +51470,13 @@
         <v>114</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E267" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F267" s="17"/>
       <c r="G267" s="17"/>
@@ -51504,13 +51495,13 @@
         <v>114</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E268" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F268" s="17"/>
       <c r="G268" s="17"/>
@@ -51529,13 +51520,13 @@
         <v>114</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E269" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F269" s="17"/>
       <c r="G269" s="17"/>
@@ -51554,13 +51545,13 @@
         <v>114</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E270" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F270" s="17"/>
       <c r="G270" s="17"/>
@@ -51579,13 +51570,13 @@
         <v>114</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E271" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F271" s="17"/>
       <c r="G271" s="17"/>
@@ -51604,13 +51595,13 @@
         <v>114</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E272" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F272" s="17"/>
       <c r="G272" s="17"/>
@@ -51629,13 +51620,13 @@
         <v>114</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E273" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F273" s="17"/>
       <c r="G273" s="17"/>
@@ -51654,13 +51645,13 @@
         <v>114</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E274" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F274" s="17"/>
       <c r="G274" s="17"/>
@@ -51679,13 +51670,13 @@
         <v>114</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E275" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F275" s="17"/>
       <c r="G275" s="17"/>
@@ -51704,13 +51695,13 @@
         <v>114</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E276" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F276" s="17"/>
       <c r="G276" s="17"/>
@@ -51729,13 +51720,13 @@
         <v>114</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E277" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F277" s="17"/>
       <c r="G277" s="17"/>
@@ -51754,13 +51745,13 @@
         <v>114</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E278" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F278" s="17"/>
       <c r="G278" s="17"/>
@@ -51779,13 +51770,13 @@
         <v>114</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E279" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F279" s="17"/>
       <c r="G279" s="17"/>
@@ -51804,13 +51795,13 @@
         <v>114</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E280" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F280" s="17"/>
       <c r="G280" s="17"/>
@@ -51829,13 +51820,13 @@
         <v>114</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E281" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F281" s="17"/>
       <c r="G281" s="17"/>
@@ -51854,13 +51845,13 @@
         <v>114</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E282" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F282" s="17"/>
       <c r="G282" s="17"/>
@@ -51879,13 +51870,13 @@
         <v>114</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E283" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F283" s="17"/>
       <c r="G283" s="17"/>
@@ -51904,13 +51895,13 @@
         <v>114</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E284" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F284" s="17"/>
       <c r="G284" s="17"/>
@@ -51929,13 +51920,13 @@
         <v>114</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E285" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F285" s="17"/>
       <c r="G285" s="17"/>
@@ -51954,13 +51945,13 @@
         <v>114</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E286" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F286" s="17"/>
       <c r="G286" s="17"/>
@@ -51979,13 +51970,13 @@
         <v>114</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E287" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F287" s="17"/>
       <c r="G287" s="17"/>
@@ -52004,13 +51995,13 @@
         <v>114</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F288" s="17"/>
       <c r="G288" s="17"/>
@@ -52029,13 +52020,13 @@
         <v>114</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E289" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F289" s="17"/>
       <c r="G289" s="17"/>
@@ -52054,13 +52045,13 @@
         <v>114</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E290" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F290" s="17"/>
       <c r="G290" s="17"/>
@@ -52079,13 +52070,13 @@
         <v>114</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E291" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F291" s="17"/>
       <c r="G291" s="17"/>
@@ -52104,13 +52095,13 @@
         <v>114</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E292" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F292" s="17"/>
       <c r="G292" s="17"/>
@@ -52129,13 +52120,13 @@
         <v>114</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E293" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F293" s="17"/>
       <c r="G293" s="17"/>
@@ -52154,13 +52145,13 @@
         <v>114</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E294" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F294" s="17"/>
       <c r="G294" s="17"/>
@@ -52179,13 +52170,13 @@
         <v>114</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E295" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F295" s="17"/>
       <c r="G295" s="17"/>
@@ -52204,13 +52195,13 @@
         <v>114</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E296" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F296" s="17"/>
       <c r="G296" s="17"/>
@@ -52229,13 +52220,13 @@
         <v>114</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E297" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F297" s="17"/>
       <c r="G297" s="17"/>
@@ -52254,13 +52245,13 @@
         <v>114</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E298" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F298" s="17"/>
       <c r="G298" s="17"/>
@@ -52279,13 +52270,13 @@
         <v>114</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E299" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F299" s="17"/>
       <c r="G299" s="17"/>
@@ -52304,13 +52295,13 @@
         <v>114</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E300" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F300" s="17"/>
       <c r="G300" s="17"/>
@@ -52329,13 +52320,13 @@
         <v>114</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E301" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F301" s="17"/>
       <c r="G301" s="17"/>
@@ -52354,13 +52345,13 @@
         <v>114</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E302" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F302" s="17"/>
       <c r="G302" s="17"/>
@@ -52379,13 +52370,13 @@
         <v>114</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E303" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F303" s="17"/>
       <c r="G303" s="17"/>
@@ -52404,13 +52395,13 @@
         <v>114</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E304" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F304" s="17"/>
       <c r="G304" s="17"/>
@@ -52429,13 +52420,13 @@
         <v>114</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E305" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F305" s="17"/>
       <c r="G305" s="17"/>
@@ -52454,13 +52445,13 @@
         <v>114</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E306" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F306" s="17"/>
       <c r="G306" s="17"/>
@@ -52479,13 +52470,13 @@
         <v>114</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E307" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F307" s="17"/>
       <c r="G307" s="17"/>
@@ -52504,13 +52495,13 @@
         <v>114</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E308" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F308" s="17"/>
       <c r="G308" s="17"/>
@@ -52529,13 +52520,13 @@
         <v>114</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E309" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F309" s="17"/>
       <c r="G309" s="17"/>
@@ -52554,13 +52545,13 @@
         <v>114</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E310" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F310" s="17"/>
       <c r="G310" s="17"/>
@@ -52579,13 +52570,13 @@
         <v>114</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E311" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F311" s="17"/>
       <c r="G311" s="17"/>
@@ -52604,13 +52595,13 @@
         <v>114</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E312" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F312" s="17"/>
       <c r="G312" s="17"/>
@@ -52629,13 +52620,13 @@
         <v>114</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E313" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F313" s="17"/>
       <c r="G313" s="17"/>
@@ -52654,13 +52645,13 @@
         <v>114</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E314" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F314" s="17"/>
       <c r="G314" s="17"/>
@@ -52679,13 +52670,13 @@
         <v>114</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E315" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F315" s="17"/>
       <c r="G315" s="17"/>
@@ -52704,13 +52695,13 @@
         <v>114</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E316" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F316" s="17"/>
       <c r="G316" s="17"/>
@@ -52729,13 +52720,13 @@
         <v>114</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E317" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F317" s="17"/>
       <c r="G317" s="17"/>
@@ -52754,13 +52745,13 @@
         <v>114</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E318" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F318" s="17"/>
       <c r="G318" s="17"/>
@@ -52779,13 +52770,13 @@
         <v>114</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E319" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F319" s="17"/>
       <c r="G319" s="17"/>
@@ -52804,13 +52795,13 @@
         <v>114</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E320" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F320" s="17"/>
       <c r="G320" s="17"/>
@@ -52829,13 +52820,13 @@
         <v>114</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E321" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F321" s="17"/>
       <c r="G321" s="17"/>
@@ -52854,13 +52845,13 @@
         <v>114</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E322" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F322" s="17"/>
       <c r="G322" s="17"/>
@@ -52879,13 +52870,13 @@
         <v>114</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E323" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F323" s="17"/>
       <c r="G323" s="17"/>
@@ -52904,13 +52895,13 @@
         <v>114</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E324" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F324" s="17"/>
       <c r="G324" s="17"/>
@@ -52929,13 +52920,13 @@
         <v>114</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E325" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F325" s="17"/>
       <c r="G325" s="17"/>
@@ -52954,13 +52945,13 @@
         <v>114</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E326" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F326" s="17"/>
       <c r="G326" s="17"/>
@@ -52979,13 +52970,13 @@
         <v>114</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E327" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F327" s="17"/>
       <c r="G327" s="17"/>
@@ -53004,13 +52995,13 @@
         <v>114</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E328" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F328" s="17"/>
       <c r="G328" s="17"/>
@@ -53029,13 +53020,13 @@
         <v>114</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E329" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F329" s="17"/>
       <c r="G329" s="17"/>
@@ -53054,13 +53045,13 @@
         <v>114</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E330" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F330" s="17"/>
       <c r="G330" s="17"/>
@@ -53079,13 +53070,13 @@
         <v>114</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E331" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F331" s="17"/>
       <c r="G331" s="17"/>
@@ -53104,13 +53095,13 @@
         <v>114</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E332" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F332" s="17"/>
       <c r="G332" s="17"/>
@@ -53129,13 +53120,13 @@
         <v>114</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E333" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F333" s="17"/>
       <c r="G333" s="17"/>
@@ -53218,43 +53209,43 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O1" s="4"/>
       <c r="Q1" s="4"/>
@@ -53289,13 +53280,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>242</v>
@@ -53314,13 +53305,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>242</v>
@@ -53339,13 +53330,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>242</v>
@@ -53364,13 +53355,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>242</v>
@@ -53389,13 +53380,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>242</v>
@@ -53414,16 +53405,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="8"/>
@@ -53439,16 +53430,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
@@ -53464,16 +53455,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="8"/>
@@ -53489,16 +53480,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="8"/>
@@ -53514,16 +53505,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="8"/>
@@ -53539,16 +53530,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
@@ -53564,16 +53555,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="8"/>
@@ -53589,16 +53580,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="8"/>
@@ -53614,16 +53605,16 @@
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="8"/>
@@ -53639,16 +53630,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="8"/>
@@ -53664,16 +53655,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="8"/>
@@ -53689,16 +53680,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="8"/>
@@ -53714,16 +53705,16 @@
         <v>2</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="8"/>
@@ -53739,16 +53730,16 @@
         <v>2</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="8"/>
@@ -53764,16 +53755,16 @@
         <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="8"/>
@@ -53789,16 +53780,16 @@
         <v>2</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="8"/>
@@ -53814,16 +53805,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="8"/>
@@ -53839,16 +53830,16 @@
         <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="8"/>
@@ -53864,16 +53855,16 @@
         <v>3</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="8"/>
@@ -53889,16 +53880,16 @@
         <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="8"/>
@@ -53914,16 +53905,16 @@
         <v>3</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="8"/>
@@ -53939,16 +53930,16 @@
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="8"/>
@@ -53964,16 +53955,16 @@
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="8"/>
@@ -53989,16 +53980,16 @@
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="8"/>
@@ -54014,16 +54005,16 @@
         <v>3</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="8"/>
@@ -54039,16 +54030,16 @@
         <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="8"/>
@@ -54064,16 +54055,16 @@
         <v>3</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="8"/>
@@ -54089,16 +54080,16 @@
         <v>3</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="8"/>
@@ -54114,16 +54105,16 @@
         <v>3</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="8"/>
@@ -54139,16 +54130,16 @@
         <v>3</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="8"/>
@@ -54164,16 +54155,16 @@
         <v>3</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="8"/>
@@ -54189,16 +54180,16 @@
         <v>3</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8"/>
@@ -54214,16 +54205,16 @@
         <v>3</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="8"/>
@@ -54239,16 +54230,16 @@
         <v>3</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="8"/>
@@ -54264,16 +54255,16 @@
         <v>3</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="8"/>
@@ -54289,13 +54280,13 @@
         <v>3</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>198</v>
@@ -54314,13 +54305,13 @@
         <v>3</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>198</v>
@@ -54339,13 +54330,13 @@
         <v>3</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>385</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>388</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>198</v>
@@ -54364,13 +54355,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>198</v>
@@ -54389,13 +54380,13 @@
         <v>3</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>198</v>
@@ -54414,13 +54405,13 @@
         <v>3</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>198</v>
@@ -54439,13 +54430,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>198</v>
@@ -54464,13 +54455,13 @@
         <v>3</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>198</v>
@@ -54489,13 +54480,13 @@
         <v>3</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>198</v>
@@ -54514,13 +54505,13 @@
         <v>3</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>198</v>
@@ -54539,13 +54530,13 @@
         <v>3</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>198</v>
@@ -54564,13 +54555,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>198</v>
@@ -54589,13 +54580,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>198</v>
@@ -54614,13 +54605,13 @@
         <v>3</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>198</v>
@@ -54639,13 +54630,13 @@
         <v>3</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>198</v>
@@ -54664,13 +54655,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>198</v>
@@ -54689,13 +54680,13 @@
         <v>3</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>198</v>
@@ -54717,7 +54708,7 @@
         <v>114</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>262</v>
@@ -54742,7 +54733,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>258</v>
@@ -54767,10 +54758,10 @@
         <v>114</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>198</v>
@@ -54792,10 +54783,10 @@
         <v>114</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>198</v>
@@ -54817,7 +54808,7 @@
         <v>114</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>271</v>

--- a/frontend/polls/templates/polls/Performance_Template.xlsx
+++ b/frontend/polls/templates/polls/Performance_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="970" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="372" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="algorithm" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="402">
   <si>
     <t>Caliper Performance Tests: Algorithm</t>
   </si>
@@ -897,28 +897,19 @@
     <t>add</t>
   </si>
   <si>
-    <t>lb_bw_stream_v2</t>
-  </si>
-  <si>
-    <t>lb_bw_stream_v3</t>
-  </si>
-  <si>
     <t>scale</t>
   </si>
   <si>
-    <t>lb_bw_stream_v4</t>
+    <t>triad</t>
   </si>
   <si>
-    <t>triad</t>
+    <t>lb_bw_stream_v2</t>
   </si>
   <si>
     <t>daxpy</t>
   </si>
   <si>
     <t>fill</t>
-  </si>
-  <si>
-    <t>lb_bw_stream_v5</t>
   </si>
   <si>
     <t>sum</t>
@@ -931,9 +922,6 @@
   </si>
   <si>
     <t>nanoseconds</t>
-  </si>
-  <si>
-    <t>lb_lat_cross_01_core</t>
   </si>
   <si>
     <t>lb_lat_01_01KB</t>
@@ -1014,22 +1002,31 @@
     <t>lb_lat_26_8MB</t>
   </si>
   <si>
-    <t>lb_lat_26_16MB</t>
+    <t>lb_lat_27_12MB</t>
   </si>
   <si>
-    <t>lb_lat_26_32MB</t>
+    <t>lb_lat_28_16MB</t>
+  </si>
+  <si>
+    <t>lb_lat_29_24MB</t>
+  </si>
+  <si>
+    <t>lb_lat_30_32MB</t>
   </si>
   <si>
     <t>lb_lat_local_04_core</t>
-  </si>
-  <si>
-    <t>lb_lat_cross_04_core</t>
   </si>
   <si>
     <t>lb_lat_local_16_core</t>
   </si>
   <si>
     <t>lb_lat_local_32_core</t>
+  </si>
+  <si>
+    <t>lb_lat_cross_01_core</t>
+  </si>
+  <si>
+    <t>lb_lat_cross_04_core</t>
   </si>
   <si>
     <t>lb_lat_cross_16_core</t>
@@ -1240,7 +1237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1285,12 +1282,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1361,7 +1352,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1435,7 +1426,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1448,10 +1439,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1533,7 +1520,7 @@
   </sheetPr>
   <dimension ref="1:29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2309,7 +2296,7 @@
   </sheetPr>
   <dimension ref="1:53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3710,7 +3697,7 @@
   </sheetPr>
   <dimension ref="A1:AMI65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I69" activeCellId="0" sqref="I69"/>
     </sheetView>
   </sheetViews>
@@ -38472,7 +38459,7 @@
   </sheetPr>
   <dimension ref="A1:AMI51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -42875,7 +42862,7 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -43821,7 +43808,7 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -44772,10 +44759,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:319"/>
+  <dimension ref="1:333"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A269" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H300" activeCellId="0" sqref="H300"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D115" activeCellId="0" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -45307,7 +45294,7 @@
       <c r="B20" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -45327,12 +45314,12 @@
     </row>
     <row r="21" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -45352,12 +45339,12 @@
     </row>
     <row r="22" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -45377,12 +45364,12 @@
     </row>
     <row r="23" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -45402,12 +45389,12 @@
     </row>
     <row r="24" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -45427,12 +45414,12 @@
     </row>
     <row r="25" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -45452,12 +45439,12 @@
     </row>
     <row r="26" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -45477,12 +45464,12 @@
     </row>
     <row r="27" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -45502,12 +45489,12 @@
     </row>
     <row r="28" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -45527,12 +45514,12 @@
     </row>
     <row r="29" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -45552,12 +45539,12 @@
     </row>
     <row r="30" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -45577,12 +45564,12 @@
     </row>
     <row r="31" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -45602,12 +45589,12 @@
     </row>
     <row r="32" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -45627,12 +45614,12 @@
     </row>
     <row r="33" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -45652,12 +45639,12 @@
     </row>
     <row r="34" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -45677,12 +45664,12 @@
     </row>
     <row r="35" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -45702,12 +45689,12 @@
     </row>
     <row r="36" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D36" s="8" t="s">
@@ -45726,7 +45713,9 @@
       <c r="M36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17"/>
+      <c r="A37" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B37" s="6" t="s">
         <v>114</v>
       </c>
@@ -45749,7 +45738,9 @@
       <c r="M37" s="17"/>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17"/>
+      <c r="A38" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B38" s="6" t="s">
         <v>114</v>
       </c>
@@ -45772,7 +45763,9 @@
       <c r="M38" s="17"/>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17"/>
+      <c r="A39" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B39" s="6" t="s">
         <v>114</v>
       </c>
@@ -45795,7 +45788,9 @@
       <c r="M39" s="17"/>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17"/>
+      <c r="A40" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B40" s="6" t="s">
         <v>114</v>
       </c>
@@ -45818,7 +45813,9 @@
       <c r="M40" s="17"/>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17"/>
+      <c r="A41" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B41" s="6" t="s">
         <v>114</v>
       </c>
@@ -45841,7 +45838,9 @@
       <c r="M41" s="17"/>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17"/>
+      <c r="A42" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B42" s="6" t="s">
         <v>114</v>
       </c>
@@ -45864,7 +45863,9 @@
       <c r="M42" s="17"/>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17"/>
+      <c r="A43" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B43" s="6" t="s">
         <v>114</v>
       </c>
@@ -45887,7 +45888,9 @@
       <c r="M43" s="17"/>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17"/>
+      <c r="A44" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B44" s="6" t="s">
         <v>114</v>
       </c>
@@ -45910,7 +45913,9 @@
       <c r="M44" s="17"/>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17"/>
+      <c r="A45" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B45" s="6" t="s">
         <v>114</v>
       </c>
@@ -45933,11 +45938,13 @@
       <c r="M45" s="17"/>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17"/>
-      <c r="B46" s="22" t="s">
+      <c r="A46" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D46" s="17" t="s">
@@ -45956,11 +45963,13 @@
       <c r="M46" s="17"/>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17"/>
-      <c r="B47" s="22" t="s">
+      <c r="A47" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D47" s="17" t="s">
@@ -45979,11 +45988,13 @@
       <c r="M47" s="17"/>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17"/>
-      <c r="B48" s="22" t="s">
+      <c r="A48" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -46002,11 +46013,13 @@
       <c r="M48" s="17"/>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17"/>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D49" s="17" t="s">
@@ -46025,11 +46038,13 @@
       <c r="M49" s="17"/>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17"/>
-      <c r="B50" s="22" t="s">
+      <c r="A50" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D50" s="17" t="s">
@@ -46048,11 +46063,13 @@
       <c r="M50" s="17"/>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17"/>
-      <c r="B51" s="22" t="s">
+      <c r="A51" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -46071,11 +46088,13 @@
       <c r="M51" s="17"/>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17"/>
-      <c r="B52" s="22" t="s">
+      <c r="A52" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D52" s="17" t="s">
@@ -46094,11 +46113,13 @@
       <c r="M52" s="17"/>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17"/>
-      <c r="B53" s="22" t="s">
+      <c r="A53" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D53" s="17" t="s">
@@ -46117,11 +46138,13 @@
       <c r="M53" s="17"/>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17"/>
-      <c r="B54" s="22" t="s">
+      <c r="A54" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -46140,11 +46163,13 @@
       <c r="M54" s="17"/>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17"/>
-      <c r="B55" s="22" t="s">
+      <c r="A55" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D55" s="17" t="s">
@@ -46163,11 +46188,13 @@
       <c r="M55" s="17"/>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17"/>
-      <c r="B56" s="22" t="s">
+      <c r="A56" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -46186,11 +46213,13 @@
       <c r="M56" s="17"/>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17"/>
-      <c r="B57" s="22" t="s">
+      <c r="A57" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D57" s="17" t="s">
@@ -46209,11 +46238,13 @@
       <c r="M57" s="17"/>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17"/>
-      <c r="B58" s="22" t="s">
+      <c r="A58" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D58" s="17" t="s">
@@ -46232,11 +46263,13 @@
       <c r="M58" s="17"/>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17"/>
-      <c r="B59" s="22" t="s">
+      <c r="A59" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D59" s="17" t="s">
@@ -46255,11 +46288,13 @@
       <c r="M59" s="17"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17"/>
-      <c r="B60" s="22" t="s">
+      <c r="A60" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -46278,11 +46313,13 @@
       <c r="M60" s="17"/>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17"/>
-      <c r="B61" s="22" t="s">
+      <c r="A61" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D61" s="17" t="s">
@@ -46301,11 +46338,13 @@
       <c r="M61" s="17"/>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17"/>
-      <c r="B62" s="22" t="s">
+      <c r="A62" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D62" s="17" t="s">
@@ -46324,11 +46363,13 @@
       <c r="M62" s="17"/>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17"/>
-      <c r="B63" s="22" t="s">
+      <c r="A63" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -46347,11 +46388,13 @@
       <c r="M63" s="17"/>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17"/>
-      <c r="B64" s="22" t="s">
+      <c r="A64" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D64" s="17" t="s">
@@ -46370,11 +46413,13 @@
       <c r="M64" s="17"/>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17"/>
-      <c r="B65" s="22" t="s">
+      <c r="A65" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D65" s="17" t="s">
@@ -46393,11 +46438,13 @@
       <c r="M65" s="17"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17"/>
-      <c r="B66" s="22" t="s">
+      <c r="A66" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D66" s="17" t="s">
@@ -46416,11 +46463,13 @@
       <c r="M66" s="17"/>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17"/>
-      <c r="B67" s="22" t="s">
+      <c r="A67" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D67" s="17" t="s">
@@ -46439,11 +46488,13 @@
       <c r="M67" s="17"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17"/>
-      <c r="B68" s="22" t="s">
+      <c r="A68" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D68" s="17" t="s">
@@ -46462,11 +46513,13 @@
       <c r="M68" s="17"/>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17"/>
-      <c r="B69" s="22" t="s">
+      <c r="A69" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D69" s="17" t="s">
@@ -46485,11 +46538,13 @@
       <c r="M69" s="17"/>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17"/>
-      <c r="B70" s="22" t="s">
+      <c r="A70" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D70" s="17" t="s">
@@ -46508,11 +46563,13 @@
       <c r="M70" s="17"/>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17"/>
-      <c r="B71" s="22" t="s">
+      <c r="A71" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D71" s="17" t="s">
@@ -46531,11 +46588,13 @@
       <c r="M71" s="17"/>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17"/>
-      <c r="B72" s="22" t="s">
+      <c r="A72" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D72" s="17" t="s">
@@ -46554,11 +46613,13 @@
       <c r="M72" s="17"/>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17"/>
-      <c r="B73" s="22" t="s">
+      <c r="A73" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D73" s="17" t="s">
@@ -46577,11 +46638,13 @@
       <c r="M73" s="17"/>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="17"/>
-      <c r="B74" s="22" t="s">
+      <c r="A74" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D74" s="17" t="s">
@@ -46600,11 +46663,13 @@
       <c r="M74" s="17"/>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="17"/>
-      <c r="B75" s="22" t="s">
+      <c r="A75" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D75" s="17" t="s">
@@ -46623,11 +46688,13 @@
       <c r="M75" s="17"/>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="17"/>
-      <c r="B76" s="22" t="s">
+      <c r="A76" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D76" s="17" t="s">
@@ -46646,11 +46713,13 @@
       <c r="M76" s="17"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="17"/>
-      <c r="B77" s="22" t="s">
+      <c r="A77" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D77" s="17" t="s">
@@ -46669,11 +46738,13 @@
       <c r="M77" s="17"/>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="17"/>
-      <c r="B78" s="22" t="s">
+      <c r="A78" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D78" s="17" t="s">
@@ -46692,11 +46763,13 @@
       <c r="M78" s="17"/>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="17"/>
-      <c r="B79" s="22" t="s">
+      <c r="A79" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D79" s="17" t="s">
@@ -46715,11 +46788,13 @@
       <c r="M79" s="17"/>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="17"/>
-      <c r="B80" s="22" t="s">
+      <c r="A80" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D80" s="17" t="s">
@@ -46738,11 +46813,13 @@
       <c r="M80" s="17"/>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="17"/>
-      <c r="B81" s="22" t="s">
+      <c r="A81" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D81" s="17" t="s">
@@ -46761,8 +46838,10 @@
       <c r="M81" s="17"/>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="17"/>
-      <c r="B82" s="22" t="s">
+      <c r="A82" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C82" s="7" t="s">
@@ -46784,12 +46863,14 @@
       <c r="M82" s="17"/>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="17"/>
-      <c r="B83" s="22" t="s">
+      <c r="A83" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>278</v>
@@ -46807,12 +46888,14 @@
       <c r="M83" s="17"/>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="17"/>
-      <c r="B84" s="22" t="s">
+      <c r="A84" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>279</v>
@@ -46830,12 +46913,14 @@
       <c r="M84" s="17"/>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="17"/>
-      <c r="B85" s="22" t="s">
+      <c r="A85" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>280</v>
@@ -46853,12 +46938,14 @@
       <c r="M85" s="17"/>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="17"/>
-      <c r="B86" s="22" t="s">
+      <c r="A86" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>179</v>
@@ -46876,12 +46963,14 @@
       <c r="M86" s="17"/>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="17"/>
-      <c r="B87" s="22" t="s">
+      <c r="A87" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>178</v>
@@ -46899,12 +46988,14 @@
       <c r="M87" s="17"/>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="17"/>
-      <c r="B88" s="22" t="s">
+      <c r="A88" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>177</v>
@@ -46922,12 +47013,14 @@
       <c r="M88" s="17"/>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="17"/>
-      <c r="B89" s="22" t="s">
+      <c r="A89" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>281</v>
@@ -46945,12 +47038,14 @@
       <c r="M89" s="17"/>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="17"/>
-      <c r="B90" s="22" t="s">
+      <c r="A90" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D90" s="17" t="s">
         <v>182</v>
@@ -46968,11 +47063,13 @@
       <c r="M90" s="17"/>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="17"/>
-      <c r="B91" s="22" t="s">
+      <c r="A91" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="7" t="s">
         <v>287</v>
       </c>
       <c r="D91" s="17" t="s">
@@ -46991,12 +47088,14 @@
       <c r="M91" s="17"/>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="17"/>
-      <c r="B92" s="22" t="s">
+      <c r="A92" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C92" s="22" t="s">
-        <v>282</v>
+      <c r="C92" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>278</v>
@@ -47014,12 +47113,14 @@
       <c r="M92" s="17"/>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="17"/>
-      <c r="B93" s="22" t="s">
+      <c r="A93" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C93" s="22" t="s">
-        <v>282</v>
+      <c r="C93" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>279</v>
@@ -47037,12 +47138,14 @@
       <c r="M93" s="17"/>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="17"/>
-      <c r="B94" s="22" t="s">
+      <c r="A94" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C94" s="22" t="s">
-        <v>282</v>
+      <c r="C94" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>280</v>
@@ -47060,12 +47163,14 @@
       <c r="M94" s="17"/>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="17"/>
-      <c r="B95" s="22" t="s">
+      <c r="A95" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C95" s="22" t="s">
-        <v>282</v>
+      <c r="C95" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>179</v>
@@ -47083,12 +47188,14 @@
       <c r="M95" s="17"/>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="17"/>
-      <c r="B96" s="22" t="s">
+      <c r="A96" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C96" s="22" t="s">
-        <v>282</v>
+      <c r="C96" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>178</v>
@@ -47106,12 +47213,14 @@
       <c r="M96" s="17"/>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="17"/>
-      <c r="B97" s="22" t="s">
+      <c r="A97" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C97" s="22" t="s">
-        <v>282</v>
+      <c r="C97" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>177</v>
@@ -47129,12 +47238,14 @@
       <c r="M97" s="17"/>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="17"/>
-      <c r="B98" s="22" t="s">
+      <c r="A98" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C98" s="22" t="s">
-        <v>282</v>
+      <c r="C98" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="D98" s="17" t="s">
         <v>281</v>
@@ -47152,12 +47263,14 @@
       <c r="M98" s="17"/>
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="17"/>
-      <c r="B99" s="22" t="s">
+      <c r="A99" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C99" s="22" t="s">
-        <v>282</v>
+      <c r="C99" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>182</v>
@@ -47175,11 +47288,13 @@
       <c r="M99" s="17"/>
     </row>
     <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="17"/>
-      <c r="B100" s="22" t="s">
+      <c r="A100" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="C100" s="7" t="s">
         <v>288</v>
       </c>
       <c r="D100" s="17" t="s">
@@ -47198,12 +47313,14 @@
       <c r="M100" s="17"/>
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="17"/>
-      <c r="B101" s="22" t="s">
+      <c r="A101" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C101" s="22" t="s">
-        <v>283</v>
+      <c r="C101" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="D101" s="17" t="s">
         <v>278</v>
@@ -47221,12 +47338,14 @@
       <c r="M101" s="17"/>
     </row>
     <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="17"/>
-      <c r="B102" s="22" t="s">
+      <c r="A102" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C102" s="22" t="s">
-        <v>283</v>
+      <c r="C102" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="D102" s="17" t="s">
         <v>279</v>
@@ -47244,12 +47363,14 @@
       <c r="M102" s="17"/>
     </row>
     <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="17"/>
-      <c r="B103" s="22" t="s">
+      <c r="A103" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C103" s="22" t="s">
-        <v>283</v>
+      <c r="C103" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>280</v>
@@ -47267,12 +47388,14 @@
       <c r="M103" s="17"/>
     </row>
     <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="17"/>
-      <c r="B104" s="22" t="s">
+      <c r="A104" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C104" s="22" t="s">
-        <v>283</v>
+      <c r="C104" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="D104" s="17" t="s">
         <v>179</v>
@@ -47290,12 +47413,14 @@
       <c r="M104" s="17"/>
     </row>
     <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="17"/>
-      <c r="B105" s="22" t="s">
+      <c r="A105" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C105" s="22" t="s">
-        <v>283</v>
+      <c r="C105" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>178</v>
@@ -47313,12 +47438,14 @@
       <c r="M105" s="17"/>
     </row>
     <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="17"/>
-      <c r="B106" s="22" t="s">
+      <c r="A106" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="22" t="s">
-        <v>283</v>
+      <c r="C106" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="D106" s="17" t="s">
         <v>177</v>
@@ -47336,12 +47463,14 @@
       <c r="M106" s="17"/>
     </row>
     <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="17"/>
-      <c r="B107" s="22" t="s">
+      <c r="A107" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C107" s="22" t="s">
-        <v>283</v>
+      <c r="C107" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>281</v>
@@ -47359,12 +47488,14 @@
       <c r="M107" s="17"/>
     </row>
     <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="17"/>
-      <c r="B108" s="22" t="s">
+      <c r="A108" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="22" t="s">
-        <v>283</v>
+      <c r="C108" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="D108" s="17" t="s">
         <v>182</v>
@@ -47382,8 +47513,10 @@
       <c r="M108" s="17"/>
     </row>
     <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="17"/>
-      <c r="B109" s="22" t="s">
+      <c r="A109" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C109" s="7" t="s">
@@ -47405,12 +47538,14 @@
       <c r="M109" s="17"/>
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="17"/>
-      <c r="B110" s="22" t="s">
+      <c r="A110" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D110" s="17" t="s">
         <v>279</v>
@@ -47428,15 +47563,17 @@
       <c r="M110" s="17"/>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="17"/>
-      <c r="B111" s="22" t="s">
+      <c r="A111" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E111" s="17" t="s">
         <v>277</v>
@@ -47451,15 +47588,17 @@
       <c r="M111" s="17"/>
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="17"/>
-      <c r="B112" s="22" t="s">
+      <c r="A112" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>277</v>
@@ -47474,12 +47613,14 @@
       <c r="M112" s="17"/>
     </row>
     <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="17"/>
-      <c r="B113" s="22" t="s">
+      <c r="A113" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>279</v>
@@ -47497,15 +47638,17 @@
       <c r="M113" s="17"/>
     </row>
     <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="17"/>
-      <c r="B114" s="22" t="s">
+      <c r="A114" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>277</v>
@@ -47520,15 +47663,17 @@
       <c r="M114" s="17"/>
     </row>
     <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="17"/>
-      <c r="B115" s="22" t="s">
+      <c r="A115" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E115" s="17" t="s">
         <v>277</v>
@@ -47543,15 +47688,17 @@
       <c r="M115" s="17"/>
     </row>
     <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="17"/>
-      <c r="B116" s="22" t="s">
+      <c r="A116" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E116" s="17" t="s">
         <v>277</v>
@@ -47566,18 +47713,20 @@
       <c r="M116" s="17"/>
     </row>
     <row r="117" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="17"/>
-      <c r="B117" s="22" t="s">
+      <c r="A117" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
@@ -47589,18 +47738,20 @@
       <c r="M117" s="17"/>
     </row>
     <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="17"/>
-      <c r="B118" s="22" t="s">
+      <c r="A118" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="17"/>
@@ -47612,18 +47763,20 @@
       <c r="M118" s="17"/>
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="17"/>
-      <c r="B119" s="22" t="s">
+      <c r="A119" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F119" s="17"/>
       <c r="G119" s="17"/>
@@ -47635,18 +47788,20 @@
       <c r="M119" s="17"/>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="17"/>
-      <c r="B120" s="22" t="s">
+      <c r="A120" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F120" s="17"/>
       <c r="G120" s="17"/>
@@ -47658,18 +47813,20 @@
       <c r="M120" s="17"/>
     </row>
     <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="17"/>
-      <c r="B121" s="22" t="s">
+      <c r="A121" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C121" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D121" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D121" s="17" t="s">
-        <v>307</v>
-      </c>
       <c r="E121" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
@@ -47681,18 +47838,20 @@
       <c r="M121" s="17"/>
     </row>
     <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="17"/>
-      <c r="B122" s="22" t="s">
+      <c r="A122" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F122" s="17"/>
       <c r="G122" s="17"/>
@@ -47704,18 +47863,20 @@
       <c r="M122" s="17"/>
     </row>
     <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="17"/>
-      <c r="B123" s="22" t="s">
+      <c r="A123" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
@@ -47727,18 +47888,20 @@
       <c r="M123" s="17"/>
     </row>
     <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="17"/>
-      <c r="B124" s="22" t="s">
+      <c r="A124" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
@@ -47750,18 +47913,20 @@
       <c r="M124" s="17"/>
     </row>
     <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="17"/>
-      <c r="B125" s="22" t="s">
+      <c r="A125" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
@@ -47773,18 +47938,20 @@
       <c r="M125" s="17"/>
     </row>
     <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="17"/>
-      <c r="B126" s="22" t="s">
+      <c r="A126" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F126" s="17"/>
       <c r="G126" s="17"/>
@@ -47796,18 +47963,20 @@
       <c r="M126" s="17"/>
     </row>
     <row r="127" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="17"/>
-      <c r="B127" s="22" t="s">
+      <c r="A127" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F127" s="17"/>
       <c r="G127" s="17"/>
@@ -47819,18 +47988,20 @@
       <c r="M127" s="17"/>
     </row>
     <row r="128" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="17"/>
-      <c r="B128" s="22" t="s">
+      <c r="A128" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F128" s="17"/>
       <c r="G128" s="17"/>
@@ -47842,18 +48013,20 @@
       <c r="M128" s="17"/>
     </row>
     <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="17"/>
-      <c r="B129" s="22" t="s">
+      <c r="A129" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F129" s="17"/>
       <c r="G129" s="17"/>
@@ -47865,18 +48038,20 @@
       <c r="M129" s="17"/>
     </row>
     <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="17"/>
-      <c r="B130" s="22" t="s">
+      <c r="A130" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F130" s="17"/>
       <c r="G130" s="17"/>
@@ -47888,18 +48063,20 @@
       <c r="M130" s="17"/>
     </row>
     <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="17"/>
-      <c r="B131" s="22" t="s">
+      <c r="A131" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E131" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F131" s="17"/>
       <c r="G131" s="17"/>
@@ -47911,18 +48088,20 @@
       <c r="M131" s="17"/>
     </row>
     <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="17"/>
-      <c r="B132" s="22" t="s">
+      <c r="A132" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F132" s="17"/>
       <c r="G132" s="17"/>
@@ -47934,18 +48113,20 @@
       <c r="M132" s="17"/>
     </row>
     <row r="133" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="17"/>
-      <c r="B133" s="22" t="s">
+      <c r="A133" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F133" s="17"/>
       <c r="G133" s="17"/>
@@ -47957,18 +48138,20 @@
       <c r="M133" s="17"/>
     </row>
     <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="17"/>
-      <c r="B134" s="22" t="s">
+      <c r="A134" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F134" s="17"/>
       <c r="G134" s="17"/>
@@ -47980,18 +48163,20 @@
       <c r="M134" s="17"/>
     </row>
     <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="17"/>
-      <c r="B135" s="22" t="s">
+      <c r="A135" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F135" s="17"/>
       <c r="G135" s="17"/>
@@ -48003,18 +48188,20 @@
       <c r="M135" s="17"/>
     </row>
     <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="17"/>
-      <c r="B136" s="22" t="s">
+      <c r="A136" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F136" s="17"/>
       <c r="G136" s="17"/>
@@ -48026,18 +48213,20 @@
       <c r="M136" s="17"/>
     </row>
     <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="17"/>
-      <c r="B137" s="22" t="s">
+      <c r="A137" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F137" s="17"/>
       <c r="G137" s="17"/>
@@ -48049,18 +48238,20 @@
       <c r="M137" s="17"/>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="17"/>
-      <c r="B138" s="22" t="s">
+      <c r="A138" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F138" s="17"/>
       <c r="G138" s="17"/>
@@ -48072,18 +48263,20 @@
       <c r="M138" s="17"/>
     </row>
     <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="17"/>
-      <c r="B139" s="22" t="s">
+      <c r="A139" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F139" s="17"/>
       <c r="G139" s="17"/>
@@ -48095,18 +48288,20 @@
       <c r="M139" s="17"/>
     </row>
     <row r="140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="17"/>
-      <c r="B140" s="22" t="s">
+      <c r="A140" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F140" s="17"/>
       <c r="G140" s="17"/>
@@ -48118,18 +48313,20 @@
       <c r="M140" s="17"/>
     </row>
     <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="17"/>
-      <c r="B141" s="22" t="s">
+      <c r="A141" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F141" s="17"/>
       <c r="G141" s="17"/>
@@ -48141,18 +48338,20 @@
       <c r="M141" s="17"/>
     </row>
     <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="17"/>
-      <c r="B142" s="22" t="s">
+      <c r="A142" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F142" s="17"/>
       <c r="G142" s="17"/>
@@ -48164,18 +48363,20 @@
       <c r="M142" s="17"/>
     </row>
     <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="17"/>
-      <c r="B143" s="22" t="s">
+      <c r="A143" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F143" s="17"/>
       <c r="G143" s="17"/>
@@ -48187,18 +48388,20 @@
       <c r="M143" s="17"/>
     </row>
     <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="17"/>
-      <c r="B144" s="22" t="s">
+      <c r="A144" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="17"/>
@@ -48210,18 +48413,20 @@
       <c r="M144" s="17"/>
     </row>
     <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="17"/>
-      <c r="B145" s="22" t="s">
+      <c r="A145" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F145" s="17"/>
       <c r="G145" s="17"/>
@@ -48232,19 +48437,21 @@
       <c r="L145" s="17"/>
       <c r="M145" s="17"/>
     </row>
-    <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="17"/>
-      <c r="B146" s="22" t="s">
+    <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C146" s="22" t="s">
-        <v>332</v>
+      <c r="C146" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F146" s="17"/>
       <c r="G146" s="17"/>
@@ -48256,18 +48463,20 @@
       <c r="M146" s="17"/>
     </row>
     <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="17"/>
-      <c r="B147" s="22" t="s">
+      <c r="A147" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C147" s="22" t="s">
-        <v>333</v>
+      <c r="C147" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F147" s="17"/>
       <c r="G147" s="17"/>
@@ -48278,19 +48487,21 @@
       <c r="L147" s="17"/>
       <c r="M147" s="17"/>
     </row>
-    <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="17"/>
-      <c r="B148" s="22" t="s">
+    <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C148" s="22" t="s">
-        <v>333</v>
+      <c r="C148" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F148" s="17"/>
       <c r="G148" s="17"/>
@@ -48302,18 +48513,20 @@
       <c r="M148" s="17"/>
     </row>
     <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="17"/>
-      <c r="B149" s="22" t="s">
+      <c r="A149" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C149" s="22" t="s">
-        <v>333</v>
+      <c r="C149" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F149" s="17"/>
       <c r="G149" s="17"/>
@@ -48325,18 +48538,20 @@
       <c r="M149" s="17"/>
     </row>
     <row r="150" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="17"/>
-      <c r="B150" s="22" t="s">
+      <c r="A150" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C150" s="22" t="s">
-        <v>333</v>
+      <c r="C150" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F150" s="17"/>
       <c r="G150" s="17"/>
@@ -48348,18 +48563,20 @@
       <c r="M150" s="17"/>
     </row>
     <row r="151" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="17"/>
-      <c r="B151" s="22" t="s">
+      <c r="A151" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C151" s="22" t="s">
-        <v>333</v>
+      <c r="C151" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F151" s="17"/>
       <c r="G151" s="17"/>
@@ -48371,18 +48588,20 @@
       <c r="M151" s="17"/>
     </row>
     <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="17"/>
-      <c r="B152" s="22" t="s">
+      <c r="A152" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C152" s="22" t="s">
-        <v>333</v>
+      <c r="C152" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F152" s="17"/>
       <c r="G152" s="17"/>
@@ -48394,18 +48613,20 @@
       <c r="M152" s="17"/>
     </row>
     <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="17"/>
-      <c r="B153" s="22" t="s">
+      <c r="A153" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C153" s="22" t="s">
-        <v>333</v>
+      <c r="C153" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F153" s="17"/>
       <c r="G153" s="17"/>
@@ -48417,18 +48638,20 @@
       <c r="M153" s="17"/>
     </row>
     <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="17"/>
-      <c r="B154" s="22" t="s">
+      <c r="A154" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C154" s="22" t="s">
-        <v>333</v>
+      <c r="C154" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F154" s="17"/>
       <c r="G154" s="17"/>
@@ -48440,18 +48663,20 @@
       <c r="M154" s="17"/>
     </row>
     <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="17"/>
-      <c r="B155" s="22" t="s">
+      <c r="A155" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C155" s="22" t="s">
-        <v>333</v>
+      <c r="C155" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F155" s="17"/>
       <c r="G155" s="17"/>
@@ -48463,18 +48688,20 @@
       <c r="M155" s="17"/>
     </row>
     <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="17"/>
-      <c r="B156" s="22" t="s">
+      <c r="A156" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C156" s="22" t="s">
-        <v>333</v>
+      <c r="C156" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F156" s="17"/>
       <c r="G156" s="17"/>
@@ -48486,18 +48713,20 @@
       <c r="M156" s="17"/>
     </row>
     <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="17"/>
-      <c r="B157" s="22" t="s">
+      <c r="A157" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C157" s="22" t="s">
-        <v>333</v>
+      <c r="C157" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F157" s="17"/>
       <c r="G157" s="17"/>
@@ -48509,18 +48738,20 @@
       <c r="M157" s="17"/>
     </row>
     <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="17"/>
-      <c r="B158" s="22" t="s">
+      <c r="A158" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C158" s="22" t="s">
-        <v>333</v>
+      <c r="C158" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F158" s="17"/>
       <c r="G158" s="17"/>
@@ -48532,18 +48763,20 @@
       <c r="M158" s="17"/>
     </row>
     <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="17"/>
-      <c r="B159" s="22" t="s">
+      <c r="A159" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C159" s="22" t="s">
-        <v>333</v>
+      <c r="C159" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F159" s="17"/>
       <c r="G159" s="17"/>
@@ -48555,18 +48788,20 @@
       <c r="M159" s="17"/>
     </row>
     <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="17"/>
-      <c r="B160" s="22" t="s">
+      <c r="A160" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C160" s="22" t="s">
-        <v>333</v>
+      <c r="C160" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F160" s="17"/>
       <c r="G160" s="17"/>
@@ -48578,18 +48813,20 @@
       <c r="M160" s="17"/>
     </row>
     <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="17"/>
-      <c r="B161" s="22" t="s">
+      <c r="A161" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C161" s="22" t="s">
-        <v>333</v>
+      <c r="C161" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F161" s="17"/>
       <c r="G161" s="17"/>
@@ -48601,18 +48838,20 @@
       <c r="M161" s="17"/>
     </row>
     <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="17"/>
-      <c r="B162" s="22" t="s">
+      <c r="A162" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C162" s="22" t="s">
-        <v>333</v>
+      <c r="C162" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F162" s="17"/>
       <c r="G162" s="17"/>
@@ -48624,18 +48863,20 @@
       <c r="M162" s="17"/>
     </row>
     <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="17"/>
-      <c r="B163" s="22" t="s">
+      <c r="A163" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C163" s="22" t="s">
-        <v>333</v>
+      <c r="C163" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F163" s="17"/>
       <c r="G163" s="17"/>
@@ -48647,18 +48888,20 @@
       <c r="M163" s="17"/>
     </row>
     <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="17"/>
-      <c r="B164" s="22" t="s">
+      <c r="A164" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C164" s="22" t="s">
-        <v>333</v>
+      <c r="C164" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E164" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F164" s="17"/>
       <c r="G164" s="17"/>
@@ -48670,18 +48913,20 @@
       <c r="M164" s="17"/>
     </row>
     <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="17"/>
-      <c r="B165" s="22" t="s">
+      <c r="A165" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C165" s="22" t="s">
-        <v>333</v>
+      <c r="C165" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F165" s="17"/>
       <c r="G165" s="17"/>
@@ -48693,18 +48938,20 @@
       <c r="M165" s="17"/>
     </row>
     <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="17"/>
-      <c r="B166" s="22" t="s">
+      <c r="A166" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C166" s="22" t="s">
-        <v>333</v>
+      <c r="C166" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E166" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F166" s="17"/>
       <c r="G166" s="17"/>
@@ -48716,18 +48963,20 @@
       <c r="M166" s="17"/>
     </row>
     <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="17"/>
-      <c r="B167" s="22" t="s">
+      <c r="A167" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C167" s="22" t="s">
-        <v>333</v>
+      <c r="C167" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E167" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F167" s="17"/>
       <c r="G167" s="17"/>
@@ -48739,18 +48988,20 @@
       <c r="M167" s="17"/>
     </row>
     <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="17"/>
-      <c r="B168" s="22" t="s">
+      <c r="A168" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C168" s="22" t="s">
-        <v>333</v>
+      <c r="C168" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F168" s="17"/>
       <c r="G168" s="17"/>
@@ -48762,18 +49013,20 @@
       <c r="M168" s="17"/>
     </row>
     <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="17"/>
-      <c r="B169" s="22" t="s">
+      <c r="A169" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C169" s="22" t="s">
-        <v>333</v>
+      <c r="C169" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E169" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F169" s="17"/>
       <c r="G169" s="17"/>
@@ -48785,18 +49038,20 @@
       <c r="M169" s="17"/>
     </row>
     <row r="170" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="17"/>
-      <c r="B170" s="22" t="s">
+      <c r="A170" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C170" s="22" t="s">
-        <v>333</v>
+      <c r="C170" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F170" s="17"/>
       <c r="G170" s="17"/>
@@ -48808,18 +49063,20 @@
       <c r="M170" s="17"/>
     </row>
     <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="17"/>
-      <c r="B171" s="22" t="s">
+      <c r="A171" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C171" s="22" t="s">
-        <v>333</v>
+      <c r="C171" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F171" s="17"/>
       <c r="G171" s="17"/>
@@ -48831,18 +49088,20 @@
       <c r="M171" s="17"/>
     </row>
     <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="17"/>
-      <c r="B172" s="22" t="s">
+      <c r="A172" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C172" s="22" t="s">
-        <v>333</v>
+      <c r="C172" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E172" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F172" s="17"/>
       <c r="G172" s="17"/>
@@ -48854,18 +49113,20 @@
       <c r="M172" s="17"/>
     </row>
     <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="17"/>
-      <c r="B173" s="22" t="s">
+      <c r="A173" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C173" s="22" t="s">
-        <v>333</v>
+      <c r="C173" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E173" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F173" s="17"/>
       <c r="G173" s="17"/>
@@ -48877,18 +49138,20 @@
       <c r="M173" s="17"/>
     </row>
     <row r="174" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="17"/>
-      <c r="B174" s="22" t="s">
+      <c r="A174" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C174" s="22" t="s">
-        <v>333</v>
+      <c r="C174" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E174" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F174" s="17"/>
       <c r="G174" s="17"/>
@@ -48899,19 +49162,21 @@
       <c r="L174" s="17"/>
       <c r="M174" s="17"/>
     </row>
-    <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="17"/>
-      <c r="B175" s="22" t="s">
+    <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C175" s="22" t="s">
-        <v>334</v>
+      <c r="C175" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="E175" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F175" s="17"/>
       <c r="G175" s="17"/>
@@ -48923,18 +49188,20 @@
       <c r="M175" s="17"/>
     </row>
     <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="17"/>
-      <c r="B176" s="22" t="s">
+      <c r="A176" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C176" s="22" t="s">
-        <v>333</v>
+      <c r="C176" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="E176" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F176" s="17"/>
       <c r="G176" s="17"/>
@@ -48946,18 +49213,20 @@
       <c r="M176" s="17"/>
     </row>
     <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="17"/>
-      <c r="B177" s="22" t="s">
+      <c r="A177" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C177" s="22" t="s">
-        <v>333</v>
+      <c r="C177" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="E177" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F177" s="17"/>
       <c r="G177" s="17"/>
@@ -48969,18 +49238,20 @@
       <c r="M177" s="17"/>
     </row>
     <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="17"/>
-      <c r="B178" s="22" t="s">
+      <c r="A178" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C178" s="22" t="s">
-        <v>333</v>
+      <c r="C178" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F178" s="17"/>
       <c r="G178" s="17"/>
@@ -48991,19 +49262,21 @@
       <c r="L178" s="17"/>
       <c r="M178" s="17"/>
     </row>
-    <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="17"/>
-      <c r="B179" s="22" t="s">
+    <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C179" s="22" t="s">
-        <v>333</v>
+      <c r="C179" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E179" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F179" s="17"/>
       <c r="G179" s="17"/>
@@ -49015,18 +49288,20 @@
       <c r="M179" s="17"/>
     </row>
     <row r="180" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="17"/>
-      <c r="B180" s="22" t="s">
+      <c r="A180" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C180" s="22" t="s">
-        <v>333</v>
+      <c r="C180" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E180" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F180" s="17"/>
       <c r="G180" s="17"/>
@@ -49038,18 +49313,20 @@
       <c r="M180" s="17"/>
     </row>
     <row r="181" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="17"/>
-      <c r="B181" s="22" t="s">
+      <c r="A181" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C181" s="22" t="s">
-        <v>333</v>
+      <c r="C181" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F181" s="17"/>
       <c r="G181" s="17"/>
@@ -49061,18 +49338,20 @@
       <c r="M181" s="17"/>
     </row>
     <row r="182" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="17"/>
-      <c r="B182" s="22" t="s">
+      <c r="A182" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C182" s="22" t="s">
-        <v>333</v>
+      <c r="C182" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E182" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F182" s="17"/>
       <c r="G182" s="17"/>
@@ -49084,18 +49363,20 @@
       <c r="M182" s="17"/>
     </row>
     <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="17"/>
-      <c r="B183" s="22" t="s">
+      <c r="A183" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C183" s="22" t="s">
-        <v>333</v>
+      <c r="C183" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E183" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F183" s="17"/>
       <c r="G183" s="17"/>
@@ -49107,18 +49388,20 @@
       <c r="M183" s="17"/>
     </row>
     <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="17"/>
-      <c r="B184" s="22" t="s">
+      <c r="A184" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C184" s="22" t="s">
-        <v>333</v>
+      <c r="C184" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E184" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F184" s="17"/>
       <c r="G184" s="17"/>
@@ -49130,18 +49413,20 @@
       <c r="M184" s="17"/>
     </row>
     <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="17"/>
-      <c r="B185" s="22" t="s">
+      <c r="A185" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B185" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C185" s="22" t="s">
-        <v>333</v>
+      <c r="C185" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E185" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F185" s="17"/>
       <c r="G185" s="17"/>
@@ -49153,18 +49438,20 @@
       <c r="M185" s="17"/>
     </row>
     <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="17"/>
-      <c r="B186" s="22" t="s">
+      <c r="A186" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C186" s="22" t="s">
-        <v>333</v>
+      <c r="C186" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E186" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F186" s="17"/>
       <c r="G186" s="17"/>
@@ -49176,18 +49463,20 @@
       <c r="M186" s="17"/>
     </row>
     <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="17"/>
-      <c r="B187" s="22" t="s">
+      <c r="A187" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C187" s="22" t="s">
-        <v>333</v>
+      <c r="C187" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E187" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F187" s="17"/>
       <c r="G187" s="17"/>
@@ -49199,18 +49488,20 @@
       <c r="M187" s="17"/>
     </row>
     <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="17"/>
-      <c r="B188" s="22" t="s">
+      <c r="A188" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C188" s="22" t="s">
-        <v>333</v>
+      <c r="C188" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F188" s="17"/>
       <c r="G188" s="17"/>
@@ -49222,18 +49513,20 @@
       <c r="M188" s="17"/>
     </row>
     <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="17"/>
-      <c r="B189" s="22" t="s">
+      <c r="A189" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C189" s="22" t="s">
-        <v>333</v>
+      <c r="C189" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F189" s="17"/>
       <c r="G189" s="17"/>
@@ -49245,18 +49538,20 @@
       <c r="M189" s="17"/>
     </row>
     <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="17"/>
-      <c r="B190" s="22" t="s">
+      <c r="A190" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C190" s="22" t="s">
-        <v>333</v>
+      <c r="C190" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E190" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F190" s="17"/>
       <c r="G190" s="17"/>
@@ -49268,18 +49563,20 @@
       <c r="M190" s="17"/>
     </row>
     <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="17"/>
-      <c r="B191" s="22" t="s">
+      <c r="A191" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C191" s="22" t="s">
-        <v>333</v>
+      <c r="C191" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F191" s="17"/>
       <c r="G191" s="17"/>
@@ -49291,18 +49588,20 @@
       <c r="M191" s="17"/>
     </row>
     <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="17"/>
-      <c r="B192" s="22" t="s">
+      <c r="A192" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C192" s="22" t="s">
-        <v>333</v>
+      <c r="C192" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E192" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F192" s="17"/>
       <c r="G192" s="17"/>
@@ -49314,18 +49613,20 @@
       <c r="M192" s="17"/>
     </row>
     <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="17"/>
-      <c r="B193" s="22" t="s">
+      <c r="A193" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C193" s="22" t="s">
-        <v>333</v>
+      <c r="C193" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E193" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F193" s="17"/>
       <c r="G193" s="17"/>
@@ -49337,18 +49638,20 @@
       <c r="M193" s="17"/>
     </row>
     <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="17"/>
-      <c r="B194" s="22" t="s">
+      <c r="A194" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C194" s="22" t="s">
-        <v>333</v>
+      <c r="C194" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E194" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F194" s="17"/>
       <c r="G194" s="17"/>
@@ -49360,18 +49663,20 @@
       <c r="M194" s="17"/>
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="17"/>
-      <c r="B195" s="22" t="s">
+      <c r="A195" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C195" s="22" t="s">
-        <v>333</v>
+      <c r="C195" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E195" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F195" s="17"/>
       <c r="G195" s="17"/>
@@ -49383,18 +49688,20 @@
       <c r="M195" s="17"/>
     </row>
     <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="17"/>
-      <c r="B196" s="22" t="s">
+      <c r="A196" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C196" s="22" t="s">
-        <v>333</v>
+      <c r="C196" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E196" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F196" s="17"/>
       <c r="G196" s="17"/>
@@ -49406,18 +49713,20 @@
       <c r="M196" s="17"/>
     </row>
     <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="17"/>
-      <c r="B197" s="22" t="s">
+      <c r="A197" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B197" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C197" s="22" t="s">
-        <v>333</v>
+      <c r="C197" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E197" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F197" s="17"/>
       <c r="G197" s="17"/>
@@ -49429,18 +49738,20 @@
       <c r="M197" s="17"/>
     </row>
     <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="17"/>
-      <c r="B198" s="22" t="s">
+      <c r="A198" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C198" s="22" t="s">
-        <v>333</v>
+      <c r="C198" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F198" s="17"/>
       <c r="G198" s="17"/>
@@ -49452,18 +49763,20 @@
       <c r="M198" s="17"/>
     </row>
     <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="17"/>
-      <c r="B199" s="22" t="s">
+      <c r="A199" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C199" s="22" t="s">
-        <v>333</v>
+      <c r="C199" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F199" s="17"/>
       <c r="G199" s="17"/>
@@ -49475,18 +49788,20 @@
       <c r="M199" s="17"/>
     </row>
     <row r="200" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="17"/>
-      <c r="B200" s="22" t="s">
+      <c r="A200" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C200" s="22" t="s">
-        <v>333</v>
+      <c r="C200" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E200" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F200" s="17"/>
       <c r="G200" s="17"/>
@@ -49498,18 +49813,20 @@
       <c r="M200" s="17"/>
     </row>
     <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="17"/>
-      <c r="B201" s="22" t="s">
+      <c r="A201" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C201" s="22" t="s">
-        <v>333</v>
+      <c r="C201" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E201" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F201" s="17"/>
       <c r="G201" s="17"/>
@@ -49521,18 +49838,20 @@
       <c r="M201" s="17"/>
     </row>
     <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="17"/>
-      <c r="B202" s="22" t="s">
+      <c r="A202" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B202" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C202" s="22" t="s">
-        <v>333</v>
+      <c r="C202" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E202" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F202" s="17"/>
       <c r="G202" s="17"/>
@@ -49544,18 +49863,20 @@
       <c r="M202" s="17"/>
     </row>
     <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="17"/>
-      <c r="B203" s="22" t="s">
+      <c r="A203" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C203" s="22" t="s">
-        <v>333</v>
+      <c r="C203" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F203" s="17"/>
       <c r="G203" s="17"/>
@@ -49566,19 +49887,21 @@
       <c r="L203" s="17"/>
       <c r="M203" s="17"/>
     </row>
-    <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="17"/>
-      <c r="B204" s="22" t="s">
+    <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C204" s="22" t="s">
-        <v>335</v>
+      <c r="C204" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F204" s="17"/>
       <c r="G204" s="17"/>
@@ -49590,18 +49913,20 @@
       <c r="M204" s="17"/>
     </row>
     <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="17"/>
-      <c r="B205" s="22" t="s">
+      <c r="A205" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C205" s="22" t="s">
-        <v>333</v>
+      <c r="C205" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F205" s="17"/>
       <c r="G205" s="17"/>
@@ -49613,18 +49938,20 @@
       <c r="M205" s="17"/>
     </row>
     <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="17"/>
-      <c r="B206" s="22" t="s">
+      <c r="A206" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C206" s="22" t="s">
-        <v>333</v>
+      <c r="C206" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="E206" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F206" s="17"/>
       <c r="G206" s="17"/>
@@ -49636,18 +49963,20 @@
       <c r="M206" s="17"/>
     </row>
     <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="17"/>
-      <c r="B207" s="22" t="s">
+      <c r="A207" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C207" s="22" t="s">
-        <v>333</v>
+      <c r="C207" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="E207" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F207" s="17"/>
       <c r="G207" s="17"/>
@@ -49659,18 +49988,20 @@
       <c r="M207" s="17"/>
     </row>
     <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="17"/>
-      <c r="B208" s="22" t="s">
+      <c r="A208" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C208" s="22" t="s">
-        <v>333</v>
+      <c r="C208" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F208" s="17"/>
       <c r="G208" s="17"/>
@@ -49682,18 +50013,20 @@
       <c r="M208" s="17"/>
     </row>
     <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="17"/>
-      <c r="B209" s="22" t="s">
+      <c r="A209" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C209" s="22" t="s">
-        <v>333</v>
+      <c r="C209" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="E209" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F209" s="17"/>
       <c r="G209" s="17"/>
@@ -49704,19 +50037,21 @@
       <c r="L209" s="17"/>
       <c r="M209" s="17"/>
     </row>
-    <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="17"/>
-      <c r="B210" s="22" t="s">
+    <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A210" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B210" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C210" s="22" t="s">
-        <v>333</v>
+      <c r="C210" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E210" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F210" s="17"/>
       <c r="G210" s="17"/>
@@ -49728,18 +50063,20 @@
       <c r="M210" s="17"/>
     </row>
     <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="17"/>
-      <c r="B211" s="22" t="s">
+      <c r="A211" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C211" s="22" t="s">
-        <v>333</v>
+      <c r="C211" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E211" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F211" s="17"/>
       <c r="G211" s="17"/>
@@ -49751,18 +50088,20 @@
       <c r="M211" s="17"/>
     </row>
     <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="17"/>
-      <c r="B212" s="22" t="s">
+      <c r="A212" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C212" s="22" t="s">
-        <v>333</v>
+      <c r="C212" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E212" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F212" s="17"/>
       <c r="G212" s="17"/>
@@ -49774,18 +50113,20 @@
       <c r="M212" s="17"/>
     </row>
     <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="17"/>
-      <c r="B213" s="22" t="s">
+      <c r="A213" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C213" s="22" t="s">
-        <v>333</v>
+      <c r="C213" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E213" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F213" s="17"/>
       <c r="G213" s="17"/>
@@ -49797,18 +50138,20 @@
       <c r="M213" s="17"/>
     </row>
     <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="17"/>
-      <c r="B214" s="22" t="s">
+      <c r="A214" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C214" s="22" t="s">
-        <v>333</v>
+      <c r="C214" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E214" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F214" s="17"/>
       <c r="G214" s="17"/>
@@ -49820,18 +50163,20 @@
       <c r="M214" s="17"/>
     </row>
     <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="17"/>
-      <c r="B215" s="22" t="s">
+      <c r="A215" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C215" s="22" t="s">
-        <v>333</v>
+      <c r="C215" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F215" s="17"/>
       <c r="G215" s="17"/>
@@ -49843,18 +50188,20 @@
       <c r="M215" s="17"/>
     </row>
     <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="17"/>
-      <c r="B216" s="22" t="s">
+      <c r="A216" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B216" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C216" s="22" t="s">
-        <v>333</v>
+      <c r="C216" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E216" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F216" s="17"/>
       <c r="G216" s="17"/>
@@ -49866,18 +50213,20 @@
       <c r="M216" s="17"/>
     </row>
     <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="17"/>
-      <c r="B217" s="22" t="s">
+      <c r="A217" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C217" s="22" t="s">
-        <v>333</v>
+      <c r="C217" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E217" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F217" s="17"/>
       <c r="G217" s="17"/>
@@ -49889,18 +50238,20 @@
       <c r="M217" s="17"/>
     </row>
     <row r="218" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="17"/>
-      <c r="B218" s="22" t="s">
+      <c r="A218" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B218" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C218" s="22" t="s">
-        <v>333</v>
+      <c r="C218" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E218" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F218" s="17"/>
       <c r="G218" s="17"/>
@@ -49912,18 +50263,20 @@
       <c r="M218" s="17"/>
     </row>
     <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="17"/>
-      <c r="B219" s="22" t="s">
+      <c r="A219" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B219" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C219" s="22" t="s">
-        <v>333</v>
+      <c r="C219" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E219" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F219" s="17"/>
       <c r="G219" s="17"/>
@@ -49935,18 +50288,20 @@
       <c r="M219" s="17"/>
     </row>
     <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="17"/>
-      <c r="B220" s="22" t="s">
+      <c r="A220" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B220" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C220" s="22" t="s">
-        <v>333</v>
+      <c r="C220" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F220" s="17"/>
       <c r="G220" s="17"/>
@@ -49958,18 +50313,20 @@
       <c r="M220" s="17"/>
     </row>
     <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="17"/>
-      <c r="B221" s="22" t="s">
+      <c r="A221" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B221" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C221" s="22" t="s">
-        <v>333</v>
+      <c r="C221" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F221" s="17"/>
       <c r="G221" s="17"/>
@@ -49981,18 +50338,20 @@
       <c r="M221" s="17"/>
     </row>
     <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="17"/>
-      <c r="B222" s="22" t="s">
+      <c r="A222" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B222" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C222" s="22" t="s">
-        <v>333</v>
+      <c r="C222" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F222" s="17"/>
       <c r="G222" s="17"/>
@@ -50004,18 +50363,20 @@
       <c r="M222" s="17"/>
     </row>
     <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="17"/>
-      <c r="B223" s="22" t="s">
+      <c r="A223" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C223" s="22" t="s">
-        <v>333</v>
+      <c r="C223" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E223" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F223" s="17"/>
       <c r="G223" s="17"/>
@@ -50027,18 +50388,20 @@
       <c r="M223" s="17"/>
     </row>
     <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="17"/>
-      <c r="B224" s="22" t="s">
+      <c r="A224" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B224" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C224" s="22" t="s">
-        <v>333</v>
+      <c r="C224" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E224" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F224" s="17"/>
       <c r="G224" s="17"/>
@@ -50050,18 +50413,20 @@
       <c r="M224" s="17"/>
     </row>
     <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="17"/>
-      <c r="B225" s="22" t="s">
+      <c r="A225" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B225" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C225" s="22" t="s">
-        <v>333</v>
+      <c r="C225" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F225" s="17"/>
       <c r="G225" s="17"/>
@@ -50073,18 +50438,20 @@
       <c r="M225" s="17"/>
     </row>
     <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="17"/>
-      <c r="B226" s="22" t="s">
+      <c r="A226" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B226" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C226" s="22" t="s">
-        <v>333</v>
+      <c r="C226" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E226" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F226" s="17"/>
       <c r="G226" s="17"/>
@@ -50096,18 +50463,20 @@
       <c r="M226" s="17"/>
     </row>
     <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="17"/>
-      <c r="B227" s="22" t="s">
+      <c r="A227" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B227" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C227" s="22" t="s">
-        <v>333</v>
+      <c r="C227" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E227" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F227" s="17"/>
       <c r="G227" s="17"/>
@@ -50119,18 +50488,20 @@
       <c r="M227" s="17"/>
     </row>
     <row r="228" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="17"/>
-      <c r="B228" s="22" t="s">
+      <c r="A228" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B228" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C228" s="22" t="s">
-        <v>333</v>
+      <c r="C228" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E228" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F228" s="17"/>
       <c r="G228" s="17"/>
@@ -50142,18 +50513,20 @@
       <c r="M228" s="17"/>
     </row>
     <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="17"/>
-      <c r="B229" s="22" t="s">
+      <c r="A229" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B229" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C229" s="22" t="s">
-        <v>333</v>
+      <c r="C229" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E229" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F229" s="17"/>
       <c r="G229" s="17"/>
@@ -50165,18 +50538,20 @@
       <c r="M229" s="17"/>
     </row>
     <row r="230" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="17"/>
-      <c r="B230" s="22" t="s">
+      <c r="A230" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B230" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C230" s="22" t="s">
-        <v>333</v>
+      <c r="C230" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F230" s="17"/>
       <c r="G230" s="17"/>
@@ -50188,18 +50563,20 @@
       <c r="M230" s="17"/>
     </row>
     <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="17"/>
-      <c r="B231" s="22" t="s">
+      <c r="A231" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B231" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C231" s="22" t="s">
-        <v>333</v>
+      <c r="C231" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F231" s="17"/>
       <c r="G231" s="17"/>
@@ -50211,18 +50588,20 @@
       <c r="M231" s="17"/>
     </row>
     <row r="232" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="17"/>
-      <c r="B232" s="22" t="s">
+      <c r="A232" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B232" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C232" s="22" t="s">
-        <v>333</v>
+      <c r="C232" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F232" s="17"/>
       <c r="G232" s="17"/>
@@ -50233,19 +50612,21 @@
       <c r="L232" s="17"/>
       <c r="M232" s="17"/>
     </row>
-    <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="17"/>
-      <c r="B233" s="22" t="s">
+    <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B233" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C233" s="22" t="s">
-        <v>303</v>
+      <c r="C233" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F233" s="17"/>
       <c r="G233" s="17"/>
@@ -50257,18 +50638,20 @@
       <c r="M233" s="17"/>
     </row>
     <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="17"/>
-      <c r="B234" s="22" t="s">
+      <c r="A234" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C234" s="22" t="s">
-        <v>333</v>
+      <c r="C234" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F234" s="17"/>
       <c r="G234" s="17"/>
@@ -50280,18 +50663,20 @@
       <c r="M234" s="17"/>
     </row>
     <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="17"/>
-      <c r="B235" s="22" t="s">
+      <c r="A235" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C235" s="22" t="s">
-        <v>333</v>
+      <c r="C235" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F235" s="17"/>
       <c r="G235" s="17"/>
@@ -50303,18 +50688,20 @@
       <c r="M235" s="17"/>
     </row>
     <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="17"/>
-      <c r="B236" s="22" t="s">
+      <c r="A236" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B236" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C236" s="22" t="s">
-        <v>333</v>
+      <c r="C236" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="E236" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F236" s="17"/>
       <c r="G236" s="17"/>
@@ -50326,18 +50713,20 @@
       <c r="M236" s="17"/>
     </row>
     <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="17"/>
-      <c r="B237" s="22" t="s">
+      <c r="A237" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C237" s="22" t="s">
-        <v>333</v>
+      <c r="C237" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="E237" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F237" s="17"/>
       <c r="G237" s="17"/>
@@ -50349,18 +50738,20 @@
       <c r="M237" s="17"/>
     </row>
     <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="17"/>
-      <c r="B238" s="22" t="s">
+      <c r="A238" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C238" s="22" t="s">
-        <v>333</v>
+      <c r="C238" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="E238" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F238" s="17"/>
       <c r="G238" s="17"/>
@@ -50372,18 +50763,20 @@
       <c r="M238" s="17"/>
     </row>
     <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="17"/>
-      <c r="B239" s="22" t="s">
+      <c r="A239" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C239" s="22" t="s">
-        <v>333</v>
+      <c r="C239" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="E239" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F239" s="17"/>
       <c r="G239" s="17"/>
@@ -50395,18 +50788,20 @@
       <c r="M239" s="17"/>
     </row>
     <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="17"/>
-      <c r="B240" s="22" t="s">
+      <c r="A240" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C240" s="22" t="s">
-        <v>333</v>
+      <c r="C240" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="E240" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F240" s="17"/>
       <c r="G240" s="17"/>
@@ -50417,19 +50812,21 @@
       <c r="L240" s="17"/>
       <c r="M240" s="17"/>
     </row>
-    <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="17"/>
-      <c r="B241" s="22" t="s">
+    <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A241" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B241" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C241" s="22" t="s">
+      <c r="C241" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E241" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F241" s="17"/>
       <c r="G241" s="17"/>
@@ -50441,18 +50838,20 @@
       <c r="M241" s="17"/>
     </row>
     <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="17"/>
-      <c r="B242" s="22" t="s">
+      <c r="A242" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B242" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C242" s="22" t="s">
+      <c r="C242" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="E242" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F242" s="17"/>
       <c r="G242" s="17"/>
@@ -50464,18 +50863,20 @@
       <c r="M242" s="17"/>
     </row>
     <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="17"/>
-      <c r="B243" s="22" t="s">
+      <c r="A243" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B243" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C243" s="22" t="s">
+      <c r="C243" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E243" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F243" s="17"/>
       <c r="G243" s="17"/>
@@ -50487,18 +50888,20 @@
       <c r="M243" s="17"/>
     </row>
     <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="17"/>
-      <c r="B244" s="22" t="s">
+      <c r="A244" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C244" s="22" t="s">
+      <c r="C244" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="E244" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F244" s="17"/>
       <c r="G244" s="17"/>
@@ -50510,18 +50913,20 @@
       <c r="M244" s="17"/>
     </row>
     <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="17"/>
-      <c r="B245" s="22" t="s">
+      <c r="A245" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B245" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C245" s="22" t="s">
+      <c r="C245" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E245" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F245" s="17"/>
       <c r="G245" s="17"/>
@@ -50533,18 +50938,20 @@
       <c r="M245" s="17"/>
     </row>
     <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="17"/>
-      <c r="B246" s="22" t="s">
+      <c r="A246" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B246" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C246" s="22" t="s">
+      <c r="C246" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E246" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F246" s="17"/>
       <c r="G246" s="17"/>
@@ -50556,18 +50963,20 @@
       <c r="M246" s="17"/>
     </row>
     <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="17"/>
-      <c r="B247" s="22" t="s">
+      <c r="A247" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B247" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C247" s="22" t="s">
+      <c r="C247" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E247" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F247" s="17"/>
       <c r="G247" s="17"/>
@@ -50579,18 +50988,20 @@
       <c r="M247" s="17"/>
     </row>
     <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="17"/>
-      <c r="B248" s="22" t="s">
+      <c r="A248" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B248" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C248" s="22" t="s">
+      <c r="C248" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E248" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F248" s="17"/>
       <c r="G248" s="17"/>
@@ -50602,18 +51013,20 @@
       <c r="M248" s="17"/>
     </row>
     <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="17"/>
-      <c r="B249" s="22" t="s">
+      <c r="A249" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B249" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C249" s="22" t="s">
+      <c r="C249" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E249" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F249" s="17"/>
       <c r="G249" s="17"/>
@@ -50625,18 +51038,20 @@
       <c r="M249" s="17"/>
     </row>
     <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="17"/>
-      <c r="B250" s="22" t="s">
+      <c r="A250" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B250" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C250" s="22" t="s">
+      <c r="C250" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E250" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F250" s="17"/>
       <c r="G250" s="17"/>
@@ -50648,18 +51063,20 @@
       <c r="M250" s="17"/>
     </row>
     <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="17"/>
-      <c r="B251" s="22" t="s">
+      <c r="A251" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B251" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C251" s="22" t="s">
+      <c r="C251" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E251" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F251" s="17"/>
       <c r="G251" s="17"/>
@@ -50671,18 +51088,20 @@
       <c r="M251" s="17"/>
     </row>
     <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="17"/>
-      <c r="B252" s="22" t="s">
+      <c r="A252" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B252" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C252" s="22" t="s">
+      <c r="C252" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E252" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F252" s="17"/>
       <c r="G252" s="17"/>
@@ -50694,18 +51113,20 @@
       <c r="M252" s="17"/>
     </row>
     <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="17"/>
-      <c r="B253" s="22" t="s">
+      <c r="A253" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B253" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C253" s="22" t="s">
+      <c r="C253" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="E253" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F253" s="17"/>
       <c r="G253" s="17"/>
@@ -50717,18 +51138,20 @@
       <c r="M253" s="17"/>
     </row>
     <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="17"/>
-      <c r="B254" s="22" t="s">
+      <c r="A254" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B254" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C254" s="22" t="s">
+      <c r="C254" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E254" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F254" s="17"/>
       <c r="G254" s="17"/>
@@ -50740,18 +51163,20 @@
       <c r="M254" s="17"/>
     </row>
     <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="17"/>
-      <c r="B255" s="22" t="s">
+      <c r="A255" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B255" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C255" s="22" t="s">
+      <c r="C255" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E255" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F255" s="17"/>
       <c r="G255" s="17"/>
@@ -50763,18 +51188,20 @@
       <c r="M255" s="17"/>
     </row>
     <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="17"/>
-      <c r="B256" s="22" t="s">
+      <c r="A256" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B256" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C256" s="22" t="s">
+      <c r="C256" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E256" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F256" s="17"/>
       <c r="G256" s="17"/>
@@ -50786,18 +51213,20 @@
       <c r="M256" s="17"/>
     </row>
     <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="17"/>
-      <c r="B257" s="22" t="s">
+      <c r="A257" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B257" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C257" s="22" t="s">
+      <c r="C257" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E257" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F257" s="17"/>
       <c r="G257" s="17"/>
@@ -50809,18 +51238,20 @@
       <c r="M257" s="17"/>
     </row>
     <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="17"/>
-      <c r="B258" s="22" t="s">
+      <c r="A258" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C258" s="22" t="s">
+      <c r="C258" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E258" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F258" s="17"/>
       <c r="G258" s="17"/>
@@ -50832,18 +51263,20 @@
       <c r="M258" s="17"/>
     </row>
     <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="17"/>
-      <c r="B259" s="22" t="s">
+      <c r="A259" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C259" s="22" t="s">
+      <c r="C259" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="E259" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F259" s="17"/>
       <c r="G259" s="17"/>
@@ -50855,18 +51288,20 @@
       <c r="M259" s="17"/>
     </row>
     <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="17"/>
-      <c r="B260" s="22" t="s">
+      <c r="A260" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B260" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C260" s="22" t="s">
+      <c r="C260" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E260" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F260" s="17"/>
       <c r="G260" s="17"/>
@@ -50878,18 +51313,20 @@
       <c r="M260" s="17"/>
     </row>
     <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="17"/>
-      <c r="B261" s="22" t="s">
+      <c r="A261" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B261" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C261" s="22" t="s">
+      <c r="C261" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F261" s="17"/>
       <c r="G261" s="17"/>
@@ -50900,19 +51337,21 @@
       <c r="L261" s="17"/>
       <c r="M261" s="17"/>
     </row>
-    <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="17"/>
-      <c r="B262" s="22" t="s">
+    <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B262" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C262" s="22" t="s">
+      <c r="C262" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="E262" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F262" s="17"/>
       <c r="G262" s="17"/>
@@ -50924,18 +51363,20 @@
       <c r="M262" s="17"/>
     </row>
     <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="17"/>
-      <c r="B263" s="22" t="s">
+      <c r="A263" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B263" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C263" s="22" t="s">
+      <c r="C263" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="E263" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F263" s="17"/>
       <c r="G263" s="17"/>
@@ -50947,18 +51388,20 @@
       <c r="M263" s="17"/>
     </row>
     <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="17"/>
-      <c r="B264" s="22" t="s">
+      <c r="A264" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B264" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C264" s="22" t="s">
+      <c r="C264" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="E264" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F264" s="17"/>
       <c r="G264" s="17"/>
@@ -50970,18 +51413,20 @@
       <c r="M264" s="17"/>
     </row>
     <row r="265" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="17"/>
-      <c r="B265" s="22" t="s">
+      <c r="A265" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B265" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C265" s="22" t="s">
+      <c r="C265" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="E265" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F265" s="17"/>
       <c r="G265" s="17"/>
@@ -50993,18 +51438,20 @@
       <c r="M265" s="17"/>
     </row>
     <row r="266" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="17"/>
-      <c r="B266" s="22" t="s">
+      <c r="A266" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B266" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C266" s="22" t="s">
+      <c r="C266" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F266" s="17"/>
       <c r="G266" s="17"/>
@@ -51016,18 +51463,20 @@
       <c r="M266" s="17"/>
     </row>
     <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="17"/>
-      <c r="B267" s="22" t="s">
+      <c r="A267" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B267" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C267" s="22" t="s">
+      <c r="C267" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E267" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F267" s="17"/>
       <c r="G267" s="17"/>
@@ -51039,18 +51488,20 @@
       <c r="M267" s="17"/>
     </row>
     <row r="268" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="17"/>
-      <c r="B268" s="22" t="s">
+      <c r="A268" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B268" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C268" s="22" t="s">
+      <c r="C268" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="E268" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F268" s="17"/>
       <c r="G268" s="17"/>
@@ -51062,18 +51513,20 @@
       <c r="M268" s="17"/>
     </row>
     <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="17"/>
-      <c r="B269" s="22" t="s">
+      <c r="A269" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B269" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C269" s="22" t="s">
+      <c r="C269" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="E269" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F269" s="17"/>
       <c r="G269" s="17"/>
@@ -51085,18 +51538,20 @@
       <c r="M269" s="17"/>
     </row>
     <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="17"/>
-      <c r="B270" s="22" t="s">
+      <c r="A270" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B270" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C270" s="22" t="s">
+      <c r="C270" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="E270" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F270" s="17"/>
       <c r="G270" s="17"/>
@@ -51108,18 +51563,20 @@
       <c r="M270" s="17"/>
     </row>
     <row r="271" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="17"/>
-      <c r="B271" s="22" t="s">
+      <c r="A271" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B271" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C271" s="22" t="s">
+      <c r="C271" s="7" t="s">
         <v>333</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="E271" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F271" s="17"/>
       <c r="G271" s="17"/>
@@ -51130,19 +51587,21 @@
       <c r="L271" s="17"/>
       <c r="M271" s="17"/>
     </row>
-    <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="17"/>
-      <c r="B272" s="22" t="s">
+    <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A272" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B272" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C272" s="22" t="s">
-        <v>333</v>
+      <c r="C272" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E272" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F272" s="17"/>
       <c r="G272" s="17"/>
@@ -51154,18 +51613,20 @@
       <c r="M272" s="17"/>
     </row>
     <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="17"/>
-      <c r="B273" s="22" t="s">
+      <c r="A273" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B273" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C273" s="22" t="s">
-        <v>333</v>
+      <c r="C273" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E273" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F273" s="17"/>
       <c r="G273" s="17"/>
@@ -51177,18 +51638,20 @@
       <c r="M273" s="17"/>
     </row>
     <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="17"/>
-      <c r="B274" s="22" t="s">
+      <c r="A274" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B274" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C274" s="22" t="s">
-        <v>333</v>
+      <c r="C274" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="E274" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F274" s="17"/>
       <c r="G274" s="17"/>
@@ -51200,18 +51663,20 @@
       <c r="M274" s="17"/>
     </row>
     <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="17"/>
-      <c r="B275" s="22" t="s">
+      <c r="A275" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C275" s="22" t="s">
-        <v>333</v>
+      <c r="C275" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="E275" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F275" s="17"/>
       <c r="G275" s="17"/>
@@ -51223,18 +51688,20 @@
       <c r="M275" s="17"/>
     </row>
     <row r="276" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="17"/>
-      <c r="B276" s="22" t="s">
+      <c r="A276" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C276" s="22" t="s">
-        <v>333</v>
+      <c r="C276" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E276" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F276" s="17"/>
       <c r="G276" s="17"/>
@@ -51246,18 +51713,20 @@
       <c r="M276" s="17"/>
     </row>
     <row r="277" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="17"/>
-      <c r="B277" s="22" t="s">
+      <c r="A277" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C277" s="22" t="s">
-        <v>333</v>
+      <c r="C277" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="E277" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F277" s="17"/>
       <c r="G277" s="17"/>
@@ -51269,18 +51738,20 @@
       <c r="M277" s="17"/>
     </row>
     <row r="278" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="17"/>
-      <c r="B278" s="22" t="s">
+      <c r="A278" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B278" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C278" s="22" t="s">
-        <v>333</v>
+      <c r="C278" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E278" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F278" s="17"/>
       <c r="G278" s="17"/>
@@ -51292,18 +51763,20 @@
       <c r="M278" s="17"/>
     </row>
     <row r="279" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="17"/>
-      <c r="B279" s="22" t="s">
+      <c r="A279" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B279" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C279" s="22" t="s">
-        <v>333</v>
+      <c r="C279" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E279" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F279" s="17"/>
       <c r="G279" s="17"/>
@@ -51315,18 +51788,20 @@
       <c r="M279" s="17"/>
     </row>
     <row r="280" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="17"/>
-      <c r="B280" s="22" t="s">
+      <c r="A280" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B280" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C280" s="22" t="s">
-        <v>333</v>
+      <c r="C280" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E280" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F280" s="17"/>
       <c r="G280" s="17"/>
@@ -51338,18 +51813,20 @@
       <c r="M280" s="17"/>
     </row>
     <row r="281" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="17"/>
-      <c r="B281" s="22" t="s">
+      <c r="A281" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B281" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C281" s="22" t="s">
-        <v>333</v>
+      <c r="C281" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E281" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F281" s="17"/>
       <c r="G281" s="17"/>
@@ -51361,18 +51838,20 @@
       <c r="M281" s="17"/>
     </row>
     <row r="282" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="17"/>
-      <c r="B282" s="22" t="s">
+      <c r="A282" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B282" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C282" s="22" t="s">
-        <v>333</v>
+      <c r="C282" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="E282" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F282" s="17"/>
       <c r="G282" s="17"/>
@@ -51384,18 +51863,20 @@
       <c r="M282" s="17"/>
     </row>
     <row r="283" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="17"/>
-      <c r="B283" s="22" t="s">
+      <c r="A283" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B283" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C283" s="22" t="s">
-        <v>333</v>
+      <c r="C283" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E283" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F283" s="17"/>
       <c r="G283" s="17"/>
@@ -51407,18 +51888,20 @@
       <c r="M283" s="17"/>
     </row>
     <row r="284" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="17"/>
-      <c r="B284" s="22" t="s">
+      <c r="A284" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B284" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C284" s="22" t="s">
-        <v>333</v>
+      <c r="C284" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="E284" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F284" s="17"/>
       <c r="G284" s="17"/>
@@ -51430,18 +51913,20 @@
       <c r="M284" s="17"/>
     </row>
     <row r="285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="17"/>
-      <c r="B285" s="22" t="s">
+      <c r="A285" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B285" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C285" s="22" t="s">
-        <v>333</v>
+      <c r="C285" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="E285" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F285" s="17"/>
       <c r="G285" s="17"/>
@@ -51453,18 +51938,20 @@
       <c r="M285" s="17"/>
     </row>
     <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="17"/>
-      <c r="B286" s="22" t="s">
+      <c r="A286" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B286" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C286" s="22" t="s">
-        <v>333</v>
+      <c r="C286" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E286" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F286" s="17"/>
       <c r="G286" s="17"/>
@@ -51476,18 +51963,20 @@
       <c r="M286" s="17"/>
     </row>
     <row r="287" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="17"/>
-      <c r="B287" s="22" t="s">
+      <c r="A287" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C287" s="22" t="s">
-        <v>333</v>
+      <c r="C287" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E287" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F287" s="17"/>
       <c r="G287" s="17"/>
@@ -51499,18 +51988,20 @@
       <c r="M287" s="17"/>
     </row>
     <row r="288" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="17"/>
-      <c r="B288" s="22" t="s">
+      <c r="A288" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B288" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C288" s="22" t="s">
-        <v>333</v>
+      <c r="C288" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F288" s="17"/>
       <c r="G288" s="17"/>
@@ -51522,18 +52013,20 @@
       <c r="M288" s="17"/>
     </row>
     <row r="289" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="17"/>
-      <c r="B289" s="22" t="s">
+      <c r="A289" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B289" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C289" s="22" t="s">
-        <v>333</v>
+      <c r="C289" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="E289" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F289" s="17"/>
       <c r="G289" s="17"/>
@@ -51545,18 +52038,20 @@
       <c r="M289" s="17"/>
     </row>
     <row r="290" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="17"/>
-      <c r="B290" s="22" t="s">
+      <c r="A290" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B290" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C290" s="22" t="s">
-        <v>333</v>
+      <c r="C290" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="E290" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F290" s="17"/>
       <c r="G290" s="17"/>
@@ -51567,19 +52062,21 @@
       <c r="L290" s="17"/>
       <c r="M290" s="17"/>
     </row>
-    <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A291" s="17"/>
-      <c r="B291" s="22" t="s">
+    <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B291" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C291" s="22" t="s">
-        <v>336</v>
+      <c r="C291" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="E291" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F291" s="17"/>
       <c r="G291" s="17"/>
@@ -51591,18 +52088,20 @@
       <c r="M291" s="17"/>
     </row>
     <row r="292" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="17"/>
-      <c r="B292" s="22" t="s">
+      <c r="A292" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B292" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C292" s="22" t="s">
-        <v>333</v>
+      <c r="C292" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="E292" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F292" s="17"/>
       <c r="G292" s="17"/>
@@ -51614,18 +52113,20 @@
       <c r="M292" s="17"/>
     </row>
     <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="17"/>
-      <c r="B293" s="22" t="s">
+      <c r="A293" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B293" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C293" s="22" t="s">
-        <v>333</v>
+      <c r="C293" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="E293" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F293" s="17"/>
       <c r="G293" s="17"/>
@@ -51637,18 +52138,20 @@
       <c r="M293" s="17"/>
     </row>
     <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="17"/>
-      <c r="B294" s="22" t="s">
+      <c r="A294" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B294" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C294" s="22" t="s">
-        <v>333</v>
+      <c r="C294" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="E294" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F294" s="17"/>
       <c r="G294" s="17"/>
@@ -51660,18 +52163,20 @@
       <c r="M294" s="17"/>
     </row>
     <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="17"/>
-      <c r="B295" s="22" t="s">
+      <c r="A295" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B295" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C295" s="22" t="s">
-        <v>333</v>
+      <c r="C295" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="E295" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F295" s="17"/>
       <c r="G295" s="17"/>
@@ -51683,18 +52188,20 @@
       <c r="M295" s="17"/>
     </row>
     <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="17"/>
-      <c r="B296" s="22" t="s">
+      <c r="A296" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C296" s="22" t="s">
-        <v>333</v>
+      <c r="C296" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="E296" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F296" s="17"/>
       <c r="G296" s="17"/>
@@ -51706,18 +52213,20 @@
       <c r="M296" s="17"/>
     </row>
     <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="17"/>
-      <c r="B297" s="22" t="s">
+      <c r="A297" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B297" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C297" s="22" t="s">
-        <v>333</v>
+      <c r="C297" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E297" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F297" s="17"/>
       <c r="G297" s="17"/>
@@ -51729,18 +52238,20 @@
       <c r="M297" s="17"/>
     </row>
     <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="17"/>
-      <c r="B298" s="22" t="s">
+      <c r="A298" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B298" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C298" s="22" t="s">
-        <v>333</v>
+      <c r="C298" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="E298" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F298" s="17"/>
       <c r="G298" s="17"/>
@@ -51752,18 +52263,20 @@
       <c r="M298" s="17"/>
     </row>
     <row r="299" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="17"/>
-      <c r="B299" s="22" t="s">
+      <c r="A299" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B299" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C299" s="22" t="s">
-        <v>333</v>
+      <c r="C299" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="E299" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F299" s="17"/>
       <c r="G299" s="17"/>
@@ -51775,18 +52288,20 @@
       <c r="M299" s="17"/>
     </row>
     <row r="300" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="17"/>
-      <c r="B300" s="22" t="s">
+      <c r="A300" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B300" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C300" s="22" t="s">
-        <v>333</v>
+      <c r="C300" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E300" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F300" s="17"/>
       <c r="G300" s="17"/>
@@ -51798,18 +52313,20 @@
       <c r="M300" s="17"/>
     </row>
     <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="17"/>
-      <c r="B301" s="22" t="s">
+      <c r="A301" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B301" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C301" s="22" t="s">
-        <v>333</v>
+      <c r="C301" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="E301" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F301" s="17"/>
       <c r="G301" s="17"/>
@@ -51821,18 +52338,20 @@
       <c r="M301" s="17"/>
     </row>
     <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="17"/>
-      <c r="B302" s="22" t="s">
+      <c r="A302" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B302" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C302" s="22" t="s">
-        <v>333</v>
+      <c r="C302" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="E302" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F302" s="17"/>
       <c r="G302" s="17"/>
@@ -51843,19 +52362,21 @@
       <c r="L302" s="17"/>
       <c r="M302" s="17"/>
     </row>
-    <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="17"/>
-      <c r="B303" s="22" t="s">
+    <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A303" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B303" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C303" s="22" t="s">
-        <v>333</v>
+      <c r="C303" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="E303" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F303" s="17"/>
       <c r="G303" s="17"/>
@@ -51867,18 +52388,20 @@
       <c r="M303" s="17"/>
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="17"/>
-      <c r="B304" s="22" t="s">
+      <c r="A304" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B304" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C304" s="22" t="s">
-        <v>333</v>
+      <c r="C304" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E304" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F304" s="17"/>
       <c r="G304" s="17"/>
@@ -51890,18 +52413,20 @@
       <c r="M304" s="17"/>
     </row>
     <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="17"/>
-      <c r="B305" s="22" t="s">
+      <c r="A305" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B305" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C305" s="22" t="s">
-        <v>333</v>
+      <c r="C305" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="E305" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F305" s="17"/>
       <c r="G305" s="17"/>
@@ -51913,18 +52438,20 @@
       <c r="M305" s="17"/>
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="17"/>
-      <c r="B306" s="22" t="s">
+      <c r="A306" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B306" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C306" s="22" t="s">
-        <v>333</v>
+      <c r="C306" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E306" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F306" s="17"/>
       <c r="G306" s="17"/>
@@ -51936,18 +52463,20 @@
       <c r="M306" s="17"/>
     </row>
     <row r="307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="17"/>
-      <c r="B307" s="22" t="s">
+      <c r="A307" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B307" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C307" s="22" t="s">
-        <v>333</v>
+      <c r="C307" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E307" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F307" s="17"/>
       <c r="G307" s="17"/>
@@ -51959,18 +52488,20 @@
       <c r="M307" s="17"/>
     </row>
     <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="17"/>
-      <c r="B308" s="22" t="s">
+      <c r="A308" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B308" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C308" s="22" t="s">
-        <v>333</v>
+      <c r="C308" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="E308" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F308" s="17"/>
       <c r="G308" s="17"/>
@@ -51982,18 +52513,20 @@
       <c r="M308" s="17"/>
     </row>
     <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="17"/>
-      <c r="B309" s="22" t="s">
+      <c r="A309" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B309" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C309" s="22" t="s">
-        <v>333</v>
+      <c r="C309" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="E309" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F309" s="17"/>
       <c r="G309" s="17"/>
@@ -52005,18 +52538,20 @@
       <c r="M309" s="17"/>
     </row>
     <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="17"/>
-      <c r="B310" s="22" t="s">
+      <c r="A310" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B310" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C310" s="22" t="s">
-        <v>333</v>
+      <c r="C310" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="E310" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F310" s="17"/>
       <c r="G310" s="17"/>
@@ -52028,18 +52563,20 @@
       <c r="M310" s="17"/>
     </row>
     <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="17"/>
-      <c r="B311" s="22" t="s">
+      <c r="A311" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B311" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C311" s="22" t="s">
-        <v>333</v>
+      <c r="C311" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="E311" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F311" s="17"/>
       <c r="G311" s="17"/>
@@ -52051,18 +52588,20 @@
       <c r="M311" s="17"/>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="17"/>
-      <c r="B312" s="22" t="s">
+      <c r="A312" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B312" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C312" s="22" t="s">
-        <v>333</v>
+      <c r="C312" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E312" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F312" s="17"/>
       <c r="G312" s="17"/>
@@ -52074,18 +52613,20 @@
       <c r="M312" s="17"/>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="17"/>
-      <c r="B313" s="22" t="s">
+      <c r="A313" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B313" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C313" s="22" t="s">
-        <v>333</v>
+      <c r="C313" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="E313" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F313" s="17"/>
       <c r="G313" s="17"/>
@@ -52097,18 +52638,20 @@
       <c r="M313" s="17"/>
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="17"/>
-      <c r="B314" s="22" t="s">
+      <c r="A314" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B314" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C314" s="22" t="s">
-        <v>333</v>
+      <c r="C314" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E314" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F314" s="17"/>
       <c r="G314" s="17"/>
@@ -52120,18 +52663,20 @@
       <c r="M314" s="17"/>
     </row>
     <row r="315" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="17"/>
-      <c r="B315" s="22" t="s">
+      <c r="A315" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B315" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C315" s="22" t="s">
-        <v>333</v>
+      <c r="C315" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="E315" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F315" s="17"/>
       <c r="G315" s="17"/>
@@ -52143,18 +52688,20 @@
       <c r="M315" s="17"/>
     </row>
     <row r="316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="17"/>
-      <c r="B316" s="22" t="s">
+      <c r="A316" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B316" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C316" s="22" t="s">
-        <v>333</v>
+      <c r="C316" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="E316" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F316" s="17"/>
       <c r="G316" s="17"/>
@@ -52166,18 +52713,20 @@
       <c r="M316" s="17"/>
     </row>
     <row r="317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="17"/>
-      <c r="B317" s="22" t="s">
+      <c r="A317" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B317" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C317" s="22" t="s">
-        <v>333</v>
+      <c r="C317" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="E317" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F317" s="17"/>
       <c r="G317" s="17"/>
@@ -52189,18 +52738,20 @@
       <c r="M317" s="17"/>
     </row>
     <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="17"/>
-      <c r="B318" s="22" t="s">
+      <c r="A318" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B318" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C318" s="22" t="s">
-        <v>333</v>
+      <c r="C318" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="E318" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F318" s="17"/>
       <c r="G318" s="17"/>
@@ -52212,18 +52763,20 @@
       <c r="M318" s="17"/>
     </row>
     <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="17"/>
-      <c r="B319" s="22" t="s">
+      <c r="A319" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B319" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C319" s="22" t="s">
-        <v>333</v>
+      <c r="C319" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="E319" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F319" s="17"/>
       <c r="G319" s="17"/>
@@ -52234,8 +52787,358 @@
       <c r="L319" s="17"/>
       <c r="M319" s="17"/>
     </row>
+    <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D320" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="E320" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F320" s="17"/>
+      <c r="G320" s="17"/>
+      <c r="H320" s="17"/>
+      <c r="I320" s="17"/>
+      <c r="J320" s="17"/>
+      <c r="K320" s="17"/>
+      <c r="L320" s="17"/>
+      <c r="M320" s="17"/>
+    </row>
+    <row r="321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D321" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E321" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F321" s="17"/>
+      <c r="G321" s="17"/>
+      <c r="H321" s="17"/>
+      <c r="I321" s="17"/>
+      <c r="J321" s="17"/>
+      <c r="K321" s="17"/>
+      <c r="L321" s="17"/>
+      <c r="M321" s="17"/>
+    </row>
+    <row r="322" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D322" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="E322" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F322" s="17"/>
+      <c r="G322" s="17"/>
+      <c r="H322" s="17"/>
+      <c r="I322" s="17"/>
+      <c r="J322" s="17"/>
+      <c r="K322" s="17"/>
+      <c r="L322" s="17"/>
+      <c r="M322" s="17"/>
+    </row>
+    <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D323" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="E323" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F323" s="17"/>
+      <c r="G323" s="17"/>
+      <c r="H323" s="17"/>
+      <c r="I323" s="17"/>
+      <c r="J323" s="17"/>
+      <c r="K323" s="17"/>
+      <c r="L323" s="17"/>
+      <c r="M323" s="17"/>
+    </row>
+    <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D324" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="E324" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F324" s="17"/>
+      <c r="G324" s="17"/>
+      <c r="H324" s="17"/>
+      <c r="I324" s="17"/>
+      <c r="J324" s="17"/>
+      <c r="K324" s="17"/>
+      <c r="L324" s="17"/>
+      <c r="M324" s="17"/>
+    </row>
+    <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D325" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E325" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F325" s="17"/>
+      <c r="G325" s="17"/>
+      <c r="H325" s="17"/>
+      <c r="I325" s="17"/>
+      <c r="J325" s="17"/>
+      <c r="K325" s="17"/>
+      <c r="L325" s="17"/>
+      <c r="M325" s="17"/>
+    </row>
+    <row r="326" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D326" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="E326" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F326" s="17"/>
+      <c r="G326" s="17"/>
+      <c r="H326" s="17"/>
+      <c r="I326" s="17"/>
+      <c r="J326" s="17"/>
+      <c r="K326" s="17"/>
+      <c r="L326" s="17"/>
+      <c r="M326" s="17"/>
+    </row>
+    <row r="327" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D327" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E327" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F327" s="17"/>
+      <c r="G327" s="17"/>
+      <c r="H327" s="17"/>
+      <c r="I327" s="17"/>
+      <c r="J327" s="17"/>
+      <c r="K327" s="17"/>
+      <c r="L327" s="17"/>
+      <c r="M327" s="17"/>
+    </row>
+    <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D328" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E328" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F328" s="17"/>
+      <c r="G328" s="17"/>
+      <c r="H328" s="17"/>
+      <c r="I328" s="17"/>
+      <c r="J328" s="17"/>
+      <c r="K328" s="17"/>
+      <c r="L328" s="17"/>
+      <c r="M328" s="17"/>
+    </row>
+    <row r="329" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D329" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E329" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F329" s="17"/>
+      <c r="G329" s="17"/>
+      <c r="H329" s="17"/>
+      <c r="I329" s="17"/>
+      <c r="J329" s="17"/>
+      <c r="K329" s="17"/>
+      <c r="L329" s="17"/>
+      <c r="M329" s="17"/>
+    </row>
+    <row r="330" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D330" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E330" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F330" s="17"/>
+      <c r="G330" s="17"/>
+      <c r="H330" s="17"/>
+      <c r="I330" s="17"/>
+      <c r="J330" s="17"/>
+      <c r="K330" s="17"/>
+      <c r="L330" s="17"/>
+      <c r="M330" s="17"/>
+    </row>
+    <row r="331" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D331" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="E331" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F331" s="17"/>
+      <c r="G331" s="17"/>
+      <c r="H331" s="17"/>
+      <c r="I331" s="17"/>
+      <c r="J331" s="17"/>
+      <c r="K331" s="17"/>
+      <c r="L331" s="17"/>
+      <c r="M331" s="17"/>
+    </row>
+    <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D332" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E332" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F332" s="17"/>
+      <c r="G332" s="17"/>
+      <c r="H332" s="17"/>
+      <c r="I332" s="17"/>
+      <c r="J332" s="17"/>
+      <c r="K332" s="17"/>
+      <c r="L332" s="17"/>
+      <c r="M332" s="17"/>
+    </row>
+    <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D333" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E333" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F333" s="17"/>
+      <c r="G333" s="17"/>
+      <c r="H333" s="17"/>
+      <c r="I333" s="17"/>
+      <c r="J333" s="17"/>
+      <c r="K333" s="17"/>
+      <c r="L333" s="17"/>
+      <c r="M333" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="28">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A16"/>
     <mergeCell ref="B3:B16"/>
@@ -52244,11 +53147,10 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:A36"/>
-    <mergeCell ref="B20:B45"/>
+    <mergeCell ref="A20:A333"/>
+    <mergeCell ref="B20:B333"/>
     <mergeCell ref="C20:C36"/>
     <mergeCell ref="C37:C45"/>
-    <mergeCell ref="B46:B319"/>
     <mergeCell ref="C46:C54"/>
     <mergeCell ref="C55:C63"/>
     <mergeCell ref="C64:C72"/>
@@ -52258,13 +53160,13 @@
     <mergeCell ref="C100:C108"/>
     <mergeCell ref="C109:C112"/>
     <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C117:C145"/>
-    <mergeCell ref="C146:C174"/>
-    <mergeCell ref="C175:C203"/>
-    <mergeCell ref="C204:C232"/>
-    <mergeCell ref="C233:C261"/>
-    <mergeCell ref="C262:C290"/>
-    <mergeCell ref="C291:C319"/>
+    <mergeCell ref="C117:C147"/>
+    <mergeCell ref="C148:C178"/>
+    <mergeCell ref="C179:C209"/>
+    <mergeCell ref="C210:C240"/>
+    <mergeCell ref="C241:C271"/>
+    <mergeCell ref="C272:C302"/>
+    <mergeCell ref="C303:C333"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -52283,7 +53185,7 @@
   </sheetPr>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I47" activeCellId="0" sqref="I47"/>
     </sheetView>
   </sheetViews>
@@ -52307,43 +53209,43 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O1" s="4"/>
       <c r="Q1" s="4"/>
@@ -52378,13 +53280,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>242</v>
@@ -52403,13 +53305,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>242</v>
@@ -52428,13 +53330,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>242</v>
@@ -52453,13 +53355,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>242</v>
@@ -52478,13 +53380,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>242</v>
@@ -52503,16 +53405,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="8"/>
@@ -52528,16 +53430,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
@@ -52553,16 +53455,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="8"/>
@@ -52578,16 +53480,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="8"/>
@@ -52603,16 +53505,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="8"/>
@@ -52628,16 +53530,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
@@ -52653,16 +53555,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="8"/>
@@ -52678,16 +53580,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="8"/>
@@ -52703,16 +53605,16 @@
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="8"/>
@@ -52728,16 +53630,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="8"/>
@@ -52753,16 +53655,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="8"/>
@@ -52778,16 +53680,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="8"/>
@@ -52803,16 +53705,16 @@
         <v>2</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="8"/>
@@ -52828,16 +53730,16 @@
         <v>2</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="8"/>
@@ -52853,16 +53755,16 @@
         <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="8"/>
@@ -52878,16 +53780,16 @@
         <v>2</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="8"/>
@@ -52903,16 +53805,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="8"/>
@@ -52928,16 +53830,16 @@
         <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="8"/>
@@ -52953,16 +53855,16 @@
         <v>3</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>366</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="8"/>
@@ -52978,16 +53880,16 @@
         <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="8"/>
@@ -53003,16 +53905,16 @@
         <v>3</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="8"/>
@@ -53028,16 +53930,16 @@
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="8"/>
@@ -53053,16 +53955,16 @@
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="8"/>
@@ -53078,16 +53980,16 @@
         <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="8"/>
@@ -53103,16 +54005,16 @@
         <v>3</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="8"/>
@@ -53128,16 +54030,16 @@
         <v>3</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="8"/>
@@ -53153,16 +54055,16 @@
         <v>3</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="8"/>
@@ -53178,16 +54080,16 @@
         <v>3</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="8"/>
@@ -53203,16 +54105,16 @@
         <v>3</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="8"/>
@@ -53228,16 +54130,16 @@
         <v>3</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="8"/>
@@ -53253,16 +54155,16 @@
         <v>3</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="8"/>
@@ -53278,16 +54180,16 @@
         <v>3</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8"/>
@@ -53303,16 +54205,16 @@
         <v>3</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="8"/>
@@ -53328,16 +54230,16 @@
         <v>3</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="8"/>
@@ -53353,16 +54255,16 @@
         <v>3</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="8"/>
@@ -53378,13 +54280,13 @@
         <v>3</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>384</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>198</v>
@@ -53403,13 +54305,13 @@
         <v>3</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>198</v>
@@ -53428,13 +54330,13 @@
         <v>3</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>198</v>
@@ -53453,13 +54355,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>198</v>
@@ -53478,13 +54380,13 @@
         <v>3</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>198</v>
@@ -53503,13 +54405,13 @@
         <v>3</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>198</v>
@@ -53528,13 +54430,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>198</v>
@@ -53553,13 +54455,13 @@
         <v>3</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>198</v>
@@ -53578,13 +54480,13 @@
         <v>3</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>198</v>
@@ -53603,13 +54505,13 @@
         <v>3</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>198</v>
@@ -53628,13 +54530,13 @@
         <v>3</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>198</v>
@@ -53653,13 +54555,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>198</v>
@@ -53678,13 +54580,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>198</v>
@@ -53703,13 +54605,13 @@
         <v>3</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>198</v>
@@ -53728,13 +54630,13 @@
         <v>3</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>198</v>
@@ -53753,13 +54655,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>198</v>
@@ -53778,13 +54680,13 @@
         <v>3</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>198</v>
@@ -53806,7 +54708,7 @@
         <v>114</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>262</v>
@@ -53831,7 +54733,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>258</v>
@@ -53856,10 +54758,10 @@
         <v>114</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>198</v>
@@ -53881,10 +54783,10 @@
         <v>114</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>198</v>
@@ -53906,7 +54808,7 @@
         <v>114</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>271</v>
